--- a/test/scenarios/Rebalance_Test.xlsx
+++ b/test/scenarios/Rebalance_Test.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\sigma-strategy-contracts\test\scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="12732"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="66">
   <si>
     <t>Table 1</t>
   </si>
@@ -207,20 +216,18 @@
   <si>
     <t>sqrtPriceMid</t>
   </si>
+  <si>
+    <t>Uniswap Tick Goes Out Of Bounds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0%"/>
-    <numFmt numFmtId="60" formatCode="0.000000000000"/>
-    <numFmt numFmtId="61" formatCode="0.000000"/>
-    <numFmt numFmtId="62" formatCode="0.000000%"/>
-    <numFmt numFmtId="63" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -232,30 +239,25 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -268,6 +270,40 @@
     <font>
       <sz val="10"/>
       <color indexed="20"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -1347,442 +1383,448 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="146">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="10" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="10" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="62" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="62" fontId="5" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="5" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="5" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" fillId="9" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="8" fillId="9" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" fillId="9" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="8" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="63" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="63" fontId="0" fillId="9" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" fillId="9" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="8" fillId="9" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" fillId="9" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" fillId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="5" fillId="2" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" fillId="9" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="63" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="3" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,37 +1834,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffa3f6bb"/>
-      <rgbColor rgb="ff73fdff"/>
-      <rgbColor rgb="ffb9fcbc"/>
-      <rgbColor rgb="ff76f9fb"/>
-      <rgbColor rgb="fffff056"/>
-      <rgbColor rgb="ffeaeaea"/>
-      <rgbColor rgb="ff5e5e5e"/>
-      <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffb7fcbb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFA3F6BB"/>
+      <rgbColor rgb="FF73FDFF"/>
+      <rgbColor rgb="FFB9FCBC"/>
+      <rgbColor rgb="FF76F9FB"/>
+      <rgbColor rgb="FFFFF056"/>
+      <rgbColor rgb="FFEAEAEA"/>
+      <rgbColor rgb="FF5E5E5E"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFB7FCBB"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -2024,7 +2114,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2043,7 +2133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2073,7 +2163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2099,7 +2189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2125,7 +2215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2151,7 +2241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2177,7 +2267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2203,7 +2293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2229,7 +2319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2255,7 +2345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2281,7 +2371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2294,9 +2384,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2313,7 +2409,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2332,7 +2428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2358,7 +2454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2384,7 +2480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2410,7 +2506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2436,7 +2532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2462,7 +2558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2488,7 +2584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2514,7 +2610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2540,7 +2636,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2566,7 +2662,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2579,9 +2675,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2595,7 +2697,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2614,7 +2716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2644,7 +2746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2670,7 +2772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2696,7 +2798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2722,7 +2824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2748,7 +2850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2774,7 +2876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2800,7 +2902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2826,7 +2928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2852,7 +2954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2865,80 +2967,102 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R34" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54:Z57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="1" customWidth="1"/>
-    <col min="3" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6719" style="1" customWidth="1"/>
-    <col min="10" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6719" style="1" customWidth="1"/>
-    <col min="14" max="24" width="16.3516" style="1" customWidth="1"/>
-    <col min="25" max="26" width="17.3516" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" style="145" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" style="145" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="122.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="65" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.33203125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="25.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="29" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="31.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="25.21875" style="145" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" style="7" customWidth="1"/>
+    <col min="28" max="16384" width="16.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:26" ht="27.6" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" ht="21.05" customHeight="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" t="s" s="9">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
@@ -2955,52 +3079,52 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-    </row>
-    <row r="3" ht="21.05" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+    </row>
+    <row r="3" spans="1:26" ht="21" customHeight="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14">
         <v>0.1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="14">
         <f>1-B3</f>
         <v>0.9</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
     </row>
-    <row r="4" ht="22.2" customHeight="1">
+    <row r="4" spans="1:26" ht="22.2" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -3016,12 +3140,12 @@
       <c r="V4" s="20"/>
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-    </row>
-    <row r="5" ht="9.5" customHeight="1">
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="1:26" ht="9.4499999999999993" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" t="s" s="28">
+      <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="29"/>
@@ -3049,7 +3173,7 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="31"/>
     </row>
-    <row r="6" ht="21.95" customHeight="1">
+    <row r="6" spans="1:26" ht="21.9" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="34"/>
@@ -3077,18 +3201,18 @@
       <c r="Y6" s="36"/>
       <c r="Z6" s="37"/>
     </row>
-    <row r="7" ht="21.7" customHeight="1">
+    <row r="7" spans="1:26" ht="21.75" customHeight="1">
       <c r="A7" s="38"/>
-      <c r="B7" t="s" s="39">
+      <c r="B7" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="40">
         <f>0.81*B9</f>
-        <v>2478.888514573250</v>
+        <v>2478.8885145732479</v>
       </c>
       <c r="D7" s="41">
         <f>B9/0.81</f>
-        <v>3778.217519544650</v>
+        <v>3778.2175195446539</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="34"/>
@@ -3107,451 +3231,451 @@
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="43"/>
-      <c r="V7" t="s" s="39">
+      <c r="V7" s="39" t="s">
         <v>4</v>
       </c>
       <c r="W7" s="40">
         <f>0.81*V9</f>
-        <v>2478.88851471</v>
+        <v>2495.0885147100003</v>
       </c>
       <c r="X7" s="41">
         <f>V9/0.81</f>
-        <v>3778.217519753090</v>
+        <v>3802.9088777777774</v>
       </c>
       <c r="Y7" s="44"/>
       <c r="Z7" s="45"/>
     </row>
-    <row r="8" ht="23.8" customHeight="1">
+    <row r="8" spans="1:26" ht="23.85" customHeight="1">
       <c r="A8" s="38"/>
-      <c r="B8" t="s" s="46">
+      <c r="B8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="47">
+      <c r="C8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s" s="47">
+      <c r="D8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s" s="47">
+      <c r="E8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s" s="47">
+      <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s" s="47">
+      <c r="G8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s" s="47">
+      <c r="H8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s" s="47">
+      <c r="I8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s" s="47">
+      <c r="J8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K8" t="s" s="47">
+      <c r="K8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L8" t="s" s="47">
+      <c r="L8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M8" t="s" s="47">
+      <c r="M8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N8" t="s" s="47">
+      <c r="N8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O8" t="s" s="48">
+      <c r="O8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="P8" t="s" s="47">
+      <c r="P8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" t="s" s="47">
+      <c r="Q8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R8" t="s" s="47">
+      <c r="R8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S8" t="s" s="47">
+      <c r="S8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T8" t="s" s="47">
+      <c r="T8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="U8" t="s" s="47">
+      <c r="U8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="V8" t="s" s="48">
+      <c r="V8" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="W8" t="s" s="47">
+      <c r="W8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="X8" t="s" s="47">
+      <c r="X8" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" t="s" s="47">
+      <c r="Y8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" t="s" s="49">
+      <c r="Z8" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="39.95" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51">
-        <f t="shared" si="5" ref="B9:B53">3060.35619083117</f>
-        <v>3060.356190831170</v>
-      </c>
-      <c r="C9" s="52">
+    <row r="9" spans="1:26" ht="39.9" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52">
+        <f>3060.35619083117</f>
+        <v>3060.3561908311699</v>
+      </c>
+      <c r="C9" s="53">
         <f>IF((LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="53">
         <f>IF((LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="53">
         <f>E11*$B$3*10^-18</f>
-        <v>0.326787207467537</v>
-      </c>
-      <c r="F9" s="52">
+        <v>0.32678720746753703</v>
+      </c>
+      <c r="F9" s="53">
         <f>F11*$B$3*10^-6</f>
         <v>1000</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="54">
         <f>((G11/E11)-(E9/E11))*10^18</f>
-        <v>0.00133272376394435</v>
-      </c>
-      <c r="H9" s="53">
+        <v>1.3327237657696459E-3</v>
+      </c>
+      <c r="H9" s="54">
         <f>((H11/F11)-(F9/F11))*10^6</f>
-        <v>0.000698852674847</v>
-      </c>
-      <c r="I9" s="52">
+        <v>6.9885267298091581E-4</v>
+      </c>
+      <c r="I9" s="53">
         <f>E11*$C$3*10^-18</f>
-        <v>2.94108486720783</v>
-      </c>
-      <c r="J9" s="52">
+        <v>2.9410848672078331</v>
+      </c>
+      <c r="J9" s="53">
         <f>F11*$C$3*10^-6</f>
         <v>9000</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="53">
         <f>E9+I9+M9</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="53">
         <f>F9+J9+N9</f>
         <v>10000</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="53">
         <v>0</v>
       </c>
-      <c r="N9" s="52">
+      <c r="N9" s="53">
         <v>0</v>
       </c>
-      <c r="O9" s="52">
-        <v>3060.356191</v>
-      </c>
-      <c r="P9" s="52">
+      <c r="O9" s="53">
+        <v>3060.3561908311699</v>
+      </c>
+      <c r="P9" s="53">
         <f>IF(S12&lt;0,ABS(S12)/O9,0)</f>
-        <v>0.000139245126232001</v>
-      </c>
-      <c r="Q9" s="52">
+        <v>1.3924503612502514E-4</v>
+      </c>
+      <c r="Q9" s="53">
         <f>IF(S12&gt;0,S12,0)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="52">
+      <c r="R9" s="53">
         <f>R12</f>
-        <v>3.26773282954914</v>
-      </c>
-      <c r="S9" s="52">
+        <v>3.2677328296392449</v>
+      </c>
+      <c r="S9" s="53">
         <f>R13</f>
-        <v>10000.4261396841</v>
-      </c>
-      <c r="T9" s="52">
+        <v>10000.426139408348</v>
+      </c>
+      <c r="T9" s="53">
         <f>R9*$B$3</f>
-        <v>0.326773282954914</v>
-      </c>
-      <c r="U9" s="52">
+        <v>0.32677328296392449</v>
+      </c>
+      <c r="U9" s="53">
         <f>S9*$B$3</f>
-        <v>1000.042613968410</v>
-      </c>
-      <c r="V9" s="52">
-        <v>3060.356191</v>
-      </c>
-      <c r="W9" s="52">
+        <v>1000.0426139408348</v>
+      </c>
+      <c r="V9" s="53">
+        <v>3080.3561909999999</v>
+      </c>
+      <c r="W9" s="53">
         <f>IF((LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>198180</v>
-      </c>
-      <c r="X9" s="52">
+        <v>198120</v>
+      </c>
+      <c r="X9" s="53">
         <f>IF((LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>193920</v>
-      </c>
-      <c r="Y9" s="53">
+        <v>193860</v>
+      </c>
+      <c r="Y9" s="54">
         <f>(G13/T9)-1</f>
-        <v>0.0134136011243605</v>
-      </c>
-      <c r="Z9" s="54">
+        <v>4.537896358105975E-3</v>
+      </c>
+      <c r="Z9" s="55">
         <f>(H13/U9)-1</f>
-        <v>0.00698852699652134</v>
-      </c>
-    </row>
-    <row r="10" ht="21.7" customHeight="1">
-      <c r="A10" t="s" s="55">
+        <v>9.3004464492894012E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A10" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s" s="56">
+      <c r="B10" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="57">
+      <c r="C10" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s" s="57">
+      <c r="D10" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s" s="58">
+      <c r="E10" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s" s="58">
+      <c r="F10" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G10" t="s" s="57">
+      <c r="G10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s" s="57">
+      <c r="H10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I10" t="s" s="57">
+      <c r="I10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J10" t="s" s="57">
+      <c r="J10" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K10" t="s" s="57">
+      <c r="K10" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L10" t="s" s="57">
+      <c r="L10" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M10" t="s" s="57">
+      <c r="M10" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N10" t="s" s="59">
+      <c r="N10" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O10" t="s" s="60">
+      <c r="O10" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="66"/>
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
       <c r="W10" s="36"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="66"/>
-    </row>
-    <row r="11" ht="27.8" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68">
+      <c r="X10" s="67"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="68"/>
+    </row>
+    <row r="11" spans="1:26" ht="27.75" customHeight="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="69">
         <f>SQRT(B9*10^6/10^18)*2^96</f>
-        <v>4.38294046917908e+24</v>
-      </c>
-      <c r="C11" s="69">
+        <v>4.3829404691790772E+24</v>
+      </c>
+      <c r="C11" s="70">
         <f>B11-$B$3*F11*POWER(2,96)/L11</f>
-        <v>3.94464642226117e+24</v>
+        <v>3.9446464222611696E+24</v>
       </c>
       <c r="D11" s="70">
         <f>M11*B11/N11</f>
-        <v>4.86997998604707e+24</v>
+        <v>4.8699799860470599E+24</v>
       </c>
       <c r="E11" s="71">
-        <f t="shared" si="29" ref="E11:E66">3267872074675370000</f>
-        <v>3.26787207467537e+18</v>
+        <f t="shared" ref="E11:E66" si="0">3267872074675370000</f>
+        <v>3.26787207467537E+18</v>
       </c>
       <c r="F11" s="71">
-        <f t="shared" si="30" ref="F11:F66">10000000000</f>
+        <f>10000000000</f>
         <v>10000000000</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="72">
         <f>(M11-(M11*B11)/(SQRT(1/(1.0001^D9)*2^96*2^96/10^6)*10^3))/B11/10^18</f>
-        <v>0.331142378238987</v>
-      </c>
-      <c r="H11" s="71">
+        <v>0.33114237824495185</v>
+      </c>
+      <c r="H11" s="72">
         <f>(B11-(SQRT(1/(1.0001^C9)*2^96*2^96)))*L11/POWER(2,96)/10^6</f>
-        <v>1006.988526748470</v>
-      </c>
-      <c r="I11" s="69">
-        <v>1e+99</v>
-      </c>
-      <c r="J11" s="69">
+        <v>1006.9885267298091</v>
+      </c>
+      <c r="I11" s="70">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J11" s="70">
         <f>(E11)*(B11*I11)/POWER(2,96)/(I11-B11)</f>
-        <v>180780271934442.1</v>
-      </c>
-      <c r="K11" s="72">
+        <v>180780271934442</v>
+      </c>
+      <c r="K11" s="70">
         <f>(F11)*POWER(2,96)/(B11-0)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="L11" s="72">
+        <v>180764861105000.91</v>
+      </c>
+      <c r="L11" s="70">
         <f>MIN(J11,K11)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="M11" s="72">
+        <v>180764861105000.91</v>
+      </c>
+      <c r="M11" s="70">
         <f>L11*POWER(2,96)</f>
-        <v>1.43216677924954e+43</v>
+        <v>1.4321667792495432E+43</v>
       </c>
       <c r="N11" s="73">
         <f>M11-($B$3*E11)*B11</f>
-        <v>1.28893789160759e+43</v>
-      </c>
-      <c r="O11" t="s" s="74">
+        <v>1.2889378916075946E+43</v>
+      </c>
+      <c r="O11" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="63"/>
-      <c r="Q11" t="s" s="74">
+      <c r="P11" s="65"/>
+      <c r="Q11" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="63"/>
-      <c r="S11" t="s" s="74">
+      <c r="R11" s="65"/>
+      <c r="S11" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="75"/>
+      <c r="T11" s="76"/>
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="66"/>
-    </row>
-    <row r="12" ht="20.85" customHeight="1">
-      <c r="A12" t="s" s="55">
+      <c r="X11" s="77"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="68"/>
+    </row>
+    <row r="12" spans="1:26" ht="20.85" customHeight="1">
+      <c r="A12" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s" s="56">
+      <c r="B12" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s" s="57">
+      <c r="C12" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s" s="57">
+      <c r="D12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s" s="57">
+      <c r="E12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s" s="57">
+      <c r="F12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G12" t="s" s="57">
+      <c r="G12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H12" t="s" s="57">
+      <c r="H12" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I12" t="s" s="57">
+      <c r="I12" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J12" t="s" s="57">
+      <c r="J12" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K12" t="s" s="57">
+      <c r="K12" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L12" t="s" s="57">
+      <c r="L12" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s" s="57">
+      <c r="M12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N12" t="s" s="59">
+      <c r="N12" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s" s="56">
+      <c r="O12" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="77">
+      <c r="P12" s="78">
         <f>K9</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="Q12" s="78">
+      <c r="Q12" s="79">
         <f>P12*O9</f>
-        <v>10000.8525351288</v>
-      </c>
-      <c r="R12" s="79">
+        <v>10000.852534577069</v>
+      </c>
+      <c r="R12" s="80">
         <f>P12+(S12/O9)</f>
-        <v>3.26773282954914</v>
-      </c>
-      <c r="S12" s="79">
+        <v>3.2677328296392449</v>
+      </c>
+      <c r="S12" s="80">
         <f>(P13-Q12)/2*(1-0.0003)</f>
-        <v>-0.42613968413068</v>
-      </c>
-      <c r="T12" s="75"/>
+        <v>-0.42613940834773056</v>
+      </c>
+      <c r="T12" s="76"/>
       <c r="U12" s="35"/>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="66"/>
-    </row>
-    <row r="13" ht="30.05" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81">
+      <c r="X12" s="77"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="68"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" customHeight="1">
+      <c r="A13" s="81"/>
+      <c r="B13" s="82">
         <f>SQRT(V9*10^6/10^18)*2^96</f>
-        <v>4.38294046929997e+24</v>
-      </c>
-      <c r="C13" s="82">
+        <v>4.3972388145443278E+24</v>
+      </c>
+      <c r="C13" s="83">
         <f>B13-$B$3*F13*POWER(2,96)/L13</f>
-        <v>3.94464642236997e+24</v>
-      </c>
-      <c r="D13" s="82">
+        <v>3.9575149330898948E+24</v>
+      </c>
+      <c r="D13" s="83">
         <f>M13*B13/N13</f>
-        <v>4.86993386861645e+24</v>
-      </c>
-      <c r="E13" s="82">
+        <v>4.8893712474444639E+24</v>
+      </c>
+      <c r="E13" s="83">
         <f>R9*10^18</f>
-        <v>3.26773282954914e+18</v>
-      </c>
-      <c r="F13" s="82">
+        <v>3.2677328296392448E+18</v>
+      </c>
+      <c r="F13" s="83">
         <f>S9*10^6</f>
-        <v>10000426139.6841</v>
-      </c>
-      <c r="G13" s="83">
+        <v>10000426139.408348</v>
+      </c>
+      <c r="G13" s="84">
         <f>(M13-(M13*B13)/(SQRT(1/(1.0001^X9)*2^96*2^96/10^6)*10^3))/B13/10^18</f>
-        <v>0.331156489430569</v>
-      </c>
-      <c r="H13" s="83">
+        <v>0.3282561462546128</v>
+      </c>
+      <c r="H13" s="84">
         <f>(B13-(SQRT(1/(1.0001^W9)*2^96*2^96)))*L13/POWER(2,96)/10^6</f>
-        <v>1007.0314387738</v>
-      </c>
-      <c r="I13" s="84">
-        <v>1e+99</v>
-      </c>
-      <c r="J13" s="82">
+        <v>1009.343456718799</v>
+      </c>
+      <c r="I13" s="83">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J13" s="83">
         <f>(E13)*(B13*I13)/POWER(2,96)/(I13-B13)</f>
-        <v>180772568831347.4</v>
-      </c>
-      <c r="K13" s="82">
+        <v>181362298178547.81</v>
+      </c>
+      <c r="K13" s="83">
         <f>(F13)*POWER(2,96)/(B13-0)</f>
-        <v>180772564208095.5</v>
-      </c>
-      <c r="L13" s="82">
+        <v>180184752477913.09</v>
+      </c>
+      <c r="L13" s="83">
         <f>MIN(J13,K13)</f>
-        <v>180772564208095.5</v>
-      </c>
-      <c r="M13" s="82">
+        <v>180184752477913.09</v>
+      </c>
+      <c r="M13" s="83">
         <f>L13*POWER(2,96)</f>
-        <v>1.43222780951993e+43</v>
+        <v>1.4275706851912592E+43</v>
       </c>
       <c r="N13" s="85">
         <f>M13-(0.1*E13)*B13</f>
-        <v>1.28900502490502e+43</v>
-      </c>
-      <c r="O13" t="s" s="86">
+        <v>1.2838806688507547E+43</v>
+      </c>
+      <c r="O13" s="86" t="s">
         <v>49</v>
       </c>
       <c r="P13" s="87">
@@ -3560,58 +3684,58 @@
       </c>
       <c r="Q13" s="88">
         <f>P13/O9</f>
-        <v>3.26759350085076</v>
+        <v>3.2675935010310271</v>
       </c>
       <c r="R13" s="89">
         <f>P13-S12</f>
-        <v>10000.4261396841</v>
+        <v>10000.426139408348</v>
       </c>
       <c r="S13" s="90"/>
       <c r="T13" s="91"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="94"/>
-    </row>
-    <row r="14" ht="21.35" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-    </row>
-    <row r="15" ht="21.35" customHeight="1">
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="95"/>
+    </row>
+    <row r="14" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+    </row>
+    <row r="15" spans="1:26" ht="21.3" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
@@ -3628,12 +3752,12 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-    </row>
-    <row r="16" ht="9.5" customHeight="1">
-      <c r="A16" s="95"/>
-      <c r="B16" t="s" s="96">
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+    </row>
+    <row r="16" spans="1:26" ht="9.4499999999999993" customHeight="1">
+      <c r="A16" s="99"/>
+      <c r="B16" s="100" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="29"/>
@@ -3658,11 +3782,11 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="98"/>
-    </row>
-    <row r="17" ht="21.95" customHeight="1">
-      <c r="A17" s="99"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="102"/>
+    </row>
+    <row r="17" spans="1:26" ht="21.9" customHeight="1">
+      <c r="A17" s="103"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -3687,20 +3811,20 @@
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="29"/>
-      <c r="Z17" s="100"/>
-    </row>
-    <row r="18" ht="21.7" customHeight="1">
+      <c r="Z17" s="104"/>
+    </row>
+    <row r="18" spans="1:26" ht="21.75" customHeight="1">
       <c r="A18" s="38"/>
-      <c r="B18" t="s" s="39">
+      <c r="B18" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="40">
         <f>0.81*B20</f>
-        <v>2478.888514573250</v>
+        <v>2478.8885145732479</v>
       </c>
       <c r="D18" s="41">
         <f>B20/0.81</f>
-        <v>3778.217519544650</v>
+        <v>3778.2175195446539</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
@@ -3719,511 +3843,511 @@
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="43"/>
-      <c r="V18" t="s" s="39">
+      <c r="V18" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="101">
+      <c r="W18" s="40">
         <f>0.81*V20</f>
         <v>2478.88851471</v>
       </c>
-      <c r="X18" s="102">
+      <c r="X18" s="41">
         <f>V20/0.81</f>
-        <v>3778.217519753090</v>
+        <v>3778.217519753086</v>
       </c>
       <c r="Y18" s="44"/>
       <c r="Z18" s="45"/>
     </row>
-    <row r="19" ht="23.8" customHeight="1">
+    <row r="19" spans="1:26" ht="23.85" customHeight="1">
       <c r="A19" s="38"/>
-      <c r="B19" t="s" s="46">
+      <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s" s="47">
+      <c r="C19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s" s="47">
+      <c r="D19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s" s="47">
+      <c r="E19" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F19" t="s" s="47">
+      <c r="F19" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s" s="47">
+      <c r="G19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H19" t="s" s="47">
+      <c r="H19" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I19" t="s" s="47">
+      <c r="I19" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J19" t="s" s="47">
+      <c r="J19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s" s="47">
+      <c r="K19" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L19" t="s" s="47">
+      <c r="L19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M19" t="s" s="47">
+      <c r="M19" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N19" t="s" s="47">
+      <c r="N19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O19" t="s" s="48">
+      <c r="O19" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="P19" t="s" s="47">
+      <c r="P19" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" t="s" s="47">
+      <c r="Q19" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R19" t="s" s="47">
+      <c r="R19" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S19" t="s" s="47">
+      <c r="S19" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T19" t="s" s="47">
+      <c r="T19" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="U19" t="s" s="47">
+      <c r="U19" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="V19" t="s" s="48">
+      <c r="V19" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="W19" t="s" s="47">
+      <c r="W19" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="X19" t="s" s="47">
+      <c r="X19" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Y19" t="s" s="47">
+      <c r="Y19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Z19" t="s" s="49">
+      <c r="Z19" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="40.55" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51">
-        <f t="shared" si="5"/>
-        <v>3060.356190831170</v>
-      </c>
-      <c r="C20" s="52">
+    <row r="20" spans="1:26" ht="40.5" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52">
+        <f t="shared" ref="B9:B53" si="1">3060.35619083117</f>
+        <v>3060.3561908311699</v>
+      </c>
+      <c r="C20" s="53">
         <f>IF((LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="53">
         <f>IF((LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="E20" s="103">
+      <c r="E20" s="53">
         <f>E22*$B$3*10^-18</f>
-        <v>0.326787207467537</v>
-      </c>
-      <c r="F20" s="103">
+        <v>0.32678720746753703</v>
+      </c>
+      <c r="F20" s="53">
         <f>F22*$B$3*10^-6</f>
         <v>1000</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="54">
         <f>((G22/E22)-(E20/E22))*10^18</f>
-        <v>0.00133272376394435</v>
-      </c>
-      <c r="H20" s="53">
+        <v>1.3327237657696459E-3</v>
+      </c>
+      <c r="H20" s="54">
         <f>((H22/F22)-(F20/F22))*10^6</f>
-        <v>0.000698852674847</v>
-      </c>
-      <c r="I20" s="103">
+        <v>6.9885267298091581E-4</v>
+      </c>
+      <c r="I20" s="53">
         <f>E22*$C$3*10^-18</f>
-        <v>2.94108486720783</v>
-      </c>
-      <c r="J20" s="103">
+        <v>2.9410848672078331</v>
+      </c>
+      <c r="J20" s="53">
         <f>F22*$C$3*10^-6</f>
         <v>9000</v>
       </c>
-      <c r="K20" s="103">
+      <c r="K20" s="53">
         <f>E20+I20+M20</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="L20" s="103">
+      <c r="L20" s="53">
         <f>F20+J20+N20</f>
-        <v>10700</v>
-      </c>
-      <c r="M20" s="104">
+        <v>15112.241467</v>
+      </c>
+      <c r="M20" s="53">
         <v>0</v>
       </c>
-      <c r="N20" s="104">
-        <v>700</v>
-      </c>
-      <c r="O20" s="104">
-        <v>3060.356191</v>
-      </c>
-      <c r="P20" s="104">
+      <c r="N20" s="53">
+        <v>5112.2414669999998</v>
+      </c>
+      <c r="O20" s="53">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="P20" s="53">
         <f>IF(S23&lt;0,ABS(S23)/O20,0)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="103">
+      <c r="Q20" s="53">
         <f>IF(S23&gt;0,S23,0)</f>
-        <v>349.468860315869</v>
-      </c>
-      <c r="R20" s="103">
+        <v>2554.9277575958281</v>
+      </c>
+      <c r="R20" s="53">
         <f>R23</f>
-        <v>3.38206429234716</v>
-      </c>
-      <c r="S20" s="103">
+        <v>4.1027186082617044</v>
+      </c>
+      <c r="S20" s="53">
         <f>R24</f>
-        <v>10350.5311396841</v>
-      </c>
-      <c r="T20" s="103">
+        <v>12557.313709404172</v>
+      </c>
+      <c r="T20" s="53">
         <f>R20*$B$3</f>
-        <v>0.338206429234716</v>
-      </c>
-      <c r="U20" s="103">
+        <v>0.41027186082617045</v>
+      </c>
+      <c r="U20" s="53">
         <f>S20*$B$3</f>
-        <v>1035.053113968410</v>
-      </c>
-      <c r="V20" s="104">
-        <v>3060.356191</v>
-      </c>
-      <c r="W20" s="52">
+        <v>1255.7313709404173</v>
+      </c>
+      <c r="V20" s="53">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="W20" s="53">
         <f>IF((LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="X20" s="52">
+      <c r="X20" s="53">
         <f>IF((LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="Y20" s="53">
+      <c r="Y20" s="54">
         <f>(G24/T20)-1</f>
-        <v>0.0134136270423754</v>
-      </c>
-      <c r="Z20" s="54">
+        <v>1.3413627060614663E-2</v>
+      </c>
+      <c r="Z20" s="55">
         <f>(H24/U20)-1</f>
-        <v>0.00696812127628662</v>
-      </c>
-    </row>
-    <row r="21" ht="21.7" customHeight="1">
-      <c r="A21" t="s" s="55">
+        <v>6.8655601523872622E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A21" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s" s="56">
+      <c r="B21" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s" s="57">
+      <c r="C21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s" s="57">
+      <c r="D21" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E21" t="s" s="58">
+      <c r="E21" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F21" t="s" s="58">
+      <c r="F21" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G21" t="s" s="57">
+      <c r="G21" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H21" t="s" s="57">
+      <c r="H21" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I21" t="s" s="57">
+      <c r="I21" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J21" t="s" s="57">
+      <c r="J21" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K21" t="s" s="57">
+      <c r="K21" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L21" t="s" s="57">
+      <c r="L21" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M21" t="s" s="57">
+      <c r="M21" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N21" t="s" s="59">
+      <c r="N21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O21" t="s" s="60">
+      <c r="O21" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="64"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="66"/>
       <c r="U21" s="36"/>
       <c r="V21" s="36"/>
       <c r="W21" s="36"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="66"/>
-    </row>
-    <row r="22" ht="21.7" customHeight="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68">
+      <c r="X21" s="67"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="68"/>
+    </row>
+    <row r="22" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A22" s="56"/>
+      <c r="B22" s="69">
         <f>SQRT(B20*10^6/10^18)*2^96</f>
-        <v>4.38294046917908e+24</v>
-      </c>
-      <c r="C22" s="105">
+        <v>4.3829404691790772E+24</v>
+      </c>
+      <c r="C22" s="70">
         <f>B22-$B$3*F22*POWER(2,96)/L22</f>
-        <v>3.94464642226117e+24</v>
-      </c>
-      <c r="D22" s="72">
+        <v>3.9446464222611696E+24</v>
+      </c>
+      <c r="D22" s="70">
         <f>M22*B22/N22</f>
-        <v>4.86997998604707e+24</v>
+        <v>4.8699799860470599E+24</v>
       </c>
       <c r="E22" s="71">
-        <f t="shared" si="29"/>
-        <v>3.26787207467537e+18</v>
+        <f t="shared" si="0"/>
+        <v>3.26787207467537E+18</v>
       </c>
       <c r="F22" s="71">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="F11:F66" si="2">10000000000</f>
         <v>10000000000</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="72">
         <f>(M22-(M22*B22)/(SQRT(1/(1.0001^D20)*2^96*2^96/10^6)*10^3))/B22/10^18</f>
-        <v>0.331142378238987</v>
-      </c>
-      <c r="H22" s="71">
+        <v>0.33114237824495185</v>
+      </c>
+      <c r="H22" s="72">
         <f>(B22-(SQRT(1/(1.0001^C20)*2^96*2^96)))*L22/POWER(2,96)/10^6</f>
-        <v>1006.988526748470</v>
-      </c>
-      <c r="I22" s="69">
-        <v>1e+99</v>
-      </c>
-      <c r="J22" s="69">
+        <v>1006.9885267298091</v>
+      </c>
+      <c r="I22" s="70">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J22" s="70">
         <f>(E22)*(B22*I22)/POWER(2,96)/(I22-B22)</f>
-        <v>180780271934442.1</v>
-      </c>
-      <c r="K22" s="72">
+        <v>180780271934442</v>
+      </c>
+      <c r="K22" s="70">
         <f>(F22)*POWER(2,96)/(B22-0)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="L22" s="72">
+        <v>180764861105000.91</v>
+      </c>
+      <c r="L22" s="70">
         <f>MIN(J22,K22)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="M22" s="72">
+        <v>180764861105000.91</v>
+      </c>
+      <c r="M22" s="70">
         <f>L22*POWER(2,96)</f>
-        <v>1.43216677924954e+43</v>
-      </c>
-      <c r="N22" s="106">
+        <v>1.4321667792495432E+43</v>
+      </c>
+      <c r="N22" s="73">
         <f>M22-(0.1*E22)*B22</f>
-        <v>1.28893789160759e+43</v>
-      </c>
-      <c r="O22" t="s" s="74">
+        <v>1.2889378916075946E+43</v>
+      </c>
+      <c r="O22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="P22" s="63"/>
-      <c r="Q22" t="s" s="74">
+      <c r="P22" s="65"/>
+      <c r="Q22" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="63"/>
-      <c r="S22" t="s" s="74">
+      <c r="R22" s="65"/>
+      <c r="S22" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="75"/>
+      <c r="T22" s="76"/>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="66"/>
-    </row>
-    <row r="23" ht="20.85" customHeight="1">
-      <c r="A23" t="s" s="55">
+      <c r="X22" s="77"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="68"/>
+    </row>
+    <row r="23" spans="1:26" ht="20.85" customHeight="1">
+      <c r="A23" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s" s="56">
+      <c r="B23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s" s="57">
+      <c r="C23" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s" s="57">
+      <c r="D23" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s" s="57">
+      <c r="E23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F23" t="s" s="57">
+      <c r="F23" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G23" t="s" s="57">
+      <c r="G23" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H23" t="s" s="57">
+      <c r="H23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I23" t="s" s="57">
+      <c r="I23" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J23" t="s" s="57">
+      <c r="J23" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K23" t="s" s="57">
+      <c r="K23" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L23" t="s" s="57">
+      <c r="L23" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M23" t="s" s="57">
+      <c r="M23" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N23" t="s" s="59">
+      <c r="N23" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O23" t="s" s="56">
+      <c r="O23" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="77">
+      <c r="P23" s="78">
         <f>K20</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="Q23" s="78">
+      <c r="Q23" s="79">
         <f>P23*O20</f>
-        <v>10000.8525351288</v>
-      </c>
-      <c r="R23" s="79">
+        <v>10000.852535128783</v>
+      </c>
+      <c r="R23" s="80">
         <f>P23+(S23/O20)</f>
-        <v>3.38206429234716</v>
-      </c>
-      <c r="S23" s="79">
+        <v>4.1027186082617044</v>
+      </c>
+      <c r="S23" s="80">
         <f>(P24-Q23)/2*(1-0.0003)</f>
-        <v>349.468860315869</v>
-      </c>
-      <c r="T23" s="75"/>
+        <v>2554.9277575958281</v>
+      </c>
+      <c r="T23" s="76"/>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="66"/>
-    </row>
-    <row r="24" ht="21.35" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81">
+      <c r="X23" s="77"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="68"/>
+    </row>
+    <row r="24" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A24" s="81"/>
+      <c r="B24" s="82">
         <f>SQRT(V20*10^6/10^18)*2^96</f>
-        <v>4.38294046929997e+24</v>
-      </c>
-      <c r="C24" s="82">
+        <v>4.3829404692999735E+24</v>
+      </c>
+      <c r="C24" s="83">
         <f>B24-$B$3*F24*POWER(2,96)/L24</f>
-        <v>3.94463754055384e+24</v>
-      </c>
-      <c r="D24" s="82">
+        <v>3.9445928942429745E+24</v>
+      </c>
+      <c r="D24" s="83">
         <f>M24*B24/N24</f>
-        <v>4.86993385477776e+24</v>
-      </c>
-      <c r="E24" s="82">
+        <v>4.8699338547777479E+24</v>
+      </c>
+      <c r="E24" s="83">
         <f>R20*10^18</f>
-        <v>3.38206429234716e+18</v>
-      </c>
-      <c r="F24" s="82">
+        <v>4.1027186082617042E+18</v>
+      </c>
+      <c r="F24" s="83">
         <f>S20*10^6</f>
-        <v>10350531139.6841</v>
-      </c>
-      <c r="G24" s="83">
+        <v>12557313709.404173</v>
+      </c>
+      <c r="G24" s="84">
         <f>(M24-(M24*B24)/(SQRT(1/(1.0001^X20)*2^96*2^96/10^6)*10^3))/B24/10^18</f>
-        <v>0.342743004139804</v>
-      </c>
-      <c r="H24" s="83">
+        <v>0.41577509456075712</v>
+      </c>
+      <c r="H24" s="84">
         <f>(B24-(SQRT(1/(1.0001^W20)*2^96*2^96)))*L24/POWER(2,96)/10^6</f>
-        <v>1042.265489593940</v>
-      </c>
-      <c r="I24" s="107">
-        <v>1e+99</v>
-      </c>
-      <c r="J24" s="84">
+        <v>1264.3526702028485</v>
+      </c>
+      <c r="I24" s="83">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J24" s="83">
         <f>(E24)*(B24*I24)/POWER(2,96)/(I24-B24)</f>
-        <v>187097440938806.5</v>
-      </c>
-      <c r="K24" s="82">
+        <v>226964388061666.72</v>
+      </c>
+      <c r="K24" s="83">
         <f>(F24)*POWER(2,96)/(B24-0)</f>
-        <v>187101232377637.6</v>
-      </c>
-      <c r="L24" s="84">
+        <v>226992106846975.69</v>
+      </c>
+      <c r="L24" s="83">
         <f>MIN(J24,K24)</f>
-        <v>187097440938806.5</v>
-      </c>
-      <c r="M24" s="84">
+        <v>226964388061666.72</v>
+      </c>
+      <c r="M24" s="83">
         <f>L24*POWER(2,96)</f>
-        <v>1.48233864567027e+43</v>
+        <v>1.7981971422300287E+43</v>
       </c>
       <c r="N24" s="85">
         <f>M24-(0.1*E24)*B24</f>
-        <v>1.33410478110324e+43</v>
-      </c>
-      <c r="O24" t="s" s="86">
+        <v>1.618377428007026E+43</v>
+      </c>
+      <c r="O24" s="86" t="s">
         <v>49</v>
       </c>
       <c r="P24" s="87">
         <f>L20</f>
-        <v>10700</v>
+        <v>15112.241467</v>
       </c>
       <c r="Q24" s="88">
         <f>P24/O20</f>
-        <v>3.49632504591032</v>
+        <v>4.9380662000856619</v>
       </c>
       <c r="R24" s="89">
         <f>P24-S23</f>
-        <v>10350.5311396841</v>
+        <v>12557.313709404172</v>
       </c>
       <c r="S24" s="90"/>
       <c r="T24" s="91"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="94"/>
-    </row>
-    <row r="25" ht="21.35" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-    </row>
-    <row r="26" ht="21.35" customHeight="1">
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="95"/>
+    </row>
+    <row r="25" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+    </row>
+    <row r="26" spans="1:26" ht="21.3" customHeight="1">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
@@ -4240,12 +4364,12 @@
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-    </row>
-    <row r="27" ht="9.5" customHeight="1">
-      <c r="A27" s="95"/>
-      <c r="B27" t="s" s="96">
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+    </row>
+    <row r="27" spans="1:26" ht="9.4499999999999993" customHeight="1">
+      <c r="A27" s="99"/>
+      <c r="B27" s="100" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="29"/>
@@ -4270,11 +4394,11 @@
       <c r="V27" s="29"/>
       <c r="W27" s="29"/>
       <c r="X27" s="29"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="98"/>
-    </row>
-    <row r="28" ht="21.95" customHeight="1">
-      <c r="A28" s="99"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="102"/>
+    </row>
+    <row r="28" spans="1:26" ht="21.9" customHeight="1">
+      <c r="A28" s="103"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -4299,20 +4423,20 @@
       <c r="W28" s="34"/>
       <c r="X28" s="34"/>
       <c r="Y28" s="29"/>
-      <c r="Z28" s="100"/>
-    </row>
-    <row r="29" ht="21.7" customHeight="1">
+      <c r="Z28" s="104"/>
+    </row>
+    <row r="29" spans="1:26" ht="21.75" customHeight="1">
       <c r="A29" s="38"/>
-      <c r="B29" t="s" s="39">
+      <c r="B29" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="101">
+      <c r="C29" s="40">
         <f>0.81*B31</f>
-        <v>2478.888514573250</v>
-      </c>
-      <c r="D29" s="102">
+        <v>2478.8885145732479</v>
+      </c>
+      <c r="D29" s="41">
         <f>B31/0.81</f>
-        <v>3778.217519544650</v>
+        <v>3778.2175195446539</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
@@ -4331,511 +4455,512 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="43"/>
-      <c r="V29" t="s" s="39">
+      <c r="V29" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="101">
+      <c r="W29" s="40">
         <f>0.81*V31</f>
         <v>2478.88851471</v>
       </c>
-      <c r="X29" s="102">
+      <c r="X29" s="41">
         <f>V31/0.81</f>
-        <v>3778.217519753090</v>
+        <v>3778.217519753086</v>
       </c>
       <c r="Y29" s="44"/>
       <c r="Z29" s="45"/>
     </row>
-    <row r="30" ht="23.8" customHeight="1">
+    <row r="30" spans="1:26" ht="23.85" customHeight="1">
       <c r="A30" s="38"/>
-      <c r="B30" t="s" s="46">
+      <c r="B30" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s" s="47">
+      <c r="C30" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s" s="47">
+      <c r="D30" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E30" t="s" s="47">
+      <c r="E30" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F30" t="s" s="47">
+      <c r="F30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G30" t="s" s="47">
+      <c r="G30" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H30" t="s" s="47">
+      <c r="H30" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I30" t="s" s="47">
+      <c r="I30" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J30" t="s" s="47">
+      <c r="J30" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K30" t="s" s="47">
+      <c r="K30" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L30" t="s" s="47">
+      <c r="L30" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M30" t="s" s="47">
+      <c r="M30" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N30" t="s" s="47">
+      <c r="N30" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O30" t="s" s="48">
+      <c r="O30" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="P30" t="s" s="47">
+      <c r="P30" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" t="s" s="47">
+      <c r="Q30" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R30" t="s" s="47">
+      <c r="R30" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S30" t="s" s="47">
+      <c r="S30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T30" t="s" s="47">
+      <c r="T30" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="U30" t="s" s="47">
+      <c r="U30" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="V30" t="s" s="48">
+      <c r="V30" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="W30" t="s" s="47">
+      <c r="W30" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="X30" t="s" s="47">
+      <c r="X30" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Y30" t="s" s="47">
+      <c r="Y30" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Z30" t="s" s="49">
+      <c r="Z30" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" ht="40.4" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="108">
-        <f t="shared" si="5"/>
-        <v>3060.356190831170</v>
-      </c>
-      <c r="C31" s="52">
+    <row r="31" spans="1:26" ht="40.35" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52">
+        <f t="shared" si="1"/>
+        <v>3060.3561908311699</v>
+      </c>
+      <c r="C31" s="53">
         <f>IF((LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="53">
         <f>IF((LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>193920</v>
-      </c>
-      <c r="E31" s="103">
+        <v>193680</v>
+      </c>
+      <c r="E31" s="53">
         <f>E33*$B$3*10^-18</f>
-        <v>0.326787207467537</v>
-      </c>
-      <c r="F31" s="103">
+        <v>0.45751844712808709</v>
+      </c>
+      <c r="F31" s="53">
         <f>F33*$B$3*10^-6</f>
-        <v>1000</v>
-      </c>
-      <c r="G31" s="53">
+        <v>1254.8849952</v>
+      </c>
+      <c r="G31" s="54">
         <f>((G33/E33)-(E31/E33))*10^18</f>
-        <v>0.00133272376394435</v>
-      </c>
-      <c r="H31" s="53">
+        <v>4.3268556662353643E-4</v>
+      </c>
+      <c r="H31" s="54">
         <f>((H33/F33)-(F31/F33))*10^6</f>
-        <v>0.000698852674847</v>
-      </c>
-      <c r="I31" s="103">
+        <v>6.9885267298090247E-4</v>
+      </c>
+      <c r="I31" s="53">
         <f>E33*$C$3*10^-18</f>
-        <v>2.94108486720783</v>
-      </c>
-      <c r="J31" s="103">
+        <v>4.1176660241527827</v>
+      </c>
+      <c r="J31" s="53">
         <f>F33*$C$3*10^-6</f>
-        <v>9000</v>
-      </c>
-      <c r="K31" s="103">
-        <f>E31+I31+M31</f>
-        <v>3.51787207467537</v>
-      </c>
-      <c r="L31" s="103">
+        <v>11293.9649568</v>
+      </c>
+      <c r="K31" s="53">
+        <f>E33/1000000000000000000</f>
+        <v>4.5751844712808696</v>
+      </c>
+      <c r="L31" s="53">
         <f>F31+J31+N31</f>
-        <v>10000</v>
-      </c>
-      <c r="M31" s="104">
-        <v>0.25</v>
-      </c>
-      <c r="N31" s="104">
+        <v>12548.849952</v>
+      </c>
+      <c r="M31" s="53">
+        <f>472224643499820000/1000000000000000000</f>
+        <v>0.47222464349982002</v>
+      </c>
+      <c r="N31" s="53">
         <v>0</v>
       </c>
-      <c r="O31" s="104">
-        <v>3060.356191</v>
-      </c>
-      <c r="P31" s="103">
+      <c r="O31" s="53">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="P31" s="53">
         <f>IF(S34&lt;0,ABS(S34)/O31,0)</f>
-        <v>0.125101745126232</v>
-      </c>
-      <c r="Q31" s="104">
+        <v>0.23729399876260576</v>
+      </c>
+      <c r="Q31" s="53">
         <f>IF(S34&gt;0,S34,0)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="103">
+      <c r="R31" s="53">
         <f>R34</f>
-        <v>3.39277032954914</v>
-      </c>
-      <c r="S31" s="103">
+        <v>4.3378904725182634</v>
+      </c>
+      <c r="S31" s="53">
         <f>R35</f>
-        <v>10382.855900202</v>
-      </c>
-      <c r="T31" s="103">
+        <v>13275.054110200288</v>
+      </c>
+      <c r="T31" s="53">
         <f>R31*$B$3</f>
-        <v>0.339277032954914</v>
-      </c>
-      <c r="U31" s="103">
+        <v>0.43378904725182638</v>
+      </c>
+      <c r="U31" s="53">
         <f>S31*$B$3</f>
-        <v>1038.2855900202</v>
-      </c>
-      <c r="V31" s="104">
-        <v>3060.356191</v>
-      </c>
-      <c r="W31" s="52">
+        <v>1327.505411020029</v>
+      </c>
+      <c r="V31" s="53">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="W31" s="53">
         <f>IF((LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="X31" s="52">
+      <c r="X31" s="53">
         <f>IF((LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="Y31" s="53">
+      <c r="Y31" s="54">
         <f>(G35/T31)-1</f>
-        <v>0.0133911997314294</v>
-      </c>
-      <c r="Z31" s="54">
+        <v>1.3380355247289977E-2</v>
+      </c>
+      <c r="Z31" s="55">
         <f>(H35/U31)-1</f>
-        <v>0.00698852699651628</v>
-      </c>
-    </row>
-    <row r="32" ht="21.7" customHeight="1">
-      <c r="A32" t="s" s="55">
+        <v>6.9885269778668935E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A32" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s" s="56">
+      <c r="B32" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s" s="57">
+      <c r="C32" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s" s="57">
+      <c r="D32" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E32" t="s" s="58">
+      <c r="E32" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="s" s="58">
+      <c r="F32" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G32" t="s" s="57">
+      <c r="G32" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H32" t="s" s="57">
+      <c r="H32" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I32" t="s" s="57">
+      <c r="I32" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J32" t="s" s="57">
+      <c r="J32" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K32" t="s" s="57">
+      <c r="K32" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L32" t="s" s="57">
+      <c r="L32" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M32" t="s" s="57">
+      <c r="M32" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N32" t="s" s="59">
+      <c r="N32" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O32" t="s" s="60">
+      <c r="O32" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="64"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="66"/>
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
       <c r="W32" s="36"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="66"/>
-    </row>
-    <row r="33" ht="21.7" customHeight="1">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68">
+      <c r="X32" s="67"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="68"/>
+    </row>
+    <row r="33" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="69">
         <f>SQRT(B31*10^6/10^18)*2^96</f>
-        <v>4.38294046917908e+24</v>
-      </c>
-      <c r="C33" s="105">
+        <v>4.3829404691790772E+24</v>
+      </c>
+      <c r="C33" s="70">
         <f>B33-$B$3*F33*POWER(2,96)/L33</f>
-        <v>3.94464642226117e+24</v>
-      </c>
-      <c r="D33" s="72">
+        <v>3.9446464222611696E+24</v>
+      </c>
+      <c r="D33" s="70">
         <f>M33*B33/N33</f>
-        <v>4.86997998604707e+24</v>
+        <v>4.9333965664703124E+24</v>
       </c>
       <c r="E33" s="71">
-        <f t="shared" si="29"/>
-        <v>3.26787207467537e+18</v>
+        <f>4575184471280870000</f>
+        <v>4.5751844712808699E+18</v>
       </c>
       <c r="F33" s="71">
-        <f t="shared" si="30"/>
-        <v>10000000000</v>
-      </c>
-      <c r="G33" s="71">
+        <f>12548849952</f>
+        <v>12548849952</v>
+      </c>
+      <c r="G33" s="72">
         <f>(M33-(M33*B33)/(SQRT(1/(1.0001^D31)*2^96*2^96/10^6)*10^3))/B33/10^18</f>
-        <v>0.331142378238987</v>
-      </c>
-      <c r="H33" s="71">
+        <v>0.45949806341345045</v>
+      </c>
+      <c r="H33" s="72">
         <f>(B33-(SQRT(1/(1.0001^C31)*2^96*2^96)))*L33/POWER(2,96)/10^6</f>
-        <v>1006.988526748470</v>
-      </c>
-      <c r="I33" s="69">
-        <v>1e+99</v>
-      </c>
-      <c r="J33" s="69">
+        <v>1263.6547925317916</v>
+      </c>
+      <c r="I33" s="70">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J33" s="70">
         <f>(E33)*(B33*I33)/POWER(2,96)/(I33-B33)</f>
-        <v>180780271934442.1</v>
-      </c>
-      <c r="K33" s="72">
+        <v>253101429299540.81</v>
+      </c>
+      <c r="K33" s="70">
         <f>(F33)*POWER(2,96)/(B33-0)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="L33" s="72">
+        <v>226839111860077.72</v>
+      </c>
+      <c r="L33" s="70">
         <f>MIN(J33,K33)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="M33" s="72">
+        <v>226839111860077.72</v>
+      </c>
+      <c r="M33" s="70">
         <f>L33*POWER(2,96)</f>
-        <v>1.43216677924954e+43</v>
-      </c>
-      <c r="N33" s="106">
+        <v>1.7972046019041624E+43</v>
+      </c>
+      <c r="N33" s="73">
         <f>M33-(0.1*E33)*B33</f>
-        <v>1.28893789160759e+43</v>
-      </c>
-      <c r="O33" t="s" s="74">
+        <v>1.5966769901727963E+43</v>
+      </c>
+      <c r="O33" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="63"/>
-      <c r="Q33" t="s" s="74">
+      <c r="P33" s="65"/>
+      <c r="Q33" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="63"/>
-      <c r="S33" t="s" s="74">
+      <c r="R33" s="65"/>
+      <c r="S33" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="75"/>
+      <c r="T33" s="76"/>
       <c r="U33" s="35"/>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="66"/>
-    </row>
-    <row r="34" ht="20.85" customHeight="1">
-      <c r="A34" t="s" s="55">
+      <c r="X33" s="77"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="68"/>
+    </row>
+    <row r="34" spans="1:26" ht="20.85" customHeight="1">
+      <c r="A34" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s" s="56">
+      <c r="B34" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s" s="57">
+      <c r="C34" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D34" t="s" s="57">
+      <c r="D34" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E34" t="s" s="57">
+      <c r="E34" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F34" t="s" s="57">
+      <c r="F34" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G34" t="s" s="57">
+      <c r="G34" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H34" t="s" s="57">
+      <c r="H34" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I34" t="s" s="57">
+      <c r="I34" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J34" t="s" s="57">
+      <c r="J34" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K34" t="s" s="57">
+      <c r="K34" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L34" t="s" s="57">
+      <c r="L34" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M34" t="s" s="57">
+      <c r="M34" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N34" t="s" s="59">
+      <c r="N34" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O34" t="s" s="56">
+      <c r="O34" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="P34" s="77">
+      <c r="P34" s="78">
         <f>K31</f>
-        <v>3.51787207467537</v>
-      </c>
-      <c r="Q34" s="78">
+        <v>4.5751844712808696</v>
+      </c>
+      <c r="Q34" s="79">
         <f>P34*O31</f>
-        <v>10765.9415828788</v>
-      </c>
-      <c r="R34" s="79">
+        <v>14001.69412165147</v>
+      </c>
+      <c r="R34" s="80">
         <f>P34+(S34/O31)</f>
-        <v>3.39277032954914</v>
-      </c>
-      <c r="S34" s="79">
+        <v>4.3378904725182634</v>
+      </c>
+      <c r="S34" s="80">
         <f>(P35-Q34)/2*(1-0.0003)</f>
-        <v>-382.855900201968</v>
-      </c>
-      <c r="T34" s="75"/>
+        <v>-726.20415820028688</v>
+      </c>
+      <c r="T34" s="76"/>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
-      <c r="X34" s="76"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="66"/>
-    </row>
-    <row r="35" ht="21.35" customHeight="1">
-      <c r="A35" s="80"/>
-      <c r="B35" s="81">
+      <c r="X34" s="77"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="68"/>
+    </row>
+    <row r="35" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A35" s="81"/>
+      <c r="B35" s="82">
         <f>SQRT(V31*10^6/10^18)*2^96</f>
-        <v>4.38294046929997e+24</v>
-      </c>
-      <c r="C35" s="82">
+        <v>4.3829404692999735E+24</v>
+      </c>
+      <c r="C35" s="83">
         <f>B35-$B$3*F35*POWER(2,96)/L35</f>
-        <v>3.94464642236997e+24</v>
-      </c>
-      <c r="D35" s="82">
+        <v>3.9446464223699762E+24</v>
+      </c>
+      <c r="D35" s="83">
         <f>M35*B35/N35</f>
-        <v>4.869945829948e+24</v>
-      </c>
-      <c r="E35" s="82">
+        <v>4.8699516206333139E+24</v>
+      </c>
+      <c r="E35" s="83">
         <f>R31*10^18</f>
-        <v>3.39277032954914e+18</v>
-      </c>
-      <c r="F35" s="82">
+        <v>4.3378904725182633E+18</v>
+      </c>
+      <c r="F35" s="83">
         <f>S31*10^6</f>
-        <v>10382855900.202</v>
-      </c>
-      <c r="G35" s="83">
+        <v>13275054110.200289</v>
+      </c>
+      <c r="G35" s="84">
         <f>(M35-(M35*B35)/(SQRT(1/(1.0001^X31)*2^96*2^96/10^6)*10^3))/B35/10^18</f>
-        <v>0.3438203594675</v>
-      </c>
-      <c r="H35" s="83">
+        <v>0.43959329880643927</v>
+      </c>
+      <c r="H35" s="84">
         <f>(B35-(SQRT(1/(1.0001^W31)*2^96*2^96)))*L35/POWER(2,96)/10^6</f>
-        <v>1045.541676896150</v>
-      </c>
-      <c r="I35" s="107">
-        <v>1e+99</v>
-      </c>
-      <c r="J35" s="84">
+        <v>1336.7827183982067</v>
+      </c>
+      <c r="I35" s="83">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J35" s="83">
         <f>(E35)*(B35*I35)/POWER(2,96)/(I35-B35)</f>
-        <v>187689704121862.6</v>
-      </c>
-      <c r="K35" s="82">
+        <v>239974209927789.34</v>
+      </c>
+      <c r="K35" s="83">
         <f>(F35)*POWER(2,96)/(B35-0)</f>
-        <v>187685550462148.5</v>
-      </c>
-      <c r="L35" s="82">
+        <v>239966331232553.56</v>
+      </c>
+      <c r="L35" s="83">
         <f>MIN(J35,K35)</f>
-        <v>187685550462148.5</v>
-      </c>
-      <c r="M35" s="82">
+        <v>239966331232553.56</v>
+      </c>
+      <c r="M35" s="83">
         <f>L35*POWER(2,96)</f>
-        <v>1.48699812935943e+43</v>
+        <v>1.901209148884454E+43</v>
       </c>
       <c r="N35" s="85">
         <f>M35-(0.1*E35)*B35</f>
-        <v>1.33829502555522e+43</v>
-      </c>
-      <c r="O35" t="s" s="86">
+        <v>1.7110819918505431E+43</v>
+      </c>
+      <c r="O35" s="86" t="s">
         <v>49</v>
       </c>
       <c r="P35" s="87">
         <f>L31</f>
-        <v>10000</v>
+        <v>12548.849952</v>
       </c>
       <c r="Q35" s="88">
         <f>P35/O31</f>
-        <v>3.26759350085076</v>
+        <v>4.1004540546306627</v>
       </c>
       <c r="R35" s="89">
         <f>P35-S34</f>
-        <v>10382.855900202</v>
+        <v>13275.054110200288</v>
       </c>
       <c r="S35" s="90"/>
       <c r="T35" s="91"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="94"/>
-    </row>
-    <row r="36" ht="21.35" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-    </row>
-    <row r="37" ht="21.35" customHeight="1">
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="95"/>
+    </row>
+    <row r="36" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="96"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="96"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+    </row>
+    <row r="37" spans="1:26" ht="21.3" customHeight="1">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
@@ -4852,12 +4977,12 @@
       <c r="V37" s="20"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-    </row>
-    <row r="38" ht="9.5" customHeight="1">
-      <c r="A38" s="95"/>
-      <c r="B38" t="s" s="96">
+      <c r="Y37" s="98"/>
+      <c r="Z37" s="98"/>
+    </row>
+    <row r="38" spans="1:26" ht="9.4499999999999993" customHeight="1">
+      <c r="A38" s="99"/>
+      <c r="B38" s="100" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="29"/>
@@ -4882,11 +5007,11 @@
       <c r="V38" s="29"/>
       <c r="W38" s="29"/>
       <c r="X38" s="29"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="98"/>
-    </row>
-    <row r="39" ht="21.95" customHeight="1">
-      <c r="A39" s="99"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="102"/>
+    </row>
+    <row r="39" spans="1:26" ht="21.9" customHeight="1">
+      <c r="A39" s="103"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -4911,20 +5036,20 @@
       <c r="W39" s="34"/>
       <c r="X39" s="34"/>
       <c r="Y39" s="29"/>
-      <c r="Z39" s="100"/>
-    </row>
-    <row r="40" ht="21.7" customHeight="1">
+      <c r="Z39" s="104"/>
+    </row>
+    <row r="40" spans="1:26" ht="21.75" customHeight="1">
       <c r="A40" s="38"/>
-      <c r="B40" t="s" s="39">
+      <c r="B40" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="101">
+      <c r="C40" s="40">
         <f>0.81*B42</f>
-        <v>2478.888514573250</v>
-      </c>
-      <c r="D40" s="102">
+        <v>2478.8885145732479</v>
+      </c>
+      <c r="D40" s="41">
         <f>B42/0.81</f>
-        <v>3778.217519544650</v>
+        <v>3778.2175195446539</v>
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="34"/>
@@ -4943,451 +5068,451 @@
       <c r="S40" s="34"/>
       <c r="T40" s="34"/>
       <c r="U40" s="43"/>
-      <c r="V40" t="s" s="39">
+      <c r="V40" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="W40" s="101">
+      <c r="W40" s="40">
         <f>0.81*V42</f>
         <v>2478.88851471</v>
       </c>
-      <c r="X40" s="102">
+      <c r="X40" s="41">
         <f>V42/0.81</f>
-        <v>3778.217519753090</v>
+        <v>3778.217519753086</v>
       </c>
       <c r="Y40" s="44"/>
       <c r="Z40" s="45"/>
     </row>
-    <row r="41" ht="23.8" customHeight="1">
+    <row r="41" spans="1:26" ht="23.85" customHeight="1">
       <c r="A41" s="38"/>
-      <c r="B41" t="s" s="46">
+      <c r="B41" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C41" t="s" s="47">
+      <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D41" t="s" s="47">
+      <c r="D41" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E41" t="s" s="47">
+      <c r="E41" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F41" t="s" s="47">
+      <c r="F41" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G41" t="s" s="47">
+      <c r="G41" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H41" t="s" s="47">
+      <c r="H41" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I41" t="s" s="47">
+      <c r="I41" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J41" t="s" s="47">
+      <c r="J41" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K41" t="s" s="47">
+      <c r="K41" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L41" t="s" s="47">
+      <c r="L41" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M41" t="s" s="47">
+      <c r="M41" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N41" t="s" s="47">
+      <c r="N41" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O41" t="s" s="48">
+      <c r="O41" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="P41" t="s" s="47">
+      <c r="P41" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" t="s" s="47">
+      <c r="Q41" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R41" t="s" s="47">
+      <c r="R41" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S41" t="s" s="47">
+      <c r="S41" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T41" t="s" s="47">
+      <c r="T41" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="U41" t="s" s="47">
+      <c r="U41" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="V41" t="s" s="48">
+      <c r="V41" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="W41" t="s" s="47">
+      <c r="W41" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="X41" t="s" s="47">
+      <c r="X41" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Y41" t="s" s="47">
+      <c r="Y41" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Z41" t="s" s="49">
+      <c r="Z41" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" ht="40.75" customHeight="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="108">
-        <f t="shared" si="5"/>
-        <v>3060.356190831170</v>
-      </c>
-      <c r="C42" s="52">
+    <row r="42" spans="1:26" ht="40.799999999999997" customHeight="1">
+      <c r="A42" s="51"/>
+      <c r="B42" s="52">
+        <f t="shared" si="1"/>
+        <v>3060.3561908311699</v>
+      </c>
+      <c r="C42" s="53">
         <f>IF((LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="53">
         <f>IF((LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="E42" s="103">
+      <c r="E42" s="53">
         <f>E44*$B$3*10^-18</f>
-        <v>0.326787207467537</v>
-      </c>
-      <c r="F42" s="103">
+        <v>0.32678720746753703</v>
+      </c>
+      <c r="F42" s="53">
         <f>F44*$B$3*10^-6</f>
         <v>1000</v>
       </c>
-      <c r="G42" s="53">
+      <c r="G42" s="54">
         <f>((G44/E44)-(E42/E44))*10^18</f>
-        <v>0.00133272376394435</v>
-      </c>
-      <c r="H42" s="53">
+        <v>1.3327237657696459E-3</v>
+      </c>
+      <c r="H42" s="54">
         <f>((H44/F44)-(F42/F44))*10^6</f>
-        <v>0.000698852674847</v>
-      </c>
-      <c r="I42" s="103">
+        <v>6.9885267298091581E-4</v>
+      </c>
+      <c r="I42" s="53">
         <f>E44*$C$3*10^-18</f>
-        <v>2.94108486720783</v>
-      </c>
-      <c r="J42" s="103">
+        <v>2.9410848672078331</v>
+      </c>
+      <c r="J42" s="53">
         <f>F44*$C$3*10^-6</f>
         <v>9000</v>
       </c>
-      <c r="K42" s="103">
+      <c r="K42" s="53">
         <f>E42+I42+M42</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="L42" s="103">
+      <c r="L42" s="53">
         <f>F42+J42+N42</f>
         <v>7900</v>
       </c>
-      <c r="M42" s="104">
+      <c r="M42" s="53">
         <v>0</v>
       </c>
-      <c r="N42" s="104">
+      <c r="N42" s="53">
         <v>-2100</v>
       </c>
-      <c r="O42" s="104">
-        <v>3060.356191</v>
-      </c>
-      <c r="P42" s="103">
+      <c r="O42" s="53">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="P42" s="53">
         <f>IF(S45&lt;0,ABS(S45)/O42,0)</f>
-        <v>0.343133633520285</v>
-      </c>
-      <c r="Q42" s="104">
+        <v>0.34313363352028264</v>
+      </c>
+      <c r="Q42" s="53">
         <f>IF(S45&gt;0,S45,0)</f>
         <v>0</v>
       </c>
-      <c r="R42" s="103">
+      <c r="R42" s="53">
         <f>R45</f>
-        <v>2.92473844115508</v>
-      </c>
-      <c r="S42" s="103">
+        <v>2.9247384411550872</v>
+      </c>
+      <c r="S42" s="53">
         <f>R46</f>
-        <v>8950.111139684130</v>
-      </c>
-      <c r="T42" s="103">
+        <v>8950.1111396841225</v>
+      </c>
+      <c r="T42" s="53">
         <f>R42*$B$3</f>
-        <v>0.292473844115508</v>
-      </c>
-      <c r="U42" s="103">
+        <v>0.29247384411550875</v>
+      </c>
+      <c r="U42" s="53">
         <f>S42*$B$3</f>
-        <v>895.011113968413</v>
-      </c>
-      <c r="V42" s="104">
-        <v>3060.356191</v>
-      </c>
-      <c r="W42" s="52">
+        <v>895.01111396841225</v>
+      </c>
+      <c r="V42" s="53">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="W42" s="53">
         <f>IF((LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="X42" s="52">
+      <c r="X42" s="53">
         <f>IF((LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="Y42" s="53">
+      <c r="Y42" s="54">
         <f>(G46/T42)-1</f>
-        <v>0.013342268732714</v>
-      </c>
-      <c r="Z42" s="54">
+        <v>1.3342268750943909E-2</v>
+      </c>
+      <c r="Z42" s="55">
         <f>(H46/U42)-1</f>
-        <v>0.00698852699651923</v>
-      </c>
-    </row>
-    <row r="43" ht="21.7" customHeight="1">
-      <c r="A43" t="s" s="55">
+        <v>6.9885269778666714E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A43" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B43" t="s" s="56">
+      <c r="B43" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C43" t="s" s="57">
+      <c r="C43" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D43" t="s" s="57">
+      <c r="D43" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E43" t="s" s="58">
+      <c r="E43" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F43" t="s" s="58">
+      <c r="F43" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G43" t="s" s="57">
+      <c r="G43" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H43" t="s" s="57">
+      <c r="H43" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I43" t="s" s="57">
+      <c r="I43" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J43" t="s" s="57">
+      <c r="J43" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K43" t="s" s="57">
+      <c r="K43" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L43" t="s" s="57">
+      <c r="L43" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M43" t="s" s="57">
+      <c r="M43" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N43" t="s" s="59">
+      <c r="N43" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O43" t="s" s="60">
+      <c r="O43" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="63"/>
-      <c r="T43" s="64"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="66"/>
       <c r="U43" s="36"/>
       <c r="V43" s="36"/>
       <c r="W43" s="36"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="63"/>
-      <c r="Z43" s="66"/>
-    </row>
-    <row r="44" ht="21.7" customHeight="1">
-      <c r="A44" s="67"/>
-      <c r="B44" s="68">
+      <c r="X43" s="67"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="68"/>
+    </row>
+    <row r="44" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A44" s="56"/>
+      <c r="B44" s="69">
         <f>SQRT(B42*10^6/10^18)*2^96</f>
-        <v>4.38294046917908e+24</v>
-      </c>
-      <c r="C44" s="105">
+        <v>4.3829404691790772E+24</v>
+      </c>
+      <c r="C44" s="70">
         <f>B44-$B$3*F44*POWER(2,96)/L44</f>
-        <v>3.94464642226117e+24</v>
-      </c>
-      <c r="D44" s="72">
+        <v>3.9446464222611696E+24</v>
+      </c>
+      <c r="D44" s="70">
         <f>M44*B44/N44</f>
-        <v>4.86997998604707e+24</v>
+        <v>4.8699799860470599E+24</v>
       </c>
       <c r="E44" s="71">
-        <f t="shared" si="29"/>
-        <v>3.26787207467537e+18</v>
+        <f t="shared" si="0"/>
+        <v>3.26787207467537E+18</v>
       </c>
       <c r="F44" s="71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>10000000000</v>
       </c>
-      <c r="G44" s="71">
+      <c r="G44" s="72">
         <f>(M44-(M44*B44)/(SQRT(1/(1.0001^D42)*2^96*2^96/10^6)*10^3))/B44/10^18</f>
-        <v>0.331142378238987</v>
-      </c>
-      <c r="H44" s="71">
+        <v>0.33114237824495185</v>
+      </c>
+      <c r="H44" s="72">
         <f>(B44-(SQRT(1/(1.0001^C42)*2^96*2^96)))*L44/POWER(2,96)/10^6</f>
-        <v>1006.988526748470</v>
-      </c>
-      <c r="I44" s="69">
-        <v>1e+99</v>
-      </c>
-      <c r="J44" s="69">
+        <v>1006.9885267298091</v>
+      </c>
+      <c r="I44" s="70">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J44" s="70">
         <f>(E44)*(B44*I44)/POWER(2,96)/(I44-B44)</f>
-        <v>180780271934442.1</v>
-      </c>
-      <c r="K44" s="72">
+        <v>180780271934442</v>
+      </c>
+      <c r="K44" s="70">
         <f>(F44)*POWER(2,96)/(B44-0)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="L44" s="72">
+        <v>180764861105000.91</v>
+      </c>
+      <c r="L44" s="70">
         <f>MIN(J44,K44)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="M44" s="72">
+        <v>180764861105000.91</v>
+      </c>
+      <c r="M44" s="70">
         <f>L44*POWER(2,96)</f>
-        <v>1.43216677924954e+43</v>
-      </c>
-      <c r="N44" s="106">
+        <v>1.4321667792495432E+43</v>
+      </c>
+      <c r="N44" s="73">
         <f>M44-(0.1*E44)*B44</f>
-        <v>1.28893789160759e+43</v>
-      </c>
-      <c r="O44" t="s" s="74">
+        <v>1.2889378916075946E+43</v>
+      </c>
+      <c r="O44" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="63"/>
-      <c r="Q44" t="s" s="74">
+      <c r="P44" s="65"/>
+      <c r="Q44" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="R44" s="63"/>
-      <c r="S44" t="s" s="74">
+      <c r="R44" s="65"/>
+      <c r="S44" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="T44" s="75"/>
+      <c r="T44" s="76"/>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="63"/>
-      <c r="Z44" s="66"/>
-    </row>
-    <row r="45" ht="20.85" customHeight="1">
-      <c r="A45" t="s" s="55">
+      <c r="X44" s="77"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="68"/>
+    </row>
+    <row r="45" spans="1:26" ht="20.85" customHeight="1">
+      <c r="A45" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s" s="56">
+      <c r="B45" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C45" t="s" s="57">
+      <c r="C45" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D45" t="s" s="57">
+      <c r="D45" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E45" t="s" s="57">
+      <c r="E45" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F45" t="s" s="57">
+      <c r="F45" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G45" t="s" s="57">
+      <c r="G45" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H45" t="s" s="57">
+      <c r="H45" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I45" t="s" s="57">
+      <c r="I45" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J45" t="s" s="57">
+      <c r="J45" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K45" t="s" s="57">
+      <c r="K45" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L45" t="s" s="57">
+      <c r="L45" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M45" t="s" s="57">
+      <c r="M45" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N45" t="s" s="59">
+      <c r="N45" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O45" t="s" s="56">
+      <c r="O45" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="P45" s="77">
+      <c r="P45" s="78">
         <f>K42</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="Q45" s="78">
+      <c r="Q45" s="79">
         <f>P45*O42</f>
-        <v>10000.8525351288</v>
-      </c>
-      <c r="R45" s="79">
+        <v>10000.852535128783</v>
+      </c>
+      <c r="R45" s="80">
         <f>P45+(S45/O42)</f>
-        <v>2.92473844115508</v>
-      </c>
-      <c r="S45" s="79">
+        <v>2.9247384411550872</v>
+      </c>
+      <c r="S45" s="80">
         <f>(P46-Q45)/2*(1-0.0003)</f>
-        <v>-1050.111139684130</v>
-      </c>
-      <c r="T45" s="75"/>
+        <v>-1050.111139684122</v>
+      </c>
+      <c r="T45" s="76"/>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="63"/>
-      <c r="Z45" s="66"/>
-    </row>
-    <row r="46" ht="21.35" customHeight="1">
-      <c r="A46" s="80"/>
-      <c r="B46" s="81">
+      <c r="X45" s="77"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="68"/>
+    </row>
+    <row r="46" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A46" s="81"/>
+      <c r="B46" s="82">
         <f>SQRT(V42*10^6/10^18)*2^96</f>
-        <v>4.38294046929997e+24</v>
-      </c>
-      <c r="C46" s="82">
+        <v>4.3829404692999735E+24</v>
+      </c>
+      <c r="C46" s="83">
         <f>B46-$B$3*F46*POWER(2,96)/L46</f>
-        <v>3.94464642236997e+24</v>
-      </c>
-      <c r="D46" s="82">
+        <v>3.9446464223699762E+24</v>
+      </c>
+      <c r="D46" s="83">
         <f>M46*B46/N46</f>
-        <v>4.86997195893376e+24</v>
-      </c>
-      <c r="E46" s="82">
+        <v>4.8699719589337613E+24</v>
+      </c>
+      <c r="E46" s="83">
         <f>R42*10^18</f>
-        <v>2.92473844115508e+18</v>
-      </c>
-      <c r="F46" s="82">
+        <v>2.9247384411550874E+18</v>
+      </c>
+      <c r="F46" s="83">
         <f>S42*10^6</f>
-        <v>8950111139.68413</v>
-      </c>
-      <c r="G46" s="83">
+        <v>8950111139.6841221</v>
+      </c>
+      <c r="G46" s="84">
         <f>(M46-(M46*B46)/(SQRT(1/(1.0001^X42)*2^96*2^96/10^6)*10^3))/B46/10^18</f>
-        <v>0.296376108740987</v>
-      </c>
-      <c r="H46" s="83">
+        <v>0.29637610874631953</v>
+      </c>
+      <c r="H46" s="84">
         <f>(B46-(SQRT(1/(1.0001^W42)*2^96*2^96)))*L46/POWER(2,96)/10^6</f>
-        <v>901.265923300566</v>
-      </c>
-      <c r="I46" s="107">
-        <v>1e+99</v>
-      </c>
-      <c r="J46" s="84">
+        <v>901.26592328387108</v>
+      </c>
+      <c r="I46" s="83">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J46" s="83">
         <f>(E46)*(B46*I46)/POWER(2,96)/(I46-B46)</f>
-        <v>161797952508970.1</v>
-      </c>
-      <c r="K46" s="82">
+        <v>161797952508970.66</v>
+      </c>
+      <c r="K46" s="83">
         <f>(F46)*POWER(2,96)/(B46-0)</f>
-        <v>161786559699469.8</v>
-      </c>
-      <c r="L46" s="82">
+        <v>161786559699469.53</v>
+      </c>
+      <c r="L46" s="83">
         <f>MIN(J46,K46)</f>
-        <v>161786559699469.8</v>
-      </c>
-      <c r="M46" s="82">
+        <v>161786559699469.53</v>
+      </c>
+      <c r="M46" s="83">
         <f>L46*POWER(2,96)</f>
-        <v>1.28180518444933e+43</v>
+        <v>1.2818051844493301E+43</v>
       </c>
       <c r="N46" s="85">
         <f>M46-(0.1*E46)*B46</f>
-        <v>1.15361563969077e+43</v>
-      </c>
-      <c r="O46" t="s" s="86">
+        <v>1.1536156396907706E+43</v>
+      </c>
+      <c r="O46" s="86" t="s">
         <v>49</v>
       </c>
       <c r="P46" s="87">
@@ -5396,81 +5521,81 @@
       </c>
       <c r="Q46" s="88">
         <f>P46/O42</f>
-        <v>2.5813988656721</v>
+        <v>2.5813988656721039</v>
       </c>
       <c r="R46" s="89">
         <f>P46-S45</f>
-        <v>8950.111139684130</v>
+        <v>8950.1111396841225</v>
       </c>
       <c r="S46" s="90"/>
       <c r="T46" s="91"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="92"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="94"/>
-    </row>
-    <row r="47" ht="21.35" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="109"/>
-      <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="109"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="109"/>
-      <c r="S47" s="109"/>
-      <c r="T47" s="109"/>
-      <c r="U47" s="109"/>
-      <c r="V47" s="109"/>
-      <c r="W47" s="109"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-    </row>
-    <row r="48" ht="21.35" customHeight="1">
+      <c r="U46" s="92"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="94"/>
+      <c r="Z46" s="95"/>
+    </row>
+    <row r="47" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A47" s="96"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="105"/>
+      <c r="T47" s="105"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="105"/>
+      <c r="X47" s="96"/>
+      <c r="Y47" s="97"/>
+      <c r="Z47" s="97"/>
+    </row>
+    <row r="48" spans="1:26" ht="21.3" customHeight="1">
       <c r="A48" s="20"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="110"/>
-      <c r="S48" s="110"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="110"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="110"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="107"/>
+      <c r="P48" s="107"/>
+      <c r="Q48" s="107"/>
+      <c r="R48" s="107"/>
+      <c r="S48" s="107"/>
+      <c r="T48" s="107"/>
+      <c r="U48" s="107"/>
+      <c r="V48" s="107"/>
+      <c r="W48" s="107"/>
       <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-    </row>
-    <row r="49" ht="9.5" customHeight="1">
-      <c r="A49" s="95"/>
-      <c r="B49" t="s" s="96">
-        <v>51</v>
+      <c r="Y48" s="98"/>
+      <c r="Z48" s="98"/>
+    </row>
+    <row r="49" spans="1:26" ht="9.4499999999999993" customHeight="1">
+      <c r="A49" s="99"/>
+      <c r="B49" s="100" t="s">
+        <v>65</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -5494,11 +5619,11 @@
       <c r="V49" s="29"/>
       <c r="W49" s="29"/>
       <c r="X49" s="29"/>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="98"/>
-    </row>
-    <row r="50" ht="21.95" customHeight="1">
-      <c r="A50" s="99"/>
+      <c r="Y49" s="101"/>
+      <c r="Z49" s="102"/>
+    </row>
+    <row r="50" spans="1:26" ht="21.9" customHeight="1">
+      <c r="A50" s="103"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
@@ -5523,20 +5648,20 @@
       <c r="W50" s="34"/>
       <c r="X50" s="34"/>
       <c r="Y50" s="29"/>
-      <c r="Z50" s="100"/>
-    </row>
-    <row r="51" ht="21.7" customHeight="1">
+      <c r="Z50" s="104"/>
+    </row>
+    <row r="51" spans="1:26" ht="21.75" customHeight="1">
       <c r="A51" s="38"/>
-      <c r="B51" t="s" s="39">
+      <c r="B51" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="101">
+      <c r="C51" s="40">
         <f>0.81*B53</f>
-        <v>2478.888514573250</v>
-      </c>
-      <c r="D51" s="102">
+        <v>2478.8885145732479</v>
+      </c>
+      <c r="D51" s="41">
         <f>B53/0.81</f>
-        <v>3778.217519544650</v>
+        <v>3778.2175195446539</v>
       </c>
       <c r="E51" s="42"/>
       <c r="F51" s="34"/>
@@ -5555,533 +5680,535 @@
       <c r="S51" s="34"/>
       <c r="T51" s="34"/>
       <c r="U51" s="43"/>
-      <c r="V51" t="s" s="39">
+      <c r="V51" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="W51" s="101">
+      <c r="W51" s="40">
         <f>0.81*V53</f>
-        <v>2478.88851471</v>
-      </c>
-      <c r="X51" s="102">
+        <v>1267.1266938300002</v>
+      </c>
+      <c r="X51" s="41">
         <f>V53/0.81</f>
-        <v>3778.217519753090</v>
+        <v>1931.3011641975309</v>
       </c>
       <c r="Y51" s="44"/>
       <c r="Z51" s="45"/>
     </row>
-    <row r="52" ht="23.8" customHeight="1">
+    <row r="52" spans="1:26" ht="23.85" customHeight="1">
       <c r="A52" s="38"/>
-      <c r="B52" t="s" s="46">
+      <c r="B52" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C52" t="s" s="47">
+      <c r="C52" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s" s="47">
+      <c r="D52" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E52" t="s" s="47">
+      <c r="E52" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F52" t="s" s="47">
+      <c r="F52" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G52" t="s" s="47">
+      <c r="G52" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H52" t="s" s="47">
+      <c r="H52" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I52" t="s" s="47">
+      <c r="I52" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J52" t="s" s="47">
+      <c r="J52" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K52" t="s" s="47">
+      <c r="K52" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L52" t="s" s="47">
+      <c r="L52" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M52" t="s" s="47">
+      <c r="M52" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N52" t="s" s="47">
+      <c r="N52" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O52" t="s" s="48">
+      <c r="O52" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="P52" t="s" s="47">
+      <c r="P52" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" t="s" s="47">
+      <c r="Q52" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R52" t="s" s="47">
+      <c r="R52" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S52" t="s" s="47">
+      <c r="S52" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T52" t="s" s="47">
+      <c r="T52" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="U52" t="s" s="47">
+      <c r="U52" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="V52" t="s" s="48">
+      <c r="V52" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="W52" t="s" s="47">
+      <c r="W52" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="X52" t="s" s="47">
+      <c r="X52" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Y52" t="s" s="47">
+      <c r="Y52" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Z52" t="s" s="49">
+      <c r="Z52" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" ht="40.7" customHeight="1">
-      <c r="A53" s="50"/>
-      <c r="B53" s="108">
-        <f t="shared" si="5"/>
-        <v>3060.356190831170</v>
-      </c>
-      <c r="C53" s="52">
+    <row r="53" spans="1:26" ht="40.65" customHeight="1">
+      <c r="A53" s="51"/>
+      <c r="B53" s="52">
+        <f t="shared" si="1"/>
+        <v>3060.3561908311699</v>
+      </c>
+      <c r="C53" s="53">
         <f>IF((LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="53">
         <f>IF((LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="E53" s="103">
+      <c r="E53" s="53">
         <f>E55*$B$3*10^-18</f>
-        <v>0.326787207467537</v>
-      </c>
-      <c r="F53" s="103">
+        <v>0.32678720746753703</v>
+      </c>
+      <c r="F53" s="53">
         <f>F55*$B$3*10^-6</f>
         <v>1000</v>
       </c>
-      <c r="G53" s="53">
+      <c r="G53" s="54">
         <f>((G55/E55)-(E53/E55))*10^18</f>
-        <v>0.00133272376394435</v>
-      </c>
-      <c r="H53" s="53">
+        <v>1.3327237657696459E-3</v>
+      </c>
+      <c r="H53" s="54">
         <f>((H55/F55)-(F53/F55))*10^6</f>
-        <v>0.000698852674847</v>
-      </c>
-      <c r="I53" s="103">
+        <v>6.9885267298091581E-4</v>
+      </c>
+      <c r="I53" s="53">
         <f>E55*$C$3*10^-18</f>
-        <v>2.94108486720783</v>
-      </c>
-      <c r="J53" s="103">
+        <v>2.9410848672078331</v>
+      </c>
+      <c r="J53" s="53">
         <f>F55*$C$3*10^-6</f>
         <v>9000</v>
       </c>
-      <c r="K53" s="103">
-        <f>E53+I53+M53</f>
-        <v>2.76787207467537</v>
-      </c>
-      <c r="L53" s="103">
-        <f>F53+J53+N53</f>
-        <v>10000</v>
-      </c>
-      <c r="M53" s="104">
-        <v>-0.5</v>
-      </c>
-      <c r="N53" s="104">
-        <v>0</v>
-      </c>
-      <c r="O53" s="104">
-        <v>3060.356191</v>
-      </c>
-      <c r="P53" s="104">
+      <c r="K53" s="53">
+        <f>2.93672969643952</f>
+        <v>2.93672969643952</v>
+      </c>
+      <c r="L53" s="53">
+        <f>11127.69398</f>
+        <v>11127.69398</v>
+      </c>
+      <c r="M53" s="53">
+        <f xml:space="preserve"> - I53 - E53 + K53</f>
+        <v>-0.33114237823585002</v>
+      </c>
+      <c r="N53" s="53">
+        <f>L53-F53 -J53</f>
+        <v>1127.69398</v>
+      </c>
+      <c r="O53" s="53">
+        <v>1564.3539430000001</v>
+      </c>
+      <c r="P53" s="53">
         <f>IF(S56&lt;0,ABS(S56)/O53,0)</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="103">
+      <c r="Q53" s="53">
         <f>IF(S56&gt;0,S56,0)</f>
-        <v>764.433381351554</v>
-      </c>
-      <c r="R53" s="103">
+        <v>3265.8246085298442</v>
+      </c>
+      <c r="R53" s="53">
         <f>R56</f>
-        <v>3.01765782954914</v>
-      </c>
-      <c r="S53" s="103">
+        <v>5.024380399238205</v>
+      </c>
+      <c r="S53" s="53">
         <f>R57</f>
-        <v>9235.566618648450</v>
-      </c>
-      <c r="T53" s="103">
+        <v>7861.8693714701558</v>
+      </c>
+      <c r="T53" s="53">
         <f>R53*$B$3</f>
-        <v>0.301765782954914</v>
-      </c>
-      <c r="U53" s="103">
+        <v>0.50243803992382052</v>
+      </c>
+      <c r="U53" s="53">
         <f>S53*$B$3</f>
-        <v>923.556661864845</v>
-      </c>
-      <c r="V53" s="104">
-        <v>3060.356191</v>
-      </c>
-      <c r="W53" s="52">
+        <v>786.18693714701567</v>
+      </c>
+      <c r="V53" s="53">
+        <v>1564.3539430000001</v>
+      </c>
+      <c r="W53" s="53">
         <f>IF((LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>198180</v>
-      </c>
-      <c r="X53" s="52">
+        <v>204900</v>
+      </c>
+      <c r="X53" s="53">
         <f>IF((LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>193920</v>
-      </c>
-      <c r="Y53" s="53">
+        <v>200640</v>
+      </c>
+      <c r="Y53" s="54">
         <f>(G57/T53)-1</f>
-        <v>0.0134136270423733</v>
-      </c>
-      <c r="Z53" s="54">
+        <v>9.3327296662113479E-3</v>
+      </c>
+      <c r="Z53" s="55">
         <f>(H57/U53)-1</f>
-        <v>0.00693850256303254</v>
-      </c>
-    </row>
-    <row r="54" ht="21.7" customHeight="1">
-      <c r="A54" t="s" s="55">
+        <v>1.0818413269359395E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A54" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B54" t="s" s="56">
+      <c r="B54" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C54" t="s" s="57">
+      <c r="C54" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D54" t="s" s="57">
+      <c r="D54" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E54" t="s" s="58">
+      <c r="E54" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F54" t="s" s="58">
+      <c r="F54" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G54" t="s" s="57">
+      <c r="G54" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H54" t="s" s="57">
+      <c r="H54" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I54" t="s" s="57">
+      <c r="I54" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J54" t="s" s="57">
+      <c r="J54" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K54" t="s" s="57">
+      <c r="K54" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L54" t="s" s="57">
+      <c r="L54" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M54" t="s" s="57">
+      <c r="M54" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N54" t="s" s="59">
+      <c r="N54" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O54" t="s" s="60">
+      <c r="O54" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="64"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="66"/>
       <c r="U54" s="36"/>
       <c r="V54" s="36"/>
       <c r="W54" s="36"/>
-      <c r="X54" s="65"/>
-      <c r="Y54" s="63"/>
-      <c r="Z54" s="66"/>
-    </row>
-    <row r="55" ht="21.7" customHeight="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="68">
+      <c r="X54" s="67"/>
+      <c r="Y54" s="65"/>
+      <c r="Z54" s="68"/>
+    </row>
+    <row r="55" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A55" s="56"/>
+      <c r="B55" s="69">
         <f>SQRT(B53*10^6/10^18)*2^96</f>
-        <v>4.38294046917908e+24</v>
-      </c>
-      <c r="C55" s="105">
+        <v>4.3829404691790772E+24</v>
+      </c>
+      <c r="C55" s="70">
         <f>B55-$B$3*F55*POWER(2,96)/L55</f>
-        <v>3.94464642226117e+24</v>
-      </c>
-      <c r="D55" s="72">
+        <v>3.9446464222611696E+24</v>
+      </c>
+      <c r="D55" s="70">
         <f>M55*B55/N55</f>
-        <v>4.86997998604707e+24</v>
+        <v>4.8699799860470599E+24</v>
       </c>
       <c r="E55" s="71">
-        <f t="shared" si="29"/>
-        <v>3.26787207467537e+18</v>
+        <f t="shared" si="0"/>
+        <v>3.26787207467537E+18</v>
       </c>
       <c r="F55" s="71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>10000000000</v>
       </c>
-      <c r="G55" s="71">
+      <c r="G55" s="72">
         <f>(M55-(M55*B55)/(SQRT(1/(1.0001^D53)*2^96*2^96/10^6)*10^3))/B55/10^18</f>
-        <v>0.331142378238987</v>
-      </c>
-      <c r="H55" s="71">
+        <v>0.33114237824495185</v>
+      </c>
+      <c r="H55" s="72">
         <f>(B55-(SQRT(1/(1.0001^C53)*2^96*2^96)))*L55/POWER(2,96)/10^6</f>
-        <v>1006.988526748470</v>
-      </c>
-      <c r="I55" s="69">
-        <v>1e+99</v>
-      </c>
-      <c r="J55" s="69">
+        <v>1006.9885267298091</v>
+      </c>
+      <c r="I55" s="70">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J55" s="70">
         <f>(E55)*(B55*I55)/POWER(2,96)/(I55-B55)</f>
-        <v>180780271934442.1</v>
-      </c>
-      <c r="K55" s="72">
+        <v>180780271934442</v>
+      </c>
+      <c r="K55" s="70">
         <f>(F55)*POWER(2,96)/(B55-0)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="L55" s="72">
+        <v>180764861105000.91</v>
+      </c>
+      <c r="L55" s="70">
         <f>MIN(J55,K55)</f>
-        <v>180764861105000.8</v>
-      </c>
-      <c r="M55" s="72">
+        <v>180764861105000.91</v>
+      </c>
+      <c r="M55" s="70">
         <f>L55*POWER(2,96)</f>
-        <v>1.43216677924954e+43</v>
-      </c>
-      <c r="N55" s="106">
+        <v>1.4321667792495432E+43</v>
+      </c>
+      <c r="N55" s="73">
         <f>M55-(0.1*E55)*B55</f>
-        <v>1.28893789160759e+43</v>
-      </c>
-      <c r="O55" t="s" s="74">
+        <v>1.2889378916075946E+43</v>
+      </c>
+      <c r="O55" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="P55" s="63"/>
-      <c r="Q55" t="s" s="74">
+      <c r="P55" s="65"/>
+      <c r="Q55" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="R55" s="63"/>
-      <c r="S55" t="s" s="74">
+      <c r="R55" s="65"/>
+      <c r="S55" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="T55" s="75"/>
+      <c r="T55" s="76"/>
       <c r="U55" s="35"/>
       <c r="V55" s="35"/>
       <c r="W55" s="35"/>
-      <c r="X55" s="76"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="66"/>
-    </row>
-    <row r="56" ht="32.85" customHeight="1">
-      <c r="A56" t="s" s="55">
+      <c r="X55" s="77"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="68"/>
+    </row>
+    <row r="56" spans="1:26" ht="32.85" customHeight="1">
+      <c r="A56" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B56" t="s" s="56">
+      <c r="B56" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C56" t="s" s="57">
+      <c r="C56" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D56" t="s" s="57">
+      <c r="D56" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E56" t="s" s="57">
+      <c r="E56" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F56" t="s" s="57">
+      <c r="F56" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G56" t="s" s="57">
+      <c r="G56" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H56" t="s" s="57">
+      <c r="H56" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I56" t="s" s="57">
+      <c r="I56" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J56" t="s" s="57">
+      <c r="J56" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K56" t="s" s="57">
+      <c r="K56" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L56" t="s" s="57">
+      <c r="L56" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M56" t="s" s="57">
+      <c r="M56" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N56" t="s" s="59">
+      <c r="N56" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O56" t="s" s="56">
+      <c r="O56" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="P56" s="77">
+      <c r="P56" s="78">
         <f>K53</f>
-        <v>2.76787207467537</v>
-      </c>
-      <c r="Q56" s="78">
+        <v>2.93672969643952</v>
+      </c>
+      <c r="Q56" s="79">
         <f>P56*O53</f>
-        <v>8470.674439628780</v>
-      </c>
-      <c r="R56" s="79">
+        <v>4594.0846801503567</v>
+      </c>
+      <c r="R56" s="80">
         <f>P56+(S56/O53)</f>
-        <v>3.01765782954914</v>
-      </c>
-      <c r="S56" s="79">
+        <v>5.024380399238205</v>
+      </c>
+      <c r="S56" s="80">
         <f>(P57-Q56)/2*(1-0.0003)</f>
-        <v>764.433381351554</v>
-      </c>
-      <c r="T56" s="75"/>
+        <v>3265.8246085298442</v>
+      </c>
+      <c r="T56" s="76"/>
       <c r="U56" s="35"/>
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
-      <c r="X56" s="76"/>
-      <c r="Y56" s="63"/>
-      <c r="Z56" s="66"/>
-    </row>
-    <row r="57" ht="21.35" customHeight="1">
-      <c r="A57" s="80"/>
-      <c r="B57" s="81">
+      <c r="X56" s="77"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="68"/>
+    </row>
+    <row r="57" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A57" s="81"/>
+      <c r="B57" s="82">
         <f>SQRT(V53*10^6/10^18)*2^96</f>
-        <v>4.38294046929997e+24</v>
-      </c>
-      <c r="C57" s="82">
+        <v>3.1336255121447264E+24</v>
+      </c>
+      <c r="C57" s="83">
         <f>B57-$B$3*F57*POWER(2,96)/L57</f>
-        <v>3.94462464803982e+24</v>
-      </c>
-      <c r="D57" s="82">
+        <v>2.8201848154299569E+24</v>
+      </c>
+      <c r="D57" s="83">
         <f>M57*B57/N57</f>
-        <v>4.86993385477775e+24</v>
-      </c>
-      <c r="E57" s="82">
+        <v>3.481806124605251E+24</v>
+      </c>
+      <c r="E57" s="83">
         <f>R53*10^18</f>
-        <v>3.01765782954914e+18</v>
-      </c>
-      <c r="F57" s="82">
+        <v>5.0243803992382054E+18</v>
+      </c>
+      <c r="F57" s="83">
         <f>S53*10^6</f>
-        <v>9235566618.648451</v>
-      </c>
-      <c r="G57" s="83">
+        <v>7861869371.4701557</v>
+      </c>
+      <c r="G57" s="84">
         <f>(M57-(M57*B57)/(SQRT(1/(1.0001^X53)*2^96*2^96/10^6)*10^3))/B57/10^18</f>
-        <v>0.305813556621621</v>
-      </c>
-      <c r="H57" s="83">
+        <v>0.50712715832445066</v>
+      </c>
+      <c r="H57" s="84">
         <f>(B57-(SQRT(1/(1.0001^W53)*2^96*2^96)))*L57/POWER(2,96)/10^6</f>
-        <v>929.9647621303</v>
-      </c>
-      <c r="I57" s="107">
-        <v>1e+99</v>
-      </c>
-      <c r="J57" s="84">
+        <v>794.69223234004392</v>
+      </c>
+      <c r="I57" s="83">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J57" s="83">
         <f>(E57)*(B57*I57)/POWER(2,96)/(I57-B57)</f>
-        <v>166938298250316.9</v>
-      </c>
-      <c r="K57" s="82">
+        <v>198723864117612</v>
+      </c>
+      <c r="K57" s="83">
         <f>(F57)*POWER(2,96)/(B57-0)</f>
-        <v>166946591699992.2</v>
-      </c>
-      <c r="L57" s="84">
+        <v>198773421334076.44</v>
+      </c>
+      <c r="L57" s="83">
         <f>MIN(J57,K57)</f>
-        <v>166938298250316.9</v>
-      </c>
-      <c r="M57" s="84">
+        <v>198723864117612</v>
+      </c>
+      <c r="M57" s="83">
         <f>L57*POWER(2,96)</f>
-        <v>1.32262146236308e+43</v>
+        <v>1.5744526601772747E+43</v>
       </c>
       <c r="N57" s="85">
         <f>M57-(0.1*E57)*B57</f>
-        <v>1.19035931612677e+43</v>
-      </c>
-      <c r="O57" t="s" s="86">
+        <v>1.4170073941595473E+43</v>
+      </c>
+      <c r="O57" s="86" t="s">
         <v>49</v>
       </c>
       <c r="P57" s="87">
         <f>L53</f>
-        <v>10000</v>
+        <v>11127.69398</v>
       </c>
       <c r="Q57" s="88">
         <f>P57/O53</f>
-        <v>3.26759350085076</v>
+        <v>7.1132840683484631</v>
       </c>
       <c r="R57" s="89">
         <f>P57-S56</f>
-        <v>9235.566618648450</v>
+        <v>7861.8693714701558</v>
       </c>
       <c r="S57" s="90"/>
       <c r="T57" s="91"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="92"/>
-      <c r="Y57" s="93"/>
-      <c r="Z57" s="94"/>
-    </row>
-    <row r="58" ht="21.35" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="109"/>
-      <c r="K58" s="109"/>
-      <c r="L58" s="109"/>
-      <c r="M58" s="109"/>
-      <c r="N58" s="109"/>
-      <c r="O58" s="109"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
-      <c r="S58" s="109"/>
-      <c r="T58" s="109"/>
-      <c r="U58" s="109"/>
-      <c r="V58" s="109"/>
-      <c r="W58" s="109"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-    </row>
-    <row r="59" ht="21.35" customHeight="1">
+      <c r="U57" s="92"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
+      <c r="X57" s="93"/>
+      <c r="Y57" s="94"/>
+      <c r="Z57" s="95"/>
+    </row>
+    <row r="58" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A58" s="96"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="105"/>
+      <c r="R58" s="105"/>
+      <c r="S58" s="105"/>
+      <c r="T58" s="105"/>
+      <c r="U58" s="105"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
+      <c r="X58" s="96"/>
+      <c r="Y58" s="97"/>
+      <c r="Z58" s="97"/>
+    </row>
+    <row r="59" spans="1:26" ht="21.3" customHeight="1">
       <c r="A59" s="20"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111"/>
-      <c r="M59" s="111"/>
-      <c r="N59" s="111"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="111"/>
-      <c r="R59" s="111"/>
-      <c r="S59" s="111"/>
-      <c r="T59" s="111"/>
-      <c r="U59" s="111"/>
-      <c r="V59" s="111"/>
-      <c r="W59" s="111"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" s="95"/>
-      <c r="B60" t="s" s="112">
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="109"/>
+      <c r="O59" s="109"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
+      <c r="V59" s="109"/>
+      <c r="W59" s="109"/>
+      <c r="X59" s="111"/>
+      <c r="Y59" s="112"/>
+      <c r="Z59" s="112"/>
+    </row>
+    <row r="60" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="99"/>
+      <c r="B60" s="113" t="s">
         <v>54</v>
       </c>
       <c r="C60" s="36"/>
@@ -6106,11 +6233,11 @@
       <c r="V60" s="36"/>
       <c r="W60" s="36"/>
       <c r="X60" s="36"/>
-      <c r="Y60" s="61"/>
-      <c r="Z60" s="113"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" s="99"/>
+      <c r="Y60" s="63"/>
+      <c r="Z60" s="114"/>
+    </row>
+    <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="103"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
@@ -6137,18 +6264,18 @@
       <c r="Y61" s="36"/>
       <c r="Z61" s="37"/>
     </row>
-    <row r="62" ht="20.05" customHeight="1">
+    <row r="62" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="38"/>
-      <c r="B62" t="s" s="39">
+      <c r="B62" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="101">
+      <c r="C62" s="40">
         <f>0.81*B64</f>
-        <v>2478.815459999190</v>
-      </c>
-      <c r="D62" s="102">
+        <v>2478.8154599991904</v>
+      </c>
+      <c r="D62" s="41">
         <f>B64/0.81</f>
-        <v>3778.106172838270</v>
+        <v>3778.1061728382715</v>
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="34"/>
@@ -6167,7 +6294,7 @@
       <c r="S62" s="34"/>
       <c r="T62" s="34"/>
       <c r="U62" s="43"/>
-      <c r="V62" t="s" s="39">
+      <c r="V62" s="39" t="s">
         <v>4</v>
       </c>
       <c r="W62" s="40">
@@ -6176,442 +6303,442 @@
       </c>
       <c r="X62" s="41">
         <f>V64/0.81</f>
-        <v>3778.217519753090</v>
+        <v>3778.217519753086</v>
       </c>
       <c r="Y62" s="44"/>
       <c r="Z62" s="45"/>
     </row>
-    <row r="63" ht="20.05" customHeight="1">
+    <row r="63" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="38"/>
-      <c r="B63" t="s" s="114">
+      <c r="B63" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C63" t="s" s="47">
+      <c r="C63" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D63" t="s" s="47">
+      <c r="D63" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E63" t="s" s="47">
+      <c r="E63" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F63" t="s" s="47">
+      <c r="F63" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G63" t="s" s="47">
+      <c r="G63" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H63" t="s" s="47">
+      <c r="H63" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I63" t="s" s="47">
+      <c r="I63" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J63" t="s" s="47">
+      <c r="J63" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K63" t="s" s="47">
+      <c r="K63" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="L63" t="s" s="47">
+      <c r="L63" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M63" t="s" s="47">
+      <c r="M63" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N63" t="s" s="47">
+      <c r="N63" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O63" t="s" s="48">
+      <c r="O63" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="P63" t="s" s="47">
+      <c r="P63" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q63" t="s" s="47">
+      <c r="Q63" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R63" t="s" s="47">
+      <c r="R63" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S63" t="s" s="47">
+      <c r="S63" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T63" t="s" s="47">
+      <c r="T63" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="U63" t="s" s="47">
+      <c r="U63" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="V63" t="s" s="48">
+      <c r="V63" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="W63" t="s" s="47">
+      <c r="W63" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="X63" t="s" s="47">
+      <c r="X63" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Y63" t="s" s="47">
+      <c r="Y63" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Z63" t="s" s="49">
+      <c r="Z63" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" ht="36" customHeight="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="115">
-        <f t="shared" si="285" ref="B64:D70">3060.265999999</f>
-        <v>3060.265999999</v>
-      </c>
-      <c r="C64" s="52">
+    <row r="64" spans="1:26" ht="36" customHeight="1">
+      <c r="A64" s="51"/>
+      <c r="B64" s="116">
+        <f t="shared" ref="B64:D70" si="3">3060.265999999</f>
+        <v>3060.2659999990001</v>
+      </c>
+      <c r="C64" s="53">
         <f>IF((LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="53">
         <f>IF((LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193980</v>
       </c>
-      <c r="E64" s="52">
+      <c r="E64" s="53">
         <f>E66*$B$3*10^-18</f>
-        <v>0.326787207467537</v>
-      </c>
-      <c r="F64" s="52">
+        <v>0.32678720746753703</v>
+      </c>
+      <c r="F64" s="53">
         <f>F66*$B$3*10^-6</f>
         <v>1000</v>
       </c>
-      <c r="G64" s="53">
+      <c r="G64" s="54">
         <f>((G66/E66)-(E64/E66))*10^18</f>
-        <v>-0.00135074674846276</v>
-      </c>
-      <c r="H64" s="53">
+        <v>-1.3507467466323424E-3</v>
+      </c>
+      <c r="H64" s="54">
         <f>((H66/F66)-(F64/F66))*10^6</f>
-        <v>0.000685600865811</v>
-      </c>
-      <c r="I64" s="52">
+        <v>6.8560086394584127E-4</v>
+      </c>
+      <c r="I64" s="53">
         <f>E66*$C$3*10^-18</f>
-        <v>2.94108486720783</v>
-      </c>
-      <c r="J64" s="52">
+        <v>2.9410848672078331</v>
+      </c>
+      <c r="J64" s="53">
         <f>F66*$C$3*10^-6</f>
         <v>9000</v>
       </c>
-      <c r="K64" s="52">
+      <c r="K64" s="53">
         <f>E64+I64+M64</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="L64" s="52">
+      <c r="L64" s="53">
         <f>F64+J64+N64</f>
         <v>10000</v>
       </c>
-      <c r="M64" s="52">
+      <c r="M64" s="53">
         <v>0</v>
       </c>
-      <c r="N64" s="52">
+      <c r="N64" s="53">
         <v>0</v>
       </c>
-      <c r="O64" s="52">
-        <v>3060.356191</v>
-      </c>
-      <c r="P64" s="52">
+      <c r="O64" s="53">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="P64" s="53">
         <f>IF(S67&lt;0,ABS(S67)/O64,0)</f>
-        <v>0.000139245126232001</v>
-      </c>
-      <c r="Q64" s="52">
+        <v>1.3924512622916202E-4</v>
+      </c>
+      <c r="Q64" s="53">
         <f>IF(S67&gt;0,S67,0)</f>
         <v>0</v>
       </c>
-      <c r="R64" s="52">
+      <c r="R64" s="53">
         <f>R67</f>
-        <v>3.26773282954914</v>
-      </c>
-      <c r="S64" s="52">
+        <v>3.267732829549141</v>
+      </c>
+      <c r="S64" s="53">
         <f>R68</f>
-        <v>10000.4261396841</v>
-      </c>
-      <c r="T64" s="116">
+        <v>10000.426139684121</v>
+      </c>
+      <c r="T64" s="117">
         <f>R64*$B$3</f>
-        <v>0.326773282954914</v>
-      </c>
-      <c r="U64" s="116">
+        <v>0.32677328295491415</v>
+      </c>
+      <c r="U64" s="117">
         <f>S64*$B$3</f>
-        <v>1000.042613968410</v>
-      </c>
-      <c r="V64" s="116">
-        <v>3060.356191</v>
-      </c>
-      <c r="W64" s="52">
+        <v>1000.0426139684122</v>
+      </c>
+      <c r="V64" s="117">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="W64" s="53">
         <f>IF((LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="X64" s="52">
+      <c r="X64" s="53">
         <f>IF((LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="Y64" s="117">
+      <c r="Y64" s="118">
         <f>(G68/T64)-1</f>
-        <v>0.0134136011243605</v>
-      </c>
-      <c r="Z64" s="118">
+        <v>1.3413601142597598E-2</v>
+      </c>
+      <c r="Z64" s="119">
         <f>(H68/U64)-1</f>
-        <v>0.00698852699652134</v>
-      </c>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="55">
+        <v>6.9885269778668935E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B65" t="s" s="56">
+      <c r="B65" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C65" t="s" s="57">
+      <c r="C65" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D65" t="s" s="57">
+      <c r="D65" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E65" t="s" s="58">
+      <c r="E65" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F65" t="s" s="58">
+      <c r="F65" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G65" t="s" s="57">
+      <c r="G65" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H65" t="s" s="57">
+      <c r="H65" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I65" t="s" s="57">
+      <c r="I65" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J65" t="s" s="57">
+      <c r="J65" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K65" t="s" s="57">
+      <c r="K65" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L65" t="s" s="57">
+      <c r="L65" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M65" t="s" s="57">
+      <c r="M65" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N65" t="s" s="59">
+      <c r="N65" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O65" t="s" s="60">
+      <c r="O65" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="95"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="64"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="99"/>
       <c r="U65" s="29"/>
       <c r="V65" s="29"/>
       <c r="W65" s="36"/>
-      <c r="X65" s="65"/>
-      <c r="Y65" s="119"/>
-      <c r="Z65" s="120"/>
-    </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" s="67"/>
-      <c r="B66" s="68">
+      <c r="X65" s="67"/>
+      <c r="Y65" s="120"/>
+      <c r="Z65" s="121"/>
+    </row>
+    <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="56"/>
+      <c r="B66" s="69">
         <f>SQRT(B64*10^6/10^18)*2^96</f>
-        <v>4.38287588454642e+24</v>
-      </c>
-      <c r="C66" s="69">
+        <v>4.382875884546422E+24</v>
+      </c>
+      <c r="C66" s="70">
         <f>B66-$B$3*F66*POWER(2,96)/L66</f>
-        <v>3.94458829609178e+24</v>
+        <v>3.94458829609178E+24</v>
       </c>
       <c r="D66" s="70">
         <f>M66*B66/N66</f>
-        <v>4.86989227658452e+24</v>
+        <v>4.8698922765845359E+24</v>
       </c>
       <c r="E66" s="71">
-        <f t="shared" si="29"/>
-        <v>3.26787207467537e+18</v>
+        <f t="shared" si="0"/>
+        <v>3.26787207467537E+18</v>
       </c>
       <c r="F66" s="71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>10000000000</v>
       </c>
-      <c r="G66" s="71">
+      <c r="G66" s="72">
         <f>(M66-(M66*B66)/(SQRT(1/(1.0001^D64)*2^96*2^96/10^6)*10^3))/B66/10^18</f>
-        <v>0.322373139888277</v>
-      </c>
-      <c r="H66" s="71">
+        <v>0.32237313989425859</v>
+      </c>
+      <c r="H66" s="72">
         <f>(B66-(SQRT(1/(1.0001^C64)*2^96*2^96)))*L66/POWER(2,96)/10^6</f>
-        <v>1006.856008658110</v>
-      </c>
-      <c r="I66" s="69">
-        <v>1e+99</v>
-      </c>
-      <c r="J66" s="69">
+        <v>1006.8560086394583</v>
+      </c>
+      <c r="I66" s="70">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J66" s="70">
         <f>(E66)*(B66*I66)/POWER(2,96)/(I66-B66)</f>
-        <v>180777608054442.6</v>
-      </c>
-      <c r="K66" s="72">
+        <v>180777608054442.66</v>
+      </c>
+      <c r="K66" s="70">
         <f>(F66)*POWER(2,96)/(B66-0)</f>
-        <v>180767524797165.4</v>
-      </c>
-      <c r="L66" s="72">
+        <v>180767524797165.34</v>
+      </c>
+      <c r="L66" s="70">
         <f>MIN(J66,K66)</f>
-        <v>180767524797165.4</v>
-      </c>
-      <c r="M66" s="72">
+        <v>180767524797165.34</v>
+      </c>
+      <c r="M66" s="70">
         <f>L66*POWER(2,96)</f>
-        <v>1.43218788319311e+43</v>
+        <v>1.4321878831931124E+43</v>
       </c>
       <c r="N66" s="73">
         <f>M66-($B$3*E66)*B66</f>
-        <v>1.28896110609434e+43</v>
-      </c>
-      <c r="O66" t="s" s="74">
+        <v>1.2889611060943387E+43</v>
+      </c>
+      <c r="O66" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="P66" s="63"/>
-      <c r="Q66" t="s" s="74">
+      <c r="P66" s="65"/>
+      <c r="Q66" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="R66" s="63"/>
-      <c r="S66" t="s" s="121">
+      <c r="R66" s="65"/>
+      <c r="S66" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="T66" s="99"/>
+      <c r="T66" s="103"/>
       <c r="U66" s="35"/>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
-      <c r="X66" s="76"/>
-      <c r="Y66" s="63"/>
-      <c r="Z66" s="66"/>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="55">
+      <c r="X66" s="77"/>
+      <c r="Y66" s="65"/>
+      <c r="Z66" s="68"/>
+    </row>
+    <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B67" t="s" s="56">
+      <c r="B67" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C67" t="s" s="57">
+      <c r="C67" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D67" t="s" s="57">
+      <c r="D67" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E67" t="s" s="57">
+      <c r="E67" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F67" t="s" s="57">
+      <c r="F67" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G67" t="s" s="57">
+      <c r="G67" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="H67" t="s" s="57">
+      <c r="H67" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I67" t="s" s="57">
+      <c r="I67" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J67" t="s" s="57">
+      <c r="J67" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K67" t="s" s="57">
+      <c r="K67" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L67" t="s" s="57">
+      <c r="L67" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="M67" t="s" s="57">
+      <c r="M67" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="N67" t="s" s="59">
+      <c r="N67" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O67" t="s" s="56">
+      <c r="O67" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="P67" s="77">
+      <c r="P67" s="78">
         <f>K64</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="Q67" s="78">
+      <c r="Q67" s="79">
         <f>P67*O64</f>
-        <v>10000.8525351288</v>
-      </c>
-      <c r="R67" s="79">
+        <v>10000.852535128783</v>
+      </c>
+      <c r="R67" s="80">
         <f>P67+(S67/O64)</f>
-        <v>3.26773282954914</v>
-      </c>
-      <c r="S67" s="122">
+        <v>3.267732829549141</v>
+      </c>
+      <c r="S67" s="123">
         <f>(P68-Q67)/2*(1-0.0003)</f>
-        <v>-0.42613968413068</v>
-      </c>
-      <c r="T67" s="99"/>
+        <v>-0.42613968412199249</v>
+      </c>
+      <c r="T67" s="103"/>
       <c r="U67" s="35"/>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
-      <c r="X67" s="76"/>
-      <c r="Y67" s="63"/>
-      <c r="Z67" s="66"/>
-    </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" s="80"/>
-      <c r="B68" s="81">
+      <c r="X67" s="77"/>
+      <c r="Y67" s="65"/>
+      <c r="Z67" s="68"/>
+    </row>
+    <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="81"/>
+      <c r="B68" s="82">
         <f>SQRT(V64*10^6/10^18)*2^96</f>
-        <v>4.38294046929997e+24</v>
-      </c>
-      <c r="C68" s="82">
+        <v>4.3829404692999735E+24</v>
+      </c>
+      <c r="C68" s="83">
         <f>B68-$B$3*F68*POWER(2,96)/L68</f>
-        <v>3.94464642236997e+24</v>
-      </c>
-      <c r="D68" s="82">
+        <v>3.9446464223699762E+24</v>
+      </c>
+      <c r="D68" s="83">
         <f>M68*B68/N68</f>
-        <v>4.86993386861645e+24</v>
-      </c>
-      <c r="E68" s="82">
+        <v>4.8699338686164578E+24</v>
+      </c>
+      <c r="E68" s="83">
         <f>R64*10^18</f>
-        <v>3.26773282954914e+18</v>
-      </c>
-      <c r="F68" s="82">
+        <v>3.267732829549141E+18</v>
+      </c>
+      <c r="F68" s="83">
         <f>S64*10^6</f>
-        <v>10000426139.6841</v>
-      </c>
-      <c r="G68" s="83">
+        <v>10000426139.684122</v>
+      </c>
+      <c r="G68" s="84">
         <f>(M68-(M68*B68)/(SQRT(1/(1.0001^X64)*2^96*2^96/10^6)*10^3))/B68/10^18</f>
-        <v>0.331156489430569</v>
-      </c>
-      <c r="H68" s="83">
+        <v>0.33115648943652853</v>
+      </c>
+      <c r="H68" s="84">
         <f>(B68-(SQRT(1/(1.0001^W64)*2^96*2^96)))*L68/POWER(2,96)/10^6</f>
-        <v>1007.0314387738</v>
-      </c>
-      <c r="I68" s="84">
-        <v>1e+99</v>
-      </c>
-      <c r="J68" s="82">
+        <v>1007.031438755147</v>
+      </c>
+      <c r="I68" s="83">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J68" s="83">
         <f>(E68)*(B68*I68)/POWER(2,96)/(I68-B68)</f>
-        <v>180772568831347.4</v>
-      </c>
-      <c r="K68" s="82">
+        <v>180772568831347.59</v>
+      </c>
+      <c r="K68" s="83">
         <f>(F68)*POWER(2,96)/(B68-0)</f>
-        <v>180772564208095.5</v>
-      </c>
-      <c r="L68" s="82">
+        <v>180772564208095.75</v>
+      </c>
+      <c r="L68" s="83">
         <f>MIN(J68,K68)</f>
-        <v>180772564208095.5</v>
-      </c>
-      <c r="M68" s="82">
+        <v>180772564208095.75</v>
+      </c>
+      <c r="M68" s="83">
         <f>L68*POWER(2,96)</f>
-        <v>1.43222780951993e+43</v>
+        <v>1.4322278095199295E+43</v>
       </c>
       <c r="N68" s="85">
         <f>M68-(0.1*E68)*B68</f>
-        <v>1.28900502490502e+43</v>
-      </c>
-      <c r="O68" t="s" s="86">
+        <v>1.2890050249050191E+43</v>
+      </c>
+      <c r="O68" s="86" t="s">
         <v>49</v>
       </c>
       <c r="P68" s="87">
@@ -6620,391 +6747,394 @@
       </c>
       <c r="Q68" s="88">
         <f>P68/O64</f>
-        <v>3.26759350085076</v>
+        <v>3.2675935008507642</v>
       </c>
       <c r="R68" s="89">
         <f>P68-S67</f>
-        <v>10000.4261396841</v>
-      </c>
-      <c r="S68" s="123"/>
-      <c r="T68" s="124"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="20"/>
-      <c r="X68" s="92"/>
-      <c r="Y68" s="93"/>
-      <c r="Z68" s="94"/>
-    </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" s="125"/>
-      <c r="B69" s="126"/>
-      <c r="C69" s="127"/>
-      <c r="D69" s="128"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="126"/>
-      <c r="M69" s="126"/>
-      <c r="N69" s="126"/>
-      <c r="O69" s="126"/>
-      <c r="P69" s="126"/>
-      <c r="Q69" s="126"/>
-      <c r="R69" s="126"/>
-      <c r="S69" s="126"/>
-      <c r="T69" s="126"/>
-      <c r="U69" s="126"/>
-      <c r="V69" s="126"/>
-      <c r="W69" s="126"/>
-      <c r="X69" s="125"/>
-      <c r="Y69" s="125"/>
-      <c r="Z69" s="125"/>
-    </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" s="129"/>
-      <c r="B70" t="s" s="130">
+        <v>10000.426139684121</v>
+      </c>
+      <c r="S68" s="124"/>
+      <c r="T68" s="125"/>
+      <c r="U68" s="92"/>
+      <c r="V68" s="92"/>
+      <c r="W68" s="92"/>
+      <c r="X68" s="93"/>
+      <c r="Y68" s="94"/>
+      <c r="Z68" s="95"/>
+    </row>
+    <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="126"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="128"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="127"/>
+      <c r="K69" s="127"/>
+      <c r="L69" s="127"/>
+      <c r="M69" s="127"/>
+      <c r="N69" s="127"/>
+      <c r="O69" s="127"/>
+      <c r="P69" s="127"/>
+      <c r="Q69" s="127"/>
+      <c r="R69" s="127"/>
+      <c r="S69" s="127"/>
+      <c r="T69" s="127"/>
+      <c r="U69" s="127"/>
+      <c r="V69" s="127"/>
+      <c r="W69" s="127"/>
+      <c r="X69" s="126"/>
+      <c r="Y69" s="131"/>
+      <c r="Z69" s="131"/>
+    </row>
+    <row r="70" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="132"/>
+      <c r="B70" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="131">
+      <c r="C70" s="134">
         <f>3064.79</f>
         <v>3064.79</v>
       </c>
-      <c r="D70" s="131">
-        <f t="shared" si="285"/>
-        <v>3060.265999999</v>
-      </c>
-      <c r="E70" s="132"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="132"/>
-      <c r="M70" s="132"/>
-      <c r="N70" s="132"/>
-      <c r="O70" s="132"/>
-      <c r="P70" s="132"/>
-      <c r="Q70" s="132"/>
-      <c r="R70" s="132"/>
-      <c r="S70" s="132"/>
-      <c r="T70" s="132"/>
-      <c r="U70" s="132"/>
-      <c r="V70" s="132"/>
-      <c r="W70" s="132"/>
-      <c r="X70" s="129"/>
-      <c r="Y70" s="129"/>
-      <c r="Z70" s="129"/>
-    </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" s="35"/>
-      <c r="B71" s="133"/>
-      <c r="C71" t="s" s="134">
+      <c r="D70" s="134">
+        <f t="shared" si="3"/>
+        <v>3060.2659999990001</v>
+      </c>
+      <c r="E70" s="134"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="135"/>
+      <c r="H70" s="135"/>
+      <c r="I70" s="134"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="134"/>
+      <c r="M70" s="134"/>
+      <c r="N70" s="134"/>
+      <c r="O70" s="134"/>
+      <c r="P70" s="134"/>
+      <c r="Q70" s="134"/>
+      <c r="R70" s="134"/>
+      <c r="S70" s="134"/>
+      <c r="T70" s="134"/>
+      <c r="U70" s="134"/>
+      <c r="V70" s="134"/>
+      <c r="W70" s="134"/>
+      <c r="X70" s="132"/>
+      <c r="Y70" s="136"/>
+      <c r="Z70" s="136"/>
+    </row>
+    <row r="71" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="137"/>
+      <c r="B71" s="138"/>
+      <c r="C71" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="D71" t="s" s="134">
+      <c r="D71" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="135"/>
-      <c r="F71" s="135"/>
-      <c r="G71" s="135"/>
-      <c r="H71" s="135"/>
-      <c r="I71" s="135"/>
-      <c r="J71" s="135"/>
-      <c r="K71" s="135"/>
-      <c r="L71" s="135"/>
-      <c r="M71" s="135"/>
-      <c r="N71" s="135"/>
-      <c r="O71" s="135"/>
-      <c r="P71" s="135"/>
-      <c r="Q71" s="135"/>
-      <c r="R71" s="135"/>
-      <c r="S71" s="135"/>
-      <c r="T71" s="135"/>
-      <c r="U71" s="135"/>
-      <c r="V71" s="135"/>
-      <c r="W71" s="135"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
-    </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" s="35"/>
-      <c r="B72" t="s" s="136">
+      <c r="E71" s="140"/>
+      <c r="F71" s="140"/>
+      <c r="G71" s="141"/>
+      <c r="H71" s="141"/>
+      <c r="I71" s="140"/>
+      <c r="J71" s="140"/>
+      <c r="K71" s="140"/>
+      <c r="L71" s="140"/>
+      <c r="M71" s="140"/>
+      <c r="N71" s="140"/>
+      <c r="O71" s="140"/>
+      <c r="P71" s="140"/>
+      <c r="Q71" s="140"/>
+      <c r="R71" s="140"/>
+      <c r="S71" s="140"/>
+      <c r="T71" s="140"/>
+      <c r="U71" s="140"/>
+      <c r="V71" s="140"/>
+      <c r="W71" s="140"/>
+      <c r="X71" s="137"/>
+      <c r="Y71" s="142"/>
+      <c r="Z71" s="142"/>
+    </row>
+    <row r="72" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="137"/>
+      <c r="B72" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="137">
+      <c r="C72" s="143">
         <f>LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)</f>
-        <v>198164.757857131</v>
-      </c>
-      <c r="D72" s="138">
+        <v>198164.75785713058</v>
+      </c>
+      <c r="D72" s="143">
         <f>LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)</f>
-        <v>193950.00255061</v>
-      </c>
-      <c r="E72" s="135"/>
-      <c r="F72" s="135"/>
-      <c r="G72" s="135"/>
-      <c r="H72" s="135"/>
-      <c r="I72" s="135"/>
-      <c r="J72" s="135"/>
-      <c r="K72" s="135"/>
-      <c r="L72" s="135"/>
-      <c r="M72" s="135"/>
-      <c r="N72" s="135"/>
-      <c r="O72" s="135"/>
-      <c r="P72" s="135"/>
-      <c r="Q72" s="135"/>
-      <c r="R72" s="135"/>
-      <c r="S72" s="135"/>
-      <c r="T72" s="135"/>
-      <c r="U72" s="135"/>
-      <c r="V72" s="135"/>
-      <c r="W72" s="135"/>
-      <c r="X72" s="35"/>
-      <c r="Y72" s="35"/>
-      <c r="Z72" s="35"/>
-    </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" s="35"/>
-      <c r="B73" t="s" s="136">
+        <v>193950.00255061011</v>
+      </c>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="141"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="140"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="140"/>
+      <c r="N72" s="140"/>
+      <c r="O72" s="140"/>
+      <c r="P72" s="140"/>
+      <c r="Q72" s="140"/>
+      <c r="R72" s="140"/>
+      <c r="S72" s="140"/>
+      <c r="T72" s="140"/>
+      <c r="U72" s="140"/>
+      <c r="V72" s="140"/>
+      <c r="W72" s="140"/>
+      <c r="X72" s="137"/>
+      <c r="Y72" s="142"/>
+      <c r="Z72" s="142"/>
+    </row>
+    <row r="73" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="137"/>
+      <c r="B73" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="139">
+      <c r="C73" s="140">
         <f>1/(1.0001^C72/10^12)</f>
-        <v>2478.815459999090</v>
+        <v>2478.8154599991904</v>
       </c>
       <c r="D73" s="140">
         <f>1/(1.0001^D72/10^12)</f>
-        <v>3778.153005206480</v>
-      </c>
-      <c r="E73" s="135"/>
-      <c r="F73" s="135"/>
-      <c r="G73" s="135"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="135"/>
-      <c r="J73" s="135"/>
-      <c r="K73" s="135"/>
-      <c r="L73" s="135"/>
-      <c r="M73" s="135"/>
-      <c r="N73" s="135"/>
-      <c r="O73" s="135"/>
-      <c r="P73" s="135"/>
-      <c r="Q73" s="135"/>
-      <c r="R73" s="135"/>
-      <c r="S73" s="135"/>
-      <c r="T73" s="135"/>
-      <c r="U73" s="135"/>
-      <c r="V73" s="135"/>
-      <c r="W73" s="135"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
-    </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" s="35"/>
-      <c r="B74" t="s" s="136">
+        <v>3778.1530052064386</v>
+      </c>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="141"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="140"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="140"/>
+      <c r="N73" s="140"/>
+      <c r="O73" s="140"/>
+      <c r="P73" s="140"/>
+      <c r="Q73" s="140"/>
+      <c r="R73" s="140"/>
+      <c r="S73" s="140"/>
+      <c r="T73" s="140"/>
+      <c r="U73" s="140"/>
+      <c r="V73" s="140"/>
+      <c r="W73" s="140"/>
+      <c r="X73" s="137"/>
+      <c r="Y73" s="142"/>
+      <c r="Z73" s="142"/>
+    </row>
+    <row r="74" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="137"/>
+      <c r="B74" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="141">
+      <c r="C74" s="140">
         <f>1/(1.0001^198180/10^12)</f>
-        <v>2475.040280638190</v>
-      </c>
-      <c r="D74" s="141">
+        <v>2475.0402806484635</v>
+      </c>
+      <c r="D74" s="140">
         <f>1/(1.0001^193980/10^12)</f>
-        <v>3766.837056603210</v>
-      </c>
-      <c r="E74" s="135"/>
-      <c r="F74" s="135"/>
-      <c r="G74" s="135"/>
-      <c r="H74" s="135"/>
-      <c r="I74" s="135"/>
-      <c r="J74" s="135"/>
-      <c r="K74" s="135"/>
-      <c r="L74" s="135"/>
-      <c r="M74" s="135"/>
-      <c r="N74" s="135"/>
-      <c r="O74" s="135"/>
-      <c r="P74" s="135"/>
-      <c r="Q74" s="135"/>
-      <c r="R74" s="135"/>
-      <c r="S74" s="135"/>
-      <c r="T74" s="135"/>
-      <c r="U74" s="135"/>
-      <c r="V74" s="135"/>
-      <c r="W74" s="135"/>
-      <c r="X74" s="35"/>
-      <c r="Y74" s="35"/>
-      <c r="Z74" s="35"/>
-    </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" s="35"/>
-      <c r="B75" t="s" s="136">
+        <v>3766.8370566185158</v>
+      </c>
+      <c r="E74" s="140"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="141"/>
+      <c r="H74" s="141"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="140"/>
+      <c r="K74" s="140"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="140"/>
+      <c r="N74" s="140"/>
+      <c r="O74" s="140"/>
+      <c r="P74" s="140"/>
+      <c r="Q74" s="140"/>
+      <c r="R74" s="140"/>
+      <c r="S74" s="140"/>
+      <c r="T74" s="140"/>
+      <c r="U74" s="140"/>
+      <c r="V74" s="140"/>
+      <c r="W74" s="140"/>
+      <c r="X74" s="137"/>
+      <c r="Y74" s="142"/>
+      <c r="Z74" s="142"/>
+    </row>
+    <row r="75" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="137"/>
+      <c r="B75" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="141">
+      <c r="C75" s="140">
         <f>1/(1.0001^198120/10^12)</f>
-        <v>2489.934415351690</v>
-      </c>
-      <c r="D75" s="141">
+        <v>2489.9344153620227</v>
+      </c>
+      <c r="D75" s="140">
         <f>1/(1.0001^193920/10^12)</f>
-        <v>3789.504881043790</v>
-      </c>
-      <c r="E75" s="135"/>
-      <c r="F75" s="135"/>
-      <c r="G75" s="135"/>
-      <c r="H75" s="135"/>
-      <c r="I75" s="135"/>
-      <c r="J75" s="135"/>
-      <c r="K75" s="135"/>
-      <c r="L75" s="135"/>
-      <c r="M75" s="135"/>
-      <c r="N75" s="135"/>
-      <c r="O75" s="135"/>
-      <c r="P75" s="135"/>
-      <c r="Q75" s="135"/>
-      <c r="R75" s="135"/>
-      <c r="S75" s="135"/>
-      <c r="T75" s="135"/>
-      <c r="U75" s="135"/>
-      <c r="V75" s="135"/>
-      <c r="W75" s="135"/>
-      <c r="X75" s="35"/>
-      <c r="Y75" s="35"/>
-      <c r="Z75" s="35"/>
-    </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" s="35"/>
-      <c r="B76" t="s" s="136">
+        <v>3789.5048810591757</v>
+      </c>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="141"/>
+      <c r="H75" s="141"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="140"/>
+      <c r="K75" s="140"/>
+      <c r="L75" s="140"/>
+      <c r="M75" s="140"/>
+      <c r="N75" s="140"/>
+      <c r="O75" s="140"/>
+      <c r="P75" s="140"/>
+      <c r="Q75" s="140"/>
+      <c r="R75" s="140"/>
+      <c r="S75" s="140"/>
+      <c r="T75" s="140"/>
+      <c r="U75" s="140"/>
+      <c r="V75" s="140"/>
+      <c r="W75" s="140"/>
+      <c r="X75" s="137"/>
+      <c r="Y75" s="142"/>
+      <c r="Z75" s="142"/>
+    </row>
+    <row r="76" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="137"/>
+      <c r="B76" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="141">
+      <c r="C76" s="140">
         <f>((C75-C74)/2)+C74</f>
-        <v>2482.487347994940</v>
-      </c>
-      <c r="D76" s="141">
+        <v>2482.4873480052429</v>
+      </c>
+      <c r="D76" s="140">
         <f>((D75-D74)/2)+D74</f>
-        <v>3778.1709688235</v>
-      </c>
-      <c r="E76" s="135"/>
-      <c r="F76" s="135"/>
-      <c r="G76" s="135"/>
-      <c r="H76" s="135"/>
-      <c r="I76" s="135"/>
-      <c r="J76" s="135"/>
-      <c r="K76" s="135"/>
-      <c r="L76" s="135"/>
-      <c r="M76" s="135"/>
-      <c r="N76" s="135"/>
-      <c r="O76" s="135"/>
-      <c r="P76" s="135"/>
-      <c r="Q76" s="135"/>
-      <c r="R76" s="135"/>
-      <c r="S76" s="135"/>
-      <c r="T76" s="135"/>
-      <c r="U76" s="135"/>
-      <c r="V76" s="135"/>
-      <c r="W76" s="135"/>
-      <c r="X76" s="35"/>
-      <c r="Y76" s="35"/>
-      <c r="Z76" s="35"/>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" s="35"/>
-      <c r="B77" t="s" s="136">
+        <v>3778.1709688388455</v>
+      </c>
+      <c r="E76" s="140"/>
+      <c r="F76" s="140"/>
+      <c r="G76" s="141"/>
+      <c r="H76" s="141"/>
+      <c r="I76" s="140"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="140"/>
+      <c r="N76" s="140"/>
+      <c r="O76" s="140"/>
+      <c r="P76" s="140"/>
+      <c r="Q76" s="140"/>
+      <c r="R76" s="140"/>
+      <c r="S76" s="140"/>
+      <c r="T76" s="140"/>
+      <c r="U76" s="140"/>
+      <c r="V76" s="140"/>
+      <c r="W76" s="140"/>
+      <c r="X76" s="137"/>
+      <c r="Y76" s="142"/>
+      <c r="Z76" s="142"/>
+    </row>
+    <row r="77" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="137"/>
+      <c r="B77" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="142">
+      <c r="C77" s="143">
         <f>LOG(1/C76*10^12,1.0001)</f>
-        <v>198149.955002317</v>
-      </c>
-      <c r="D77" s="142">
+        <v>198149.95500227585</v>
+      </c>
+      <c r="D77" s="143">
         <f>LOG(1/D76*10^12,1.0001)</f>
-        <v>193949.955002317</v>
-      </c>
-      <c r="E77" s="135"/>
-      <c r="F77" s="135"/>
-      <c r="G77" s="135"/>
-      <c r="H77" s="135"/>
-      <c r="I77" s="135"/>
-      <c r="J77" s="135"/>
-      <c r="K77" s="135"/>
-      <c r="L77" s="135"/>
-      <c r="M77" s="135"/>
-      <c r="N77" s="135"/>
-      <c r="O77" s="135"/>
-      <c r="P77" s="135"/>
-      <c r="Q77" s="135"/>
-      <c r="R77" s="135"/>
-      <c r="S77" s="135"/>
-      <c r="T77" s="135"/>
-      <c r="U77" s="135"/>
-      <c r="V77" s="135"/>
-      <c r="W77" s="135"/>
-      <c r="X77" s="35"/>
-      <c r="Y77" s="35"/>
-      <c r="Z77" s="35"/>
-    </row>
-    <row r="78" ht="14.7" customHeight="1">
-      <c r="A78" s="35"/>
-      <c r="B78" t="s" s="143">
+        <v>193949.95500227675</v>
+      </c>
+      <c r="E77" s="140"/>
+      <c r="F77" s="140"/>
+      <c r="G77" s="141"/>
+      <c r="H77" s="141"/>
+      <c r="I77" s="140"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="140"/>
+      <c r="M77" s="140"/>
+      <c r="N77" s="140"/>
+      <c r="O77" s="140"/>
+      <c r="P77" s="140"/>
+      <c r="Q77" s="140"/>
+      <c r="R77" s="140"/>
+      <c r="S77" s="140"/>
+      <c r="T77" s="140"/>
+      <c r="U77" s="140"/>
+      <c r="V77" s="140"/>
+      <c r="W77" s="140"/>
+      <c r="X77" s="137"/>
+      <c r="Y77" s="142"/>
+      <c r="Z77" s="142"/>
+    </row>
+    <row r="78" spans="1:26" ht="14.7" customHeight="1">
+      <c r="A78" s="137"/>
+      <c r="B78" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="141">
+      <c r="C78" s="140">
         <f>SQRT(C76*10^6/10^18)*2^96</f>
-        <v>3.94750878911935e+24</v>
-      </c>
-      <c r="D78" s="141">
+        <v>3.9475087891275415E+24</v>
+      </c>
+      <c r="D78" s="140">
         <f>SQRT(D76*10^6/10^18)*2^96</f>
-        <v>4.86990385377264e+24</v>
-      </c>
-      <c r="E78" s="135"/>
-      <c r="F78" s="135"/>
-      <c r="G78" s="135"/>
-      <c r="H78" s="135"/>
-      <c r="I78" s="135"/>
-      <c r="J78" s="135"/>
-      <c r="K78" s="135"/>
-      <c r="L78" s="135"/>
-      <c r="M78" s="135"/>
-      <c r="N78" s="135"/>
-      <c r="O78" s="135"/>
-      <c r="P78" s="135"/>
-      <c r="Q78" s="135"/>
-      <c r="R78" s="135"/>
-      <c r="S78" s="135"/>
-      <c r="T78" s="135"/>
-      <c r="U78" s="135"/>
-      <c r="V78" s="135"/>
-      <c r="W78" s="135"/>
-      <c r="X78" s="35"/>
-      <c r="Y78" s="35"/>
-      <c r="Z78" s="35"/>
+        <v>4.8699038537825261E+24</v>
+      </c>
+      <c r="E78" s="140"/>
+      <c r="F78" s="140"/>
+      <c r="G78" s="141"/>
+      <c r="H78" s="141"/>
+      <c r="I78" s="140"/>
+      <c r="J78" s="140"/>
+      <c r="K78" s="140"/>
+      <c r="L78" s="140"/>
+      <c r="M78" s="140"/>
+      <c r="N78" s="140"/>
+      <c r="O78" s="140"/>
+      <c r="P78" s="140"/>
+      <c r="Q78" s="140"/>
+      <c r="R78" s="140"/>
+      <c r="S78" s="140"/>
+      <c r="T78" s="140"/>
+      <c r="U78" s="140"/>
+      <c r="V78" s="140"/>
+      <c r="W78" s="140"/>
+      <c r="X78" s="137"/>
+      <c r="Y78" s="142"/>
+      <c r="Z78" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="E7:U7"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="E62:U62"/>
+    <mergeCell ref="T10:Z13"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="T21:Z24"/>
+    <mergeCell ref="T32:Z35"/>
+    <mergeCell ref="T43:Z46"/>
+    <mergeCell ref="T54:Z57"/>
+    <mergeCell ref="T65:Z68"/>
+    <mergeCell ref="B16:Z17"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="B60:Z61"/>
     <mergeCell ref="E18:U18"/>
     <mergeCell ref="E29:U29"/>
     <mergeCell ref="E40:U40"/>
@@ -7018,39 +7148,70 @@
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="O43:S43"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="E62:U62"/>
-    <mergeCell ref="T10:Z13"/>
-    <mergeCell ref="B5:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="Y62:Z62"/>
-    <mergeCell ref="T21:Z24"/>
-    <mergeCell ref="T32:Z35"/>
-    <mergeCell ref="T43:Z46"/>
-    <mergeCell ref="T54:Z57"/>
-    <mergeCell ref="T65:Z68"/>
-    <mergeCell ref="B16:Z17"/>
     <mergeCell ref="B27:Z28"/>
     <mergeCell ref="B38:Z39"/>
     <mergeCell ref="B49:Z50"/>
-    <mergeCell ref="B60:Z61"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E7:U7"/>
+    <mergeCell ref="B5:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C13:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="3" max="3" width="51.5546875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="3:3">
+      <c r="C13" s="7">
+        <v>4.1029598277810499E+18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="7">
+        <v>4.5751844712808699E+18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="7">
+        <f>C14-C13</f>
+        <v>4.7222464349982003E+17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/scenarios/Rebalance_Test.xlsx
+++ b/test/scenarios/Rebalance_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="67">
   <si>
     <t>Table 1</t>
   </si>
@@ -219,13 +219,16 @@
   <si>
     <t>Uniswap Tick Goes Out Of Bounds</t>
   </si>
+  <si>
+    <t>Excess Ignore</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1391,439 +1394,439 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="8" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2988,4130 +2991,4176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R34" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54:Z57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N31" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" style="145" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" style="145" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="122.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="65" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.33203125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="25.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="29" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="31.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="25.21875" style="145" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" style="7" customWidth="1"/>
-    <col min="28" max="16384" width="16.33203125" style="7"/>
+    <col min="1" max="1" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" style="95" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="122.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="65" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="25.21875" style="95" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.6" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9">
         <v>0.1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <f>1-B3</f>
         <v>0.9</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
     </row>
     <row r="4" spans="1:26" ht="22.2" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="135"/>
+      <c r="B5" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="31"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="144"/>
     </row>
     <row r="6" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="134"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="23">
         <f>0.81*B9</f>
         <v>2478.8885145732479</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="24">
         <f>B9/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="39" t="s">
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="W7" s="40">
+      <c r="W7" s="23">
         <f>0.81*V9</f>
         <v>2495.0885147100003</v>
       </c>
-      <c r="X7" s="41">
+      <c r="X7" s="24">
         <f>V9/0.81</f>
         <v>3802.9088777777774</v>
       </c>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="45"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="47" t="s">
+      <c r="P8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="47" t="s">
+      <c r="Q8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="47" t="s">
+      <c r="R8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="47" t="s">
+      <c r="S8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="47" t="s">
+      <c r="T8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="47" t="s">
+      <c r="U8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="49" t="s">
+      <c r="V8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="47" t="s">
+      <c r="W8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="47" t="s">
+      <c r="X8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="48" t="s">
+      <c r="Y8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="50" t="s">
+      <c r="Z8" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="39.9" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52">
+      <c r="A9" s="101"/>
+      <c r="B9" s="30">
         <f>3060.35619083117</f>
         <v>3060.3561908311699</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="31">
         <f>IF((LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C11*C11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="31">
         <f>IF((LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D11*D11*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="31">
         <f>E11*$B$3*10^-18</f>
         <v>0.32678720746753703</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="31">
         <f>F11*$B$3*10^-6</f>
         <v>1000</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="32">
         <f>((G11/E11)-(E9/E11))*10^18</f>
         <v>1.3327237657696459E-3</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="32">
         <f>((H11/F11)-(F9/F11))*10^6</f>
         <v>6.9885267298091581E-4</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="31">
         <f>E11*$C$3*10^-18</f>
         <v>2.9410848672078331</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="31">
         <f>F11*$C$3*10^-6</f>
         <v>9000</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="31">
         <f>E9+I9+M9</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="31">
         <f>F9+J9+N9</f>
         <v>10000</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="31">
         <v>0</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="31">
         <v>0</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="31">
         <v>3060.3561908311699</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="31">
         <f>IF(S12&lt;0,ABS(S12)/O9,0)</f>
         <v>1.3924503612502514E-4</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="31">
         <f>IF(S12&gt;0,S12,0)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="53">
+      <c r="R9" s="31">
         <f>R12</f>
         <v>3.2677328296392449</v>
       </c>
-      <c r="S9" s="53">
+      <c r="S9" s="31">
         <f>R13</f>
         <v>10000.426139408348</v>
       </c>
-      <c r="T9" s="53">
+      <c r="T9" s="31">
         <f>R9*$B$3</f>
         <v>0.32677328296392449</v>
       </c>
-      <c r="U9" s="53">
+      <c r="U9" s="31">
         <f>S9*$B$3</f>
         <v>1000.0426139408348</v>
       </c>
-      <c r="V9" s="53">
+      <c r="V9" s="31">
         <v>3080.3561909999999</v>
       </c>
-      <c r="W9" s="53">
+      <c r="W9" s="31">
         <f>IF((LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C13*C13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198120</v>
       </c>
-      <c r="X9" s="53">
+      <c r="X9" s="31">
         <f>IF((LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D13*D13*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193860</v>
       </c>
-      <c r="Y9" s="54">
+      <c r="Y9" s="32">
         <f>(G13/T9)-1</f>
         <v>4.537896358105975E-3</v>
       </c>
-      <c r="Z9" s="55">
+      <c r="Z9" s="33">
         <f>(H13/U9)-1</f>
         <v>9.3004464492894012E-3</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="58" t="s">
+      <c r="L10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="62" t="s">
+      <c r="O10" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="68"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="109"/>
     </row>
     <row r="11" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="69">
+      <c r="A11" s="96"/>
+      <c r="B11" s="39">
         <f>SQRT(B9*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="40">
         <f>B11-$B$3*F11*POWER(2,96)/L11</f>
         <v>3.9446464222611696E+24</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="40">
         <f>M11*B11/N11</f>
         <v>4.8699799860470599E+24</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="41">
         <f t="shared" ref="E11:E66" si="0">3267872074675370000</f>
         <v>3.26787207467537E+18</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="41">
         <f>10000000000</f>
         <v>10000000000</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="42">
         <f>(M11-(M11*B11)/(SQRT(1/(1.0001^D9)*2^96*2^96/10^6)*10^3))/B11/10^18</f>
         <v>0.33114237824495185</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="42">
         <f>(B11-(SQRT(1/(1.0001^C9)*2^96*2^96)))*L11/POWER(2,96)/10^6</f>
         <v>1006.9885267298091</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="40">
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="40">
         <f>(E11)*(B11*I11)/POWER(2,96)/(I11-B11)</f>
         <v>180780271934442</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="40">
         <f>(F11)*POWER(2,96)/(B11-0)</f>
         <v>180764861105000.91</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="40">
         <f>MIN(J11,K11)</f>
         <v>180764861105000.91</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="40">
         <f>L11*POWER(2,96)</f>
         <v>1.4321667792495432E+43</v>
       </c>
-      <c r="N11" s="73">
+      <c r="N11" s="43">
         <f>M11-($B$3*E11)*B11</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O11" s="74" t="s">
+      <c r="O11" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="74" t="s">
+      <c r="P11" s="108"/>
+      <c r="Q11" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="75" t="s">
+      <c r="R11" s="108"/>
+      <c r="S11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="76"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="68"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="78">
+      <c r="P12" s="45">
         <f>K9</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="Q12" s="79">
+      <c r="Q12" s="46">
         <f>P12*O9</f>
         <v>10000.852534577069</v>
       </c>
-      <c r="R12" s="80">
+      <c r="R12" s="47">
         <f>P12+(S12/O9)</f>
         <v>3.2677328296392449</v>
       </c>
-      <c r="S12" s="80">
+      <c r="S12" s="47">
         <f>(P13-Q12)/2*(1-0.0003)</f>
         <v>-0.42613940834773056</v>
       </c>
-      <c r="T12" s="76"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="68"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="109"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82">
+      <c r="A13" s="97"/>
+      <c r="B13" s="48">
         <f>SQRT(V9*10^6/10^18)*2^96</f>
         <v>4.3972388145443278E+24</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="49">
         <f>B13-$B$3*F13*POWER(2,96)/L13</f>
         <v>3.9575149330898948E+24</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="49">
         <f>M13*B13/N13</f>
         <v>4.8893712474444639E+24</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="49">
         <f>R9*10^18</f>
         <v>3.2677328296392448E+18</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="49">
         <f>S9*10^6</f>
         <v>10000426139.408348</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="50">
         <f>(M13-(M13*B13)/(SQRT(1/(1.0001^X9)*2^96*2^96/10^6)*10^3))/B13/10^18</f>
         <v>0.3282561462546128</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="50">
         <f>(B13-(SQRT(1/(1.0001^W9)*2^96*2^96)))*L13/POWER(2,96)/10^6</f>
         <v>1009.343456718799</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="49">
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="49">
         <f>(E13)*(B13*I13)/POWER(2,96)/(I13-B13)</f>
         <v>181362298178547.81</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="49">
         <f>(F13)*POWER(2,96)/(B13-0)</f>
         <v>180184752477913.09</v>
       </c>
-      <c r="L13" s="83">
+      <c r="L13" s="49">
         <f>MIN(J13,K13)</f>
         <v>180184752477913.09</v>
       </c>
-      <c r="M13" s="83">
+      <c r="M13" s="49">
         <f>L13*POWER(2,96)</f>
         <v>1.4275706851912592E+43</v>
       </c>
-      <c r="N13" s="85">
+      <c r="N13" s="51">
         <f>M13-(0.1*E13)*B13</f>
         <v>1.2838806688507547E+43</v>
       </c>
-      <c r="O13" s="86" t="s">
+      <c r="O13" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="87">
+      <c r="P13" s="53">
         <f>L9</f>
         <v>10000</v>
       </c>
-      <c r="Q13" s="88">
+      <c r="Q13" s="54">
         <f>P13/O9</f>
         <v>3.2675935010310271</v>
       </c>
-      <c r="R13" s="89">
+      <c r="R13" s="55">
         <f>P13-S12</f>
         <v>10000.426139408348</v>
       </c>
-      <c r="S13" s="90"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="95"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="117"/>
     </row>
     <row r="14" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A14" s="96"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
     </row>
     <row r="15" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
     </row>
     <row r="16" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="102"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="126"/>
     </row>
     <row r="17" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="104"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="127"/>
     </row>
     <row r="18" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="23">
         <f>0.81*B20</f>
         <v>2478.8885145732479</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="24">
         <f>B20/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="39" t="s">
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="40">
+      <c r="W18" s="23">
         <f>0.81*V20</f>
         <v>2478.88851471</v>
       </c>
-      <c r="X18" s="41">
+      <c r="X18" s="24">
         <f>V20/0.81</f>
         <v>3778.217519753086</v>
       </c>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="45"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="119"/>
     </row>
     <row r="19" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="49" t="s">
+      <c r="O19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="47" t="s">
+      <c r="P19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="47" t="s">
+      <c r="Q19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="47" t="s">
+      <c r="R19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="47" t="s">
+      <c r="S19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="T19" s="47" t="s">
+      <c r="T19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="U19" s="47" t="s">
+      <c r="U19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="V19" s="49" t="s">
+      <c r="V19" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="47" t="s">
+      <c r="W19" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X19" s="47" t="s">
+      <c r="X19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Y19" s="48" t="s">
+      <c r="Y19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Z19" s="50" t="s">
+      <c r="Z19" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="40.5" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52">
-        <f t="shared" ref="B9:B53" si="1">3060.35619083117</f>
+      <c r="A20" s="101"/>
+      <c r="B20" s="30">
+        <f t="shared" ref="B20:B53" si="1">3060.35619083117</f>
         <v>3060.3561908311699</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="31">
         <f>IF((LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C22*C22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="31">
         <f>IF((LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D22*D22*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="31">
         <f>E22*$B$3*10^-18</f>
         <v>0.32678720746753703</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="31">
         <f>F22*$B$3*10^-6</f>
         <v>1000</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="32">
         <f>((G22/E22)-(E20/E22))*10^18</f>
         <v>1.3327237657696459E-3</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="32">
         <f>((H22/F22)-(F20/F22))*10^6</f>
         <v>6.9885267298091581E-4</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="31">
         <f>E22*$C$3*10^-18</f>
         <v>2.9410848672078331</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="31">
         <f>F22*$C$3*10^-6</f>
         <v>9000</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="31">
         <f>E20+I20+M20</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="31">
         <f>F20+J20+N20</f>
         <v>15112.241467</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="31">
         <v>0</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="31">
         <v>5112.2414669999998</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="31">
         <v>3060.3561909999999</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="31">
         <f>IF(S23&lt;0,ABS(S23)/O20,0)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="53">
+      <c r="Q20" s="31">
         <f>IF(S23&gt;0,S23,0)</f>
         <v>2554.9277575958281</v>
       </c>
-      <c r="R20" s="53">
+      <c r="R20" s="31">
         <f>R23</f>
         <v>4.1027186082617044</v>
       </c>
-      <c r="S20" s="53">
+      <c r="S20" s="31">
         <f>R24</f>
         <v>12557.313709404172</v>
       </c>
-      <c r="T20" s="53">
+      <c r="T20" s="31">
         <f>R20*$B$3</f>
         <v>0.41027186082617045</v>
       </c>
-      <c r="U20" s="53">
+      <c r="U20" s="31">
         <f>S20*$B$3</f>
         <v>1255.7313709404173</v>
       </c>
-      <c r="V20" s="53">
+      <c r="V20" s="31">
         <v>3060.3561909999999</v>
       </c>
-      <c r="W20" s="53">
+      <c r="W20" s="31">
         <f>IF((LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C24*C24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="X20" s="53">
+      <c r="X20" s="31">
         <f>IF((LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D24*D24*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="Y20" s="54">
+      <c r="Y20" s="32">
         <f>(G24/T20)-1</f>
         <v>1.3413627060614663E-2</v>
       </c>
-      <c r="Z20" s="55">
+      <c r="Z20" s="33">
         <f>(H24/U20)-1</f>
         <v>6.8655601523872622E-3</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="58" t="s">
+      <c r="I21" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="58" t="s">
+      <c r="L21" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="61" t="s">
+      <c r="N21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="62" t="s">
+      <c r="O21" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="68"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="109"/>
     </row>
     <row r="22" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="69">
+      <c r="A22" s="96"/>
+      <c r="B22" s="39">
         <f>SQRT(B20*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="40">
         <f>B22-$B$3*F22*POWER(2,96)/L22</f>
         <v>3.9446464222611696E+24</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="40">
         <f>M22*B22/N22</f>
         <v>4.8699799860470599E+24</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="41">
         <f t="shared" si="0"/>
         <v>3.26787207467537E+18</v>
       </c>
-      <c r="F22" s="71">
-        <f t="shared" ref="F11:F66" si="2">10000000000</f>
+      <c r="F22" s="41">
+        <f t="shared" ref="F22:F66" si="2">10000000000</f>
         <v>10000000000</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="42">
         <f>(M22-(M22*B22)/(SQRT(1/(1.0001^D20)*2^96*2^96/10^6)*10^3))/B22/10^18</f>
         <v>0.33114237824495185</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="42">
         <f>(B22-(SQRT(1/(1.0001^C20)*2^96*2^96)))*L22/POWER(2,96)/10^6</f>
         <v>1006.9885267298091</v>
       </c>
-      <c r="I22" s="70">
+      <c r="I22" s="40">
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="J22" s="70">
+      <c r="J22" s="40">
         <f>(E22)*(B22*I22)/POWER(2,96)/(I22-B22)</f>
         <v>180780271934442</v>
       </c>
-      <c r="K22" s="70">
+      <c r="K22" s="40">
         <f>(F22)*POWER(2,96)/(B22-0)</f>
         <v>180764861105000.91</v>
       </c>
-      <c r="L22" s="70">
+      <c r="L22" s="40">
         <f>MIN(J22,K22)</f>
         <v>180764861105000.91</v>
       </c>
-      <c r="M22" s="70">
+      <c r="M22" s="40">
         <f>L22*POWER(2,96)</f>
         <v>1.4321667792495432E+43</v>
       </c>
-      <c r="N22" s="73">
+      <c r="N22" s="43">
         <f>M22-(0.1*E22)*B22</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O22" s="74" t="s">
+      <c r="O22" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="74" t="s">
+      <c r="P22" s="108"/>
+      <c r="Q22" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="65"/>
-      <c r="S22" s="75" t="s">
+      <c r="R22" s="108"/>
+      <c r="S22" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="76"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="68"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="109"/>
     </row>
     <row r="23" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="58" t="s">
+      <c r="K23" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="58" t="s">
+      <c r="L23" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="61" t="s">
+      <c r="N23" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="57" t="s">
+      <c r="O23" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="78">
+      <c r="P23" s="45">
         <f>K20</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="Q23" s="79">
+      <c r="Q23" s="46">
         <f>P23*O20</f>
         <v>10000.852535128783</v>
       </c>
-      <c r="R23" s="80">
+      <c r="R23" s="47">
         <f>P23+(S23/O20)</f>
         <v>4.1027186082617044</v>
       </c>
-      <c r="S23" s="80">
+      <c r="S23" s="47">
         <f>(P24-Q23)/2*(1-0.0003)</f>
         <v>2554.9277575958281</v>
       </c>
-      <c r="T23" s="76"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="68"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="109"/>
     </row>
     <row r="24" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82">
+      <c r="A24" s="97"/>
+      <c r="B24" s="48">
         <f>SQRT(V20*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="49">
         <f>B24-$B$3*F24*POWER(2,96)/L24</f>
         <v>3.9445928942429745E+24</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="49">
         <f>M24*B24/N24</f>
         <v>4.8699338547777479E+24</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="49">
         <f>R20*10^18</f>
         <v>4.1027186082617042E+18</v>
       </c>
-      <c r="F24" s="83">
+      <c r="F24" s="49">
         <f>S20*10^6</f>
         <v>12557313709.404173</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="50">
         <f>(M24-(M24*B24)/(SQRT(1/(1.0001^X20)*2^96*2^96/10^6)*10^3))/B24/10^18</f>
         <v>0.41577509456075712</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="50">
         <f>(B24-(SQRT(1/(1.0001^W20)*2^96*2^96)))*L24/POWER(2,96)/10^6</f>
         <v>1264.3526702028485</v>
       </c>
-      <c r="I24" s="83">
+      <c r="I24" s="49">
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="J24" s="83">
+      <c r="J24" s="49">
         <f>(E24)*(B24*I24)/POWER(2,96)/(I24-B24)</f>
         <v>226964388061666.72</v>
       </c>
-      <c r="K24" s="83">
+      <c r="K24" s="49">
         <f>(F24)*POWER(2,96)/(B24-0)</f>
         <v>226992106846975.69</v>
       </c>
-      <c r="L24" s="83">
+      <c r="L24" s="49">
         <f>MIN(J24,K24)</f>
         <v>226964388061666.72</v>
       </c>
-      <c r="M24" s="83">
+      <c r="M24" s="49">
         <f>L24*POWER(2,96)</f>
         <v>1.7981971422300287E+43</v>
       </c>
-      <c r="N24" s="85">
+      <c r="N24" s="51">
         <f>M24-(0.1*E24)*B24</f>
         <v>1.618377428007026E+43</v>
       </c>
-      <c r="O24" s="86" t="s">
+      <c r="O24" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="P24" s="87">
+      <c r="P24" s="53">
         <f>L20</f>
         <v>15112.241467</v>
       </c>
-      <c r="Q24" s="88">
+      <c r="Q24" s="54">
         <f>P24/O20</f>
         <v>4.9380662000856619</v>
       </c>
-      <c r="R24" s="89">
+      <c r="R24" s="55">
         <f>P24-S23</f>
         <v>12557.313709404172</v>
       </c>
-      <c r="S24" s="90"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="95"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="117"/>
     </row>
     <row r="25" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A25" s="96"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
     </row>
     <row r="26" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
     </row>
     <row r="27" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="102"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="126"/>
     </row>
     <row r="28" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A28" s="103"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="104"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="127"/>
     </row>
     <row r="29" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39" t="s">
+      <c r="A29" s="100"/>
+      <c r="B29" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="23">
         <f>0.81*B31</f>
         <v>2478.8885145732479</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="24">
         <f>B31/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="39" t="s">
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="40">
+      <c r="W29" s="23">
         <f>0.81*V31</f>
         <v>2478.88851471</v>
       </c>
-      <c r="X29" s="41">
+      <c r="X29" s="24">
         <f>V31/0.81</f>
         <v>3778.217519753086</v>
       </c>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="45"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="119"/>
     </row>
     <row r="30" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="46" t="s">
+      <c r="A30" s="100"/>
+      <c r="B30" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="47" t="s">
+      <c r="L30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="47" t="s">
+      <c r="M30" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="47" t="s">
+      <c r="N30" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O30" s="49" t="s">
+      <c r="O30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="47" t="s">
+      <c r="P30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="47" t="s">
+      <c r="Q30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="47" t="s">
+      <c r="R30" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S30" s="47" t="s">
+      <c r="S30" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="T30" s="47" t="s">
+      <c r="T30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="47" t="s">
+      <c r="U30" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="V30" s="49" t="s">
+      <c r="V30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W30" s="47" t="s">
+      <c r="W30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X30" s="47" t="s">
+      <c r="X30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Y30" s="48" t="s">
+      <c r="Y30" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Z30" s="50" t="s">
+      <c r="Z30" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="40.35" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52">
+      <c r="A31" s="101"/>
+      <c r="B31" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="31">
         <f>IF((LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C33*C33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="31">
         <f>IF((LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D33*D33*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193680</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="31">
         <f>E33*$B$3*10^-18</f>
         <v>0.45751844712808709</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="31">
         <f>F33*$B$3*10^-6</f>
         <v>1254.8849952</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="32">
         <f>((G33/E33)-(E31/E33))*10^18</f>
         <v>4.3268556662353643E-4</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="32">
         <f>((H33/F33)-(F31/F33))*10^6</f>
         <v>6.9885267298090247E-4</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="31">
         <f>E33*$C$3*10^-18</f>
         <v>4.1176660241527827</v>
       </c>
-      <c r="J31" s="53">
+      <c r="J31" s="31">
         <f>F33*$C$3*10^-6</f>
         <v>11293.9649568</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="31">
         <f>E33/1000000000000000000</f>
         <v>4.5751844712808696</v>
       </c>
-      <c r="L31" s="53">
+      <c r="L31" s="31">
         <f>F31+J31+N31</f>
         <v>12548.849952</v>
       </c>
-      <c r="M31" s="53">
+      <c r="M31" s="31">
         <f>472224643499820000/1000000000000000000</f>
         <v>0.47222464349982002</v>
       </c>
-      <c r="N31" s="53">
+      <c r="N31" s="31">
         <v>0</v>
       </c>
-      <c r="O31" s="53">
+      <c r="O31" s="31">
         <v>3060.3561909999999</v>
       </c>
-      <c r="P31" s="53">
+      <c r="P31" s="31">
         <f>IF(S34&lt;0,ABS(S34)/O31,0)</f>
         <v>0.23729399876260576</v>
       </c>
-      <c r="Q31" s="53">
+      <c r="Q31" s="31">
         <f>IF(S34&gt;0,S34,0)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="53">
+      <c r="R31" s="31">
         <f>R34</f>
         <v>4.3378904725182634</v>
       </c>
-      <c r="S31" s="53">
+      <c r="S31" s="31">
         <f>R35</f>
         <v>13275.054110200288</v>
       </c>
-      <c r="T31" s="53">
+      <c r="T31" s="31">
         <f>R31*$B$3</f>
         <v>0.43378904725182638</v>
       </c>
-      <c r="U31" s="53">
+      <c r="U31" s="31">
         <f>S31*$B$3</f>
         <v>1327.505411020029</v>
       </c>
-      <c r="V31" s="53">
+      <c r="V31" s="31">
         <v>3060.3561909999999</v>
       </c>
-      <c r="W31" s="53">
+      <c r="W31" s="31">
         <f>IF((LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C35*C35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="X31" s="53">
+      <c r="X31" s="31">
         <f>IF((LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D35*D35*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="Y31" s="54">
+      <c r="Y31" s="32">
         <f>(G35/T31)-1</f>
         <v>1.3380355247289977E-2</v>
       </c>
-      <c r="Z31" s="55">
+      <c r="Z31" s="33">
         <f>(H35/U31)-1</f>
         <v>6.9885269778668935E-3</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="58" t="s">
+      <c r="I32" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="58" t="s">
+      <c r="K32" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="58" t="s">
+      <c r="L32" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M32" s="58" t="s">
+      <c r="M32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="61" t="s">
+      <c r="N32" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="62" t="s">
+      <c r="O32" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="68"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="109"/>
     </row>
     <row r="33" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="69">
+      <c r="A33" s="96"/>
+      <c r="B33" s="39">
         <f>SQRT(B31*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="40">
         <f>B33-$B$3*F33*POWER(2,96)/L33</f>
         <v>3.9446464222611696E+24</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="40">
         <f>M33*B33/N33</f>
         <v>4.9333965664703124E+24</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="41">
         <f>4575184471280870000</f>
         <v>4.5751844712808699E+18</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="41">
         <f>12548849952</f>
         <v>12548849952</v>
       </c>
-      <c r="G33" s="72">
+      <c r="G33" s="42">
         <f>(M33-(M33*B33)/(SQRT(1/(1.0001^D31)*2^96*2^96/10^6)*10^3))/B33/10^18</f>
         <v>0.45949806341345045</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="42">
         <f>(B33-(SQRT(1/(1.0001^C31)*2^96*2^96)))*L33/POWER(2,96)/10^6</f>
         <v>1263.6547925317916</v>
       </c>
-      <c r="I33" s="70">
+      <c r="I33" s="40">
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="J33" s="70">
+      <c r="J33" s="40">
         <f>(E33)*(B33*I33)/POWER(2,96)/(I33-B33)</f>
         <v>253101429299540.81</v>
       </c>
-      <c r="K33" s="70">
+      <c r="K33" s="40">
         <f>(F33)*POWER(2,96)/(B33-0)</f>
         <v>226839111860077.72</v>
       </c>
-      <c r="L33" s="70">
+      <c r="L33" s="40">
         <f>MIN(J33,K33)</f>
         <v>226839111860077.72</v>
       </c>
-      <c r="M33" s="70">
+      <c r="M33" s="40">
         <f>L33*POWER(2,96)</f>
         <v>1.7972046019041624E+43</v>
       </c>
-      <c r="N33" s="73">
+      <c r="N33" s="43">
         <f>M33-(0.1*E33)*B33</f>
         <v>1.5966769901727963E+43</v>
       </c>
-      <c r="O33" s="74" t="s">
+      <c r="O33" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="74" t="s">
+      <c r="P33" s="108"/>
+      <c r="Q33" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="65"/>
-      <c r="S33" s="75" t="s">
+      <c r="R33" s="108"/>
+      <c r="S33" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="76"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="68"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="109"/>
     </row>
     <row r="34" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="60" t="s">
+      <c r="H34" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="58" t="s">
+      <c r="J34" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="58" t="s">
+      <c r="K34" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="58" t="s">
+      <c r="L34" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="58" t="s">
+      <c r="M34" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="61" t="s">
+      <c r="N34" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="57" t="s">
+      <c r="O34" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P34" s="78">
+      <c r="P34" s="45">
         <f>K31</f>
         <v>4.5751844712808696</v>
       </c>
-      <c r="Q34" s="79">
+      <c r="Q34" s="46">
         <f>P34*O31</f>
         <v>14001.69412165147</v>
       </c>
-      <c r="R34" s="80">
+      <c r="R34" s="47">
         <f>P34+(S34/O31)</f>
         <v>4.3378904725182634</v>
       </c>
-      <c r="S34" s="80">
+      <c r="S34" s="47">
         <f>(P35-Q34)/2*(1-0.0003)</f>
         <v>-726.20415820028688</v>
       </c>
-      <c r="T34" s="76"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="77"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="68"/>
+      <c r="T34" s="110"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="109"/>
     </row>
     <row r="35" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A35" s="81"/>
-      <c r="B35" s="82">
+      <c r="A35" s="97"/>
+      <c r="B35" s="48">
         <f>SQRT(V31*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
       </c>
-      <c r="C35" s="83">
+      <c r="C35" s="49">
         <f>B35-$B$3*F35*POWER(2,96)/L35</f>
         <v>3.9446464223699762E+24</v>
       </c>
-      <c r="D35" s="83">
+      <c r="D35" s="49">
         <f>M35*B35/N35</f>
         <v>4.8699516206333139E+24</v>
       </c>
-      <c r="E35" s="83">
+      <c r="E35" s="49">
         <f>R31*10^18</f>
         <v>4.3378904725182633E+18</v>
       </c>
-      <c r="F35" s="83">
+      <c r="F35" s="49">
         <f>S31*10^6</f>
         <v>13275054110.200289</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="50">
         <f>(M35-(M35*B35)/(SQRT(1/(1.0001^X31)*2^96*2^96/10^6)*10^3))/B35/10^18</f>
         <v>0.43959329880643927</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="50">
         <f>(B35-(SQRT(1/(1.0001^W31)*2^96*2^96)))*L35/POWER(2,96)/10^6</f>
         <v>1336.7827183982067</v>
       </c>
-      <c r="I35" s="83">
+      <c r="I35" s="49">
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="J35" s="83">
+      <c r="J35" s="49">
         <f>(E35)*(B35*I35)/POWER(2,96)/(I35-B35)</f>
         <v>239974209927789.34</v>
       </c>
-      <c r="K35" s="83">
+      <c r="K35" s="49">
         <f>(F35)*POWER(2,96)/(B35-0)</f>
         <v>239966331232553.56</v>
       </c>
-      <c r="L35" s="83">
+      <c r="L35" s="49">
         <f>MIN(J35,K35)</f>
         <v>239966331232553.56</v>
       </c>
-      <c r="M35" s="83">
+      <c r="M35" s="49">
         <f>L35*POWER(2,96)</f>
         <v>1.901209148884454E+43</v>
       </c>
-      <c r="N35" s="85">
+      <c r="N35" s="51">
         <f>M35-(0.1*E35)*B35</f>
         <v>1.7110819918505431E+43</v>
       </c>
-      <c r="O35" s="86" t="s">
+      <c r="O35" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="P35" s="87">
+      <c r="P35" s="53">
         <f>L31</f>
         <v>12548.849952</v>
       </c>
-      <c r="Q35" s="88">
+      <c r="Q35" s="54">
         <f>P35/O31</f>
         <v>4.1004540546306627</v>
       </c>
-      <c r="R35" s="89">
+      <c r="R35" s="55">
         <f>P35-S34</f>
         <v>13275.054110200288</v>
       </c>
-      <c r="S35" s="90"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="93"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="95"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="117"/>
     </row>
     <row r="36" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="96"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
     </row>
     <row r="37" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="98"/>
-      <c r="Z37" s="98"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
     </row>
     <row r="38" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A38" s="99"/>
-      <c r="B38" s="100" t="s">
+      <c r="A38" s="98"/>
+      <c r="B38" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="102"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="120"/>
+      <c r="X38" s="120"/>
+      <c r="Y38" s="125"/>
+      <c r="Z38" s="126"/>
     </row>
     <row r="39" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A39" s="103"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="104"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="103"/>
+      <c r="X39" s="103"/>
+      <c r="Y39" s="120"/>
+      <c r="Z39" s="127"/>
     </row>
     <row r="40" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="100"/>
+      <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="23">
         <f>0.81*B42</f>
         <v>2478.8885145732479</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="24">
         <f>B42/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="39" t="s">
+      <c r="E40" s="102"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="W40" s="40">
+      <c r="W40" s="23">
         <f>0.81*V42</f>
         <v>2478.88851471</v>
       </c>
-      <c r="X40" s="41">
+      <c r="X40" s="24">
         <f>V42/0.81</f>
         <v>3778.217519753086</v>
       </c>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="45"/>
+      <c r="Y40" s="118"/>
+      <c r="Z40" s="119"/>
     </row>
     <row r="41" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A41" s="38"/>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="100"/>
+      <c r="B41" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J41" s="47" t="s">
+      <c r="J41" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="47" t="s">
+      <c r="K41" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="47" t="s">
+      <c r="L41" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="47" t="s">
+      <c r="M41" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="47" t="s">
+      <c r="N41" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O41" s="49" t="s">
+      <c r="O41" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P41" s="47" t="s">
+      <c r="P41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="47" t="s">
+      <c r="Q41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="47" t="s">
+      <c r="R41" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S41" s="47" t="s">
+      <c r="S41" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="T41" s="47" t="s">
+      <c r="T41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="U41" s="47" t="s">
+      <c r="U41" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="V41" s="49" t="s">
+      <c r="V41" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W41" s="47" t="s">
+      <c r="W41" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X41" s="47" t="s">
+      <c r="X41" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Y41" s="48" t="s">
+      <c r="Y41" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Z41" s="50" t="s">
+      <c r="Z41" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="40.799999999999997" customHeight="1">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52">
+      <c r="A42" s="101"/>
+      <c r="B42" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="31">
         <f>IF((LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C44*C44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="31">
         <f>IF((LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D44*D44*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="31">
         <f>E44*$B$3*10^-18</f>
-        <v>0.32678720746753703</v>
-      </c>
-      <c r="F42" s="53">
+        <v>0.433706030687594</v>
+      </c>
+      <c r="F42" s="31">
         <f>F44*$B$3*10^-6</f>
-        <v>1000</v>
-      </c>
-      <c r="G42" s="54">
+        <v>1327.5421971999999</v>
+      </c>
+      <c r="G42" s="32">
         <f>((G44/E44)-(E42/E44))*10^18</f>
-        <v>1.3327237657696459E-3</v>
-      </c>
-      <c r="H42" s="54">
+        <v>1.3413627308494411E-3</v>
+      </c>
+      <c r="H42" s="32">
         <f>((H44/F44)-(F42/F44))*10^6</f>
-        <v>6.9885267298091581E-4</v>
-      </c>
-      <c r="I42" s="53">
+        <v>6.800970224012401E-4</v>
+      </c>
+      <c r="I42" s="31">
         <f>E44*$C$3*10^-18</f>
-        <v>2.9410848672078331</v>
-      </c>
-      <c r="J42" s="53">
+        <v>3.9033542761883462</v>
+      </c>
+      <c r="J42" s="31">
         <f>F44*$C$3*10^-6</f>
-        <v>9000</v>
-      </c>
-      <c r="K42" s="53">
-        <f>E42+I42+M42</f>
-        <v>3.26787207467537</v>
-      </c>
-      <c r="L42" s="53">
-        <f>F42+J42+N42</f>
-        <v>7900</v>
-      </c>
-      <c r="M42" s="53">
+        <v>11947.8797748</v>
+      </c>
+      <c r="K42" s="31">
+        <f>4.33706030687594</f>
+        <v>4.3370603068759399</v>
+      </c>
+      <c r="L42" s="31">
+        <f>13253.625347</f>
+        <v>13253.625346999999</v>
+      </c>
+      <c r="M42" s="31">
         <v>0</v>
       </c>
-      <c r="N42" s="53">
-        <v>-2100</v>
-      </c>
-      <c r="O42" s="53">
+      <c r="N42" s="31">
+        <f>L42-F44/1000000</f>
+        <v>-21.796625000000859</v>
+      </c>
+      <c r="O42" s="31">
         <v>3060.3561909999999</v>
       </c>
-      <c r="P42" s="53">
+      <c r="P42" s="31">
         <f>IF(S45&lt;0,ABS(S45)/O42,0)</f>
-        <v>0.34313363352028264</v>
-      </c>
-      <c r="Q42" s="53">
+        <v>3.1562039642294096E-3</v>
+      </c>
+      <c r="Q42" s="31">
         <f>IF(S45&gt;0,S45,0)</f>
         <v>0</v>
       </c>
-      <c r="R42" s="53">
-        <f>R45</f>
-        <v>2.9247384411550872</v>
-      </c>
-      <c r="S42" s="53">
-        <f>R46</f>
-        <v>8950.1111396841225</v>
-      </c>
-      <c r="T42" s="53">
+      <c r="R42" s="31">
+        <f>P45</f>
+        <v>4.3370603068759399</v>
+      </c>
+      <c r="S42" s="31">
+        <f>P46</f>
+        <v>13253.625346999999</v>
+      </c>
+      <c r="T42" s="31">
         <f>R42*$B$3</f>
-        <v>0.29247384411550875</v>
-      </c>
-      <c r="U42" s="53">
+        <v>0.433706030687594</v>
+      </c>
+      <c r="U42" s="31">
         <f>S42*$B$3</f>
-        <v>895.01111396841225</v>
-      </c>
-      <c r="V42" s="53">
+        <v>1325.3625347</v>
+      </c>
+      <c r="V42" s="31">
         <v>3060.3561909999999</v>
       </c>
-      <c r="W42" s="53">
+      <c r="W42" s="31">
         <f>IF((LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C46*C46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>198180</v>
       </c>
-      <c r="X42" s="53">
+      <c r="X42" s="31">
         <f>IF((LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D46*D46*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
         <v>193920</v>
       </c>
-      <c r="Y42" s="54">
+      <c r="Y42" s="32">
         <f>(G46/T42)-1</f>
-        <v>1.3342268750943909E-2</v>
-      </c>
-      <c r="Z42" s="55">
+        <v>1.1938203741252984E-2</v>
+      </c>
+      <c r="Z42" s="33">
         <f>(H46/U42)-1</f>
-        <v>6.9885269778666714E-3</v>
+        <v>6.9885269778668935E-3</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="59" t="s">
+      <c r="F43" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="H43" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="58" t="s">
+      <c r="I43" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J43" s="58" t="s">
+      <c r="J43" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="58" t="s">
+      <c r="K43" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="58" t="s">
+      <c r="L43" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M43" s="58" t="s">
+      <c r="M43" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N43" s="61" t="s">
+      <c r="N43" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O43" s="62" t="s">
+      <c r="O43" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="68"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="131"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="109"/>
     </row>
     <row r="44" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A44" s="56"/>
-      <c r="B44" s="69">
+      <c r="A44" s="96"/>
+      <c r="B44" s="39">
         <f>SQRT(B42*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="40">
         <f>B44-$B$3*F44*POWER(2,96)/L44</f>
+        <v>3.9445647726577399E+24</v>
+      </c>
+      <c r="D44" s="40">
+        <f>M44*B44/N44</f>
+        <v>4.8699338546434195E+24</v>
+      </c>
+      <c r="E44" s="41">
+        <f>4337060306875940000</f>
+        <v>4.3370603068759398E+18</v>
+      </c>
+      <c r="F44" s="41">
+        <f>13275421972</f>
+        <v>13275421972</v>
+      </c>
+      <c r="G44" s="42">
+        <f>(M44-(M44*B44)/(SQRT(1/(1.0001^D42)*2^96*2^96/10^6)*10^3))/B44/10^18</f>
+        <v>0.43952360174468386</v>
+      </c>
+      <c r="H44" s="42">
+        <f>(B44-(SQRT(1/(1.0001^C42)*2^96*2^96)))*L44/POWER(2,96)/10^6</f>
+        <v>1336.5707721542772</v>
+      </c>
+      <c r="I44" s="40">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J44" s="40">
+        <f>(E44)*(B44*I44)/POWER(2,96)/(I44-B44)</f>
+        <v>239928284754229.5</v>
+      </c>
+      <c r="K44" s="40">
+        <f>(F44)*POWER(2,96)/(B44-0)</f>
+        <v>239972980887885.72</v>
+      </c>
+      <c r="L44" s="40">
+        <f>MIN(J44,K44)</f>
+        <v>239928284754229.5</v>
+      </c>
+      <c r="M44" s="40">
+        <f>L44*POWER(2,96)</f>
+        <v>1.9009077136276785E+43</v>
+      </c>
+      <c r="N44" s="43">
+        <f>M44-(0.1*E44)*B44</f>
+        <v>1.7108169422649108E+43</v>
+      </c>
+      <c r="O44" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="R44" s="108"/>
+      <c r="S44" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="T44" s="110"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="112"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="109"/>
+    </row>
+    <row r="45" spans="1:26" ht="20.85" customHeight="1">
+      <c r="A45" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O45" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="45">
+        <f>K42</f>
+        <v>4.3370603068759399</v>
+      </c>
+      <c r="Q45" s="46">
+        <f>P45*O42</f>
+        <v>13272.949360888142</v>
+      </c>
+      <c r="R45" s="47">
+        <f>P45+(S45/O42)</f>
+        <v>4.3339041029117107</v>
+      </c>
+      <c r="S45" s="47">
+        <f>(P46-Q45)/2*(1-0.0003)</f>
+        <v>-9.6591083419882153</v>
+      </c>
+      <c r="T45" s="110"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="109"/>
+    </row>
+    <row r="46" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A46" s="97"/>
+      <c r="B46" s="48">
+        <f>SQRT(V42*10^6/10^18)*2^96</f>
+        <v>4.3829404692999735E+24</v>
+      </c>
+      <c r="C46" s="49">
+        <f>B46-$B$3*F46*POWER(2,96)/L46</f>
+        <v>3.9446464223699762E+24</v>
+      </c>
+      <c r="D46" s="49">
+        <f>M46*B46/N46</f>
+        <v>4.8707229212064129E+24</v>
+      </c>
+      <c r="E46" s="49">
+        <f>R42*10^18</f>
+        <v>4.3370603068759398E+18</v>
+      </c>
+      <c r="F46" s="49">
+        <f>S42*10^6</f>
+        <v>13253625347</v>
+      </c>
+      <c r="G46" s="50">
+        <f>(M46-(M46*B46)/(SQRT(1/(1.0001^X42)*2^96*2^96/10^6)*10^3))/B46/10^18</f>
+        <v>0.43888370164575258</v>
+      </c>
+      <c r="H46" s="50">
+        <f>(B46-(SQRT(1/(1.0001^W42)*2^96*2^96)))*L46/POWER(2,96)/10^6</f>
+        <v>1334.6248665292051</v>
+      </c>
+      <c r="I46" s="49">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J46" s="49">
+        <f>(E46)*(B46*I46)/POWER(2,96)/(I46-B46)</f>
+        <v>239928284760847.5</v>
+      </c>
+      <c r="K46" s="49">
+        <f>(F46)*POWER(2,96)/(B46-0)</f>
+        <v>239578974492209.03</v>
+      </c>
+      <c r="L46" s="49">
+        <f>MIN(J46,K46)</f>
+        <v>239578974492209.03</v>
+      </c>
+      <c r="M46" s="49">
+        <f>L46*POWER(2,96)</f>
+        <v>1.8981401926069527E+43</v>
+      </c>
+      <c r="N46" s="51">
+        <f>M46-(0.1*E46)*B46</f>
+        <v>1.7080494212389416E+43</v>
+      </c>
+      <c r="O46" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" s="53">
+        <f>L42</f>
+        <v>13253.625346999999</v>
+      </c>
+      <c r="Q46" s="54">
+        <f>P46/O42</f>
+        <v>4.3307460046568158</v>
+      </c>
+      <c r="R46" s="55">
+        <f>P46-S45</f>
+        <v>13263.284455341987</v>
+      </c>
+      <c r="S46" s="56"/>
+      <c r="T46" s="113"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="115"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="117"/>
+    </row>
+    <row r="47" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A47" s="57"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
+    </row>
+    <row r="48" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="59"/>
+    </row>
+    <row r="49" spans="1:26" ht="9.4499999999999993" customHeight="1">
+      <c r="A49" s="98"/>
+      <c r="B49" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="120"/>
+      <c r="T49" s="120"/>
+      <c r="U49" s="120"/>
+      <c r="V49" s="120"/>
+      <c r="W49" s="120"/>
+      <c r="X49" s="120"/>
+      <c r="Y49" s="125"/>
+      <c r="Z49" s="126"/>
+    </row>
+    <row r="50" spans="1:26" ht="21.9" customHeight="1">
+      <c r="A50" s="99"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="120"/>
+      <c r="Z50" s="127"/>
+    </row>
+    <row r="51" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A51" s="100"/>
+      <c r="B51" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="23">
+        <f>0.81*B53</f>
+        <v>2478.8885145732479</v>
+      </c>
+      <c r="D51" s="24">
+        <f>B53/0.81</f>
+        <v>3778.2175195446539</v>
+      </c>
+      <c r="E51" s="102"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="103"/>
+      <c r="N51" s="103"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="103"/>
+      <c r="T51" s="103"/>
+      <c r="U51" s="104"/>
+      <c r="V51" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="W51" s="23">
+        <f>0.81*V53</f>
+        <v>1267.1266938300002</v>
+      </c>
+      <c r="X51" s="24">
+        <f>V53/0.81</f>
+        <v>1931.3011641975309</v>
+      </c>
+      <c r="Y51" s="118"/>
+      <c r="Z51" s="119"/>
+    </row>
+    <row r="52" spans="1:26" ht="23.85" customHeight="1">
+      <c r="A52" s="100"/>
+      <c r="B52" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O52" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P52" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T52" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="U52" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V52" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W52" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X52" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z52" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="40.65" customHeight="1">
+      <c r="A53" s="101"/>
+      <c r="B53" s="30">
+        <f t="shared" si="1"/>
+        <v>3060.3561908311699</v>
+      </c>
+      <c r="C53" s="31">
+        <f>IF((LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
+        <v>198180</v>
+      </c>
+      <c r="D53" s="31">
+        <f>IF((LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
+        <v>193920</v>
+      </c>
+      <c r="E53" s="31">
+        <f>E55*$B$3*10^-18</f>
+        <v>0.32678720746753703</v>
+      </c>
+      <c r="F53" s="31">
+        <f>F55*$B$3*10^-6</f>
+        <v>1000</v>
+      </c>
+      <c r="G53" s="32">
+        <f>((G55/E55)-(E53/E55))*10^18</f>
+        <v>1.3327237657696459E-3</v>
+      </c>
+      <c r="H53" s="32">
+        <f>((H55/F55)-(F53/F55))*10^6</f>
+        <v>6.9885267298091581E-4</v>
+      </c>
+      <c r="I53" s="31">
+        <f>E55*$C$3*10^-18</f>
+        <v>2.9410848672078331</v>
+      </c>
+      <c r="J53" s="31">
+        <f>F55*$C$3*10^-6</f>
+        <v>9000</v>
+      </c>
+      <c r="K53" s="31">
+        <f>2.93672969643952</f>
+        <v>2.93672969643952</v>
+      </c>
+      <c r="L53" s="31">
+        <f>11127.69398</f>
+        <v>11127.69398</v>
+      </c>
+      <c r="M53" s="31">
+        <f xml:space="preserve"> - I53 - E53 + K53</f>
+        <v>-0.33114237823585002</v>
+      </c>
+      <c r="N53" s="31">
+        <f>L53-F53 -J53</f>
+        <v>1127.69398</v>
+      </c>
+      <c r="O53" s="31">
+        <v>1564.3539430000001</v>
+      </c>
+      <c r="P53" s="31">
+        <f>IF(S56&lt;0,ABS(S56)/O53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="31">
+        <f>IF(S56&gt;0,S56,0)</f>
+        <v>3265.8246085298442</v>
+      </c>
+      <c r="R53" s="31">
+        <f>R56</f>
+        <v>5.024380399238205</v>
+      </c>
+      <c r="S53" s="31">
+        <f>R57</f>
+        <v>7861.8693714701558</v>
+      </c>
+      <c r="T53" s="31">
+        <f>R53*$B$3</f>
+        <v>0.50243803992382052</v>
+      </c>
+      <c r="U53" s="31">
+        <f>S53*$B$3</f>
+        <v>786.18693714701567</v>
+      </c>
+      <c r="V53" s="31">
+        <v>1564.3539430000001</v>
+      </c>
+      <c r="W53" s="31">
+        <f>IF((LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
+        <v>204900</v>
+      </c>
+      <c r="X53" s="31">
+        <f>IF((LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
+        <v>200640</v>
+      </c>
+      <c r="Y53" s="32">
+        <f>(G57/T53)-1</f>
+        <v>9.3327296662113479E-3</v>
+      </c>
+      <c r="Z53" s="33">
+        <f>(H57/U53)-1</f>
+        <v>1.0818413269359395E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A54" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="M54" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O54" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="131"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="105"/>
+      <c r="U54" s="106"/>
+      <c r="V54" s="106"/>
+      <c r="W54" s="106"/>
+      <c r="X54" s="107"/>
+      <c r="Y54" s="108"/>
+      <c r="Z54" s="109"/>
+    </row>
+    <row r="55" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A55" s="96"/>
+      <c r="B55" s="39">
+        <f>SQRT(B53*10^6/10^18)*2^96</f>
+        <v>4.3829404691790772E+24</v>
+      </c>
+      <c r="C55" s="40">
+        <f>B55-$B$3*F55*POWER(2,96)/L55</f>
         <v>3.9446464222611696E+24</v>
       </c>
-      <c r="D44" s="70">
-        <f>M44*B44/N44</f>
+      <c r="D55" s="40">
+        <f>M55*B55/N55</f>
         <v>4.8699799860470599E+24</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E55" s="41">
         <f t="shared" si="0"/>
         <v>3.26787207467537E+18</v>
       </c>
-      <c r="F44" s="71">
+      <c r="F55" s="41">
         <f t="shared" si="2"/>
         <v>10000000000</v>
       </c>
-      <c r="G44" s="72">
-        <f>(M44-(M44*B44)/(SQRT(1/(1.0001^D42)*2^96*2^96/10^6)*10^3))/B44/10^18</f>
+      <c r="G55" s="42">
+        <f>(M55-(M55*B55)/(SQRT(1/(1.0001^D53)*2^96*2^96/10^6)*10^3))/B55/10^18</f>
         <v>0.33114237824495185</v>
       </c>
-      <c r="H44" s="72">
-        <f>(B44-(SQRT(1/(1.0001^C42)*2^96*2^96)))*L44/POWER(2,96)/10^6</f>
+      <c r="H55" s="42">
+        <f>(B55-(SQRT(1/(1.0001^C53)*2^96*2^96)))*L55/POWER(2,96)/10^6</f>
         <v>1006.9885267298091</v>
       </c>
-      <c r="I44" s="70">
+      <c r="I55" s="40">
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="J44" s="70">
-        <f>(E44)*(B44*I44)/POWER(2,96)/(I44-B44)</f>
+      <c r="J55" s="40">
+        <f>(E55)*(B55*I55)/POWER(2,96)/(I55-B55)</f>
         <v>180780271934442</v>
       </c>
-      <c r="K44" s="70">
-        <f>(F44)*POWER(2,96)/(B44-0)</f>
+      <c r="K55" s="40">
+        <f>(F55)*POWER(2,96)/(B55-0)</f>
         <v>180764861105000.91</v>
       </c>
-      <c r="L44" s="70">
-        <f>MIN(J44,K44)</f>
+      <c r="L55" s="40">
+        <f>MIN(J55,K55)</f>
         <v>180764861105000.91</v>
       </c>
-      <c r="M44" s="70">
-        <f>L44*POWER(2,96)</f>
+      <c r="M55" s="40">
+        <f>L55*POWER(2,96)</f>
         <v>1.4321667792495432E+43</v>
       </c>
-      <c r="N44" s="73">
-        <f>M44-(0.1*E44)*B44</f>
+      <c r="N55" s="43">
+        <f>M55-(0.1*E55)*B55</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O44" s="74" t="s">
+      <c r="O55" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="74" t="s">
+      <c r="P55" s="108"/>
+      <c r="Q55" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R44" s="65"/>
-      <c r="S44" s="75" t="s">
+      <c r="R55" s="108"/>
+      <c r="S55" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T44" s="76"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="68"/>
-    </row>
-    <row r="45" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A45" s="56" t="s">
+      <c r="T55" s="110"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="112"/>
+      <c r="Y55" s="108"/>
+      <c r="Z55" s="109"/>
+    </row>
+    <row r="56" spans="1:26" ht="32.85" customHeight="1">
+      <c r="A56" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B56" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C56" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D56" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E56" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="M56" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P56" s="45">
+        <f>K53</f>
+        <v>2.93672969643952</v>
+      </c>
+      <c r="Q56" s="46">
+        <f>P56*O53</f>
+        <v>4594.0846801503567</v>
+      </c>
+      <c r="R56" s="47">
+        <f>P56+(S56/O53)</f>
+        <v>5.024380399238205</v>
+      </c>
+      <c r="S56" s="47">
+        <f>(P57-Q56)/2*(1-0.0003)</f>
+        <v>3265.8246085298442</v>
+      </c>
+      <c r="T56" s="110"/>
+      <c r="U56" s="111"/>
+      <c r="V56" s="111"/>
+      <c r="W56" s="111"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="108"/>
+      <c r="Z56" s="109"/>
+    </row>
+    <row r="57" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A57" s="97"/>
+      <c r="B57" s="48">
+        <f>SQRT(V53*10^6/10^18)*2^96</f>
+        <v>3.1336255121447264E+24</v>
+      </c>
+      <c r="C57" s="49">
+        <f>B57-$B$3*F57*POWER(2,96)/L57</f>
+        <v>2.8201848154299569E+24</v>
+      </c>
+      <c r="D57" s="49">
+        <f>M57*B57/N57</f>
+        <v>3.481806124605251E+24</v>
+      </c>
+      <c r="E57" s="49">
+        <f>R53*10^18</f>
+        <v>5.0243803992382054E+18</v>
+      </c>
+      <c r="F57" s="49">
+        <f>S53*10^6</f>
+        <v>7861869371.4701557</v>
+      </c>
+      <c r="G57" s="50">
+        <f>(M57-(M57*B57)/(SQRT(1/(1.0001^X53)*2^96*2^96/10^6)*10^3))/B57/10^18</f>
+        <v>0.50712715832445066</v>
+      </c>
+      <c r="H57" s="50">
+        <f>(B57-(SQRT(1/(1.0001^W53)*2^96*2^96)))*L57/POWER(2,96)/10^6</f>
+        <v>794.69223234004392</v>
+      </c>
+      <c r="I57" s="49">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J57" s="49">
+        <f>(E57)*(B57*I57)/POWER(2,96)/(I57-B57)</f>
+        <v>198723864117612</v>
+      </c>
+      <c r="K57" s="49">
+        <f>(F57)*POWER(2,96)/(B57-0)</f>
+        <v>198773421334076.44</v>
+      </c>
+      <c r="L57" s="49">
+        <f>MIN(J57,K57)</f>
+        <v>198723864117612</v>
+      </c>
+      <c r="M57" s="49">
+        <f>L57*POWER(2,96)</f>
+        <v>1.5744526601772747E+43</v>
+      </c>
+      <c r="N57" s="51">
+        <f>M57-(0.1*E57)*B57</f>
+        <v>1.4170073941595473E+43</v>
+      </c>
+      <c r="O57" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="P57" s="53">
+        <f>L53</f>
+        <v>11127.69398</v>
+      </c>
+      <c r="Q57" s="54">
+        <f>P57/O53</f>
+        <v>7.1132840683484631</v>
+      </c>
+      <c r="R57" s="55">
+        <f>P57-S56</f>
+        <v>7861.8693714701558</v>
+      </c>
+      <c r="S57" s="56"/>
+      <c r="T57" s="113"/>
+      <c r="U57" s="114"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
+      <c r="X57" s="115"/>
+      <c r="Y57" s="116"/>
+      <c r="Z57" s="117"/>
+    </row>
+    <row r="58" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A58" s="57"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="58"/>
+      <c r="Z58" s="58"/>
+    </row>
+    <row r="59" spans="1:26" ht="21.3" customHeight="1">
+      <c r="A59" s="15"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+    </row>
+    <row r="60" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="98"/>
+      <c r="B60" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
+      <c r="N60" s="106"/>
+      <c r="O60" s="106"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="106"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
+      <c r="V60" s="106"/>
+      <c r="W60" s="106"/>
+      <c r="X60" s="106"/>
+      <c r="Y60" s="130"/>
+      <c r="Z60" s="133"/>
+    </row>
+    <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="99"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
+      <c r="S61" s="111"/>
+      <c r="T61" s="111"/>
+      <c r="U61" s="111"/>
+      <c r="V61" s="103"/>
+      <c r="W61" s="103"/>
+      <c r="X61" s="103"/>
+      <c r="Y61" s="106"/>
+      <c r="Z61" s="134"/>
+    </row>
+    <row r="62" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="100"/>
+      <c r="B62" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="23">
+        <f>0.81*B64</f>
+        <v>2478.8154599991904</v>
+      </c>
+      <c r="D62" s="24">
+        <f>B64/0.81</f>
+        <v>3778.1061728382715</v>
+      </c>
+      <c r="E62" s="102"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="103"/>
+      <c r="K62" s="103"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="103"/>
+      <c r="N62" s="103"/>
+      <c r="O62" s="103"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="103"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="103"/>
+      <c r="T62" s="103"/>
+      <c r="U62" s="104"/>
+      <c r="V62" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="23">
+        <f>0.81*V64</f>
+        <v>2478.88851471</v>
+      </c>
+      <c r="X62" s="24">
+        <f>V64/0.81</f>
+        <v>3778.217519753086</v>
+      </c>
+      <c r="Y62" s="118"/>
+      <c r="Z62" s="119"/>
+    </row>
+    <row r="63" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="100"/>
+      <c r="B63" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O63" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P63" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S63" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T63" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="U63" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V63" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y63" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z63" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="36" customHeight="1">
+      <c r="A64" s="101"/>
+      <c r="B64" s="69">
+        <f t="shared" ref="B64:D70" si="3">3060.265999999</f>
+        <v>3060.2659999990001</v>
+      </c>
+      <c r="C64" s="31">
+        <f>IF((LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
+        <v>198180</v>
+      </c>
+      <c r="D64" s="31">
+        <f>IF((LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
+        <v>193980</v>
+      </c>
+      <c r="E64" s="31">
+        <f>E66*$B$3*10^-18</f>
+        <v>0.32678720746753703</v>
+      </c>
+      <c r="F64" s="31">
+        <f>F66*$B$3*10^-6</f>
+        <v>1000</v>
+      </c>
+      <c r="G64" s="32">
+        <f>((G66/E66)-(E64/E66))*10^18</f>
+        <v>-1.3507467466323424E-3</v>
+      </c>
+      <c r="H64" s="32">
+        <f>((H66/F66)-(F64/F66))*10^6</f>
+        <v>6.8560086394584127E-4</v>
+      </c>
+      <c r="I64" s="31">
+        <f>E66*$C$3*10^-18</f>
+        <v>2.9410848672078331</v>
+      </c>
+      <c r="J64" s="31">
+        <f>F66*$C$3*10^-6</f>
+        <v>9000</v>
+      </c>
+      <c r="K64" s="31">
+        <f>E64+I64+M64</f>
+        <v>3.26787207467537</v>
+      </c>
+      <c r="L64" s="31">
+        <f>F64+J64+N64</f>
+        <v>10000</v>
+      </c>
+      <c r="M64" s="31">
+        <v>0</v>
+      </c>
+      <c r="N64" s="31">
+        <v>0</v>
+      </c>
+      <c r="O64" s="31">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="P64" s="31">
+        <f>IF(S67&lt;0,ABS(S67)/O64,0)</f>
+        <v>1.3924512622916202E-4</v>
+      </c>
+      <c r="Q64" s="31">
+        <f>IF(S67&gt;0,S67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="31">
+        <f>R67</f>
+        <v>3.267732829549141</v>
+      </c>
+      <c r="S64" s="31">
+        <f>R68</f>
+        <v>10000.426139684121</v>
+      </c>
+      <c r="T64" s="70">
+        <f>R64*$B$3</f>
+        <v>0.32677328295491415</v>
+      </c>
+      <c r="U64" s="70">
+        <f>S64*$B$3</f>
+        <v>1000.0426139684122</v>
+      </c>
+      <c r="V64" s="70">
+        <v>3060.3561909999999</v>
+      </c>
+      <c r="W64" s="31">
+        <f>IF((LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
+        <v>198180</v>
+      </c>
+      <c r="X64" s="31">
+        <f>IF((LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
+        <v>193920</v>
+      </c>
+      <c r="Y64" s="71">
+        <f>(G68/T64)-1</f>
+        <v>1.3413601142597598E-2</v>
+      </c>
+      <c r="Z64" s="72">
+        <f>(H68/U64)-1</f>
+        <v>6.9885269778668935E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F65" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G65" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H65" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="58" t="s">
+      <c r="I65" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J45" s="58" t="s">
+      <c r="J65" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="58" t="s">
+      <c r="K65" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L45" s="58" t="s">
+      <c r="L65" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M45" s="58" t="s">
+      <c r="M65" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N45" s="61" t="s">
+      <c r="N65" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O45" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="P45" s="78">
-        <f>K42</f>
-        <v>3.26787207467537</v>
-      </c>
-      <c r="Q45" s="79">
-        <f>P45*O42</f>
-        <v>10000.852535128783</v>
-      </c>
-      <c r="R45" s="80">
-        <f>P45+(S45/O42)</f>
-        <v>2.9247384411550872</v>
-      </c>
-      <c r="S45" s="80">
-        <f>(P46-Q45)/2*(1-0.0003)</f>
-        <v>-1050.111139684122</v>
-      </c>
-      <c r="T45" s="76"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="68"/>
-    </row>
-    <row r="46" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A46" s="81"/>
-      <c r="B46" s="82">
-        <f>SQRT(V42*10^6/10^18)*2^96</f>
-        <v>4.3829404692999735E+24</v>
-      </c>
-      <c r="C46" s="83">
-        <f>B46-$B$3*F46*POWER(2,96)/L46</f>
-        <v>3.9446464223699762E+24</v>
-      </c>
-      <c r="D46" s="83">
-        <f>M46*B46/N46</f>
-        <v>4.8699719589337613E+24</v>
-      </c>
-      <c r="E46" s="83">
-        <f>R42*10^18</f>
-        <v>2.9247384411550874E+18</v>
-      </c>
-      <c r="F46" s="83">
-        <f>S42*10^6</f>
-        <v>8950111139.6841221</v>
-      </c>
-      <c r="G46" s="84">
-        <f>(M46-(M46*B46)/(SQRT(1/(1.0001^X42)*2^96*2^96/10^6)*10^3))/B46/10^18</f>
-        <v>0.29637610874631953</v>
-      </c>
-      <c r="H46" s="84">
-        <f>(B46-(SQRT(1/(1.0001^W42)*2^96*2^96)))*L46/POWER(2,96)/10^6</f>
-        <v>901.26592328387108</v>
-      </c>
-      <c r="I46" s="83">
-        <v>9.9999999999999997E+98</v>
-      </c>
-      <c r="J46" s="83">
-        <f>(E46)*(B46*I46)/POWER(2,96)/(I46-B46)</f>
-        <v>161797952508970.66</v>
-      </c>
-      <c r="K46" s="83">
-        <f>(F46)*POWER(2,96)/(B46-0)</f>
-        <v>161786559699469.53</v>
-      </c>
-      <c r="L46" s="83">
-        <f>MIN(J46,K46)</f>
-        <v>161786559699469.53</v>
-      </c>
-      <c r="M46" s="83">
-        <f>L46*POWER(2,96)</f>
-        <v>1.2818051844493301E+43</v>
-      </c>
-      <c r="N46" s="85">
-        <f>M46-(0.1*E46)*B46</f>
-        <v>1.1536156396907706E+43</v>
-      </c>
-      <c r="O46" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="P46" s="87">
-        <f>L42</f>
-        <v>7900</v>
-      </c>
-      <c r="Q46" s="88">
-        <f>P46/O42</f>
-        <v>2.5813988656721039</v>
-      </c>
-      <c r="R46" s="89">
-        <f>P46-S45</f>
-        <v>8950.1111396841225</v>
-      </c>
-      <c r="S46" s="90"/>
-      <c r="T46" s="91"/>
-      <c r="U46" s="92"/>
-      <c r="V46" s="92"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="93"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="95"/>
-    </row>
-    <row r="47" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A47" s="96"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="105"/>
-      <c r="S47" s="105"/>
-      <c r="T47" s="105"/>
-      <c r="U47" s="105"/>
-      <c r="V47" s="105"/>
-      <c r="W47" s="105"/>
-      <c r="X47" s="96"/>
-      <c r="Y47" s="97"/>
-      <c r="Z47" s="97"/>
-    </row>
-    <row r="48" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="107"/>
-      <c r="M48" s="107"/>
-      <c r="N48" s="107"/>
-      <c r="O48" s="107"/>
-      <c r="P48" s="107"/>
-      <c r="Q48" s="107"/>
-      <c r="R48" s="107"/>
-      <c r="S48" s="107"/>
-      <c r="T48" s="107"/>
-      <c r="U48" s="107"/>
-      <c r="V48" s="107"/>
-      <c r="W48" s="107"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="98"/>
-      <c r="Z48" s="98"/>
-    </row>
-    <row r="49" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A49" s="99"/>
-      <c r="B49" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="101"/>
-      <c r="Z49" s="102"/>
-    </row>
-    <row r="50" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A50" s="103"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="104"/>
-    </row>
-    <row r="51" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="40">
-        <f>0.81*B53</f>
-        <v>2478.8885145732479</v>
-      </c>
-      <c r="D51" s="41">
-        <f>B53/0.81</f>
-        <v>3778.2175195446539</v>
-      </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="W51" s="40">
-        <f>0.81*V53</f>
-        <v>1267.1266938300002</v>
-      </c>
-      <c r="X51" s="41">
-        <f>V53/0.81</f>
-        <v>1931.3011641975309</v>
-      </c>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="45"/>
-    </row>
-    <row r="52" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A52" s="38"/>
-      <c r="B52" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="M52" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="O52" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="P52" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q52" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="S52" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="T52" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="U52" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="V52" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="W52" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="X52" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y52" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z52" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" ht="40.65" customHeight="1">
-      <c r="A53" s="51"/>
-      <c r="B53" s="52">
-        <f t="shared" si="1"/>
-        <v>3060.3561908311699</v>
-      </c>
-      <c r="C53" s="53">
-        <f>IF((LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C55*C55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>198180</v>
-      </c>
-      <c r="D53" s="53">
-        <f>IF((LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D55*D55*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>193920</v>
-      </c>
-      <c r="E53" s="53">
-        <f>E55*$B$3*10^-18</f>
-        <v>0.32678720746753703</v>
-      </c>
-      <c r="F53" s="53">
-        <f>F55*$B$3*10^-6</f>
-        <v>1000</v>
-      </c>
-      <c r="G53" s="54">
-        <f>((G55/E55)-(E53/E55))*10^18</f>
-        <v>1.3327237657696459E-3</v>
-      </c>
-      <c r="H53" s="54">
-        <f>((H55/F55)-(F53/F55))*10^6</f>
-        <v>6.9885267298091581E-4</v>
-      </c>
-      <c r="I53" s="53">
-        <f>E55*$C$3*10^-18</f>
-        <v>2.9410848672078331</v>
-      </c>
-      <c r="J53" s="53">
-        <f>F55*$C$3*10^-6</f>
-        <v>9000</v>
-      </c>
-      <c r="K53" s="53">
-        <f>2.93672969643952</f>
-        <v>2.93672969643952</v>
-      </c>
-      <c r="L53" s="53">
-        <f>11127.69398</f>
-        <v>11127.69398</v>
-      </c>
-      <c r="M53" s="53">
-        <f xml:space="preserve"> - I53 - E53 + K53</f>
-        <v>-0.33114237823585002</v>
-      </c>
-      <c r="N53" s="53">
-        <f>L53-F53 -J53</f>
-        <v>1127.69398</v>
-      </c>
-      <c r="O53" s="53">
-        <v>1564.3539430000001</v>
-      </c>
-      <c r="P53" s="53">
-        <f>IF(S56&lt;0,ABS(S56)/O53,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="53">
-        <f>IF(S56&gt;0,S56,0)</f>
-        <v>3265.8246085298442</v>
-      </c>
-      <c r="R53" s="53">
-        <f>R56</f>
-        <v>5.024380399238205</v>
-      </c>
-      <c r="S53" s="53">
-        <f>R57</f>
-        <v>7861.8693714701558</v>
-      </c>
-      <c r="T53" s="53">
-        <f>R53*$B$3</f>
-        <v>0.50243803992382052</v>
-      </c>
-      <c r="U53" s="53">
-        <f>S53*$B$3</f>
-        <v>786.18693714701567</v>
-      </c>
-      <c r="V53" s="53">
-        <v>1564.3539430000001</v>
-      </c>
-      <c r="W53" s="53">
-        <f>IF((LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>204900</v>
-      </c>
-      <c r="X53" s="53">
-        <f>IF((LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>200640</v>
-      </c>
-      <c r="Y53" s="54">
-        <f>(G57/T53)-1</f>
-        <v>9.3327296662113479E-3</v>
-      </c>
-      <c r="Z53" s="55">
-        <f>(H57/U53)-1</f>
-        <v>1.0818413269359395E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A54" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="J54" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K54" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="L54" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="M54" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="N54" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="O54" s="62" t="s">
+      <c r="O65" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="65"/>
-      <c r="T54" s="66"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="65"/>
-      <c r="Z54" s="68"/>
-    </row>
-    <row r="55" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="69">
-        <f>SQRT(B53*10^6/10^18)*2^96</f>
-        <v>4.3829404691790772E+24</v>
-      </c>
-      <c r="C55" s="70">
-        <f>B55-$B$3*F55*POWER(2,96)/L55</f>
-        <v>3.9446464222611696E+24</v>
-      </c>
-      <c r="D55" s="70">
-        <f>M55*B55/N55</f>
-        <v>4.8699799860470599E+24</v>
-      </c>
-      <c r="E55" s="71">
+      <c r="P65" s="130"/>
+      <c r="Q65" s="130"/>
+      <c r="R65" s="131"/>
+      <c r="S65" s="109"/>
+      <c r="T65" s="98"/>
+      <c r="U65" s="120"/>
+      <c r="V65" s="120"/>
+      <c r="W65" s="106"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="121"/>
+      <c r="Z65" s="122"/>
+    </row>
+    <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="96"/>
+      <c r="B66" s="39">
+        <f>SQRT(B64*10^6/10^18)*2^96</f>
+        <v>4.382875884546422E+24</v>
+      </c>
+      <c r="C66" s="40">
+        <f>B66-$B$3*F66*POWER(2,96)/L66</f>
+        <v>3.94458829609178E+24</v>
+      </c>
+      <c r="D66" s="40">
+        <f>M66*B66/N66</f>
+        <v>4.8698922765845359E+24</v>
+      </c>
+      <c r="E66" s="41">
         <f t="shared" si="0"/>
         <v>3.26787207467537E+18</v>
       </c>
-      <c r="F55" s="71">
+      <c r="F66" s="41">
         <f t="shared" si="2"/>
         <v>10000000000</v>
       </c>
-      <c r="G55" s="72">
-        <f>(M55-(M55*B55)/(SQRT(1/(1.0001^D53)*2^96*2^96/10^6)*10^3))/B55/10^18</f>
-        <v>0.33114237824495185</v>
-      </c>
-      <c r="H55" s="72">
-        <f>(B55-(SQRT(1/(1.0001^C53)*2^96*2^96)))*L55/POWER(2,96)/10^6</f>
-        <v>1006.9885267298091</v>
-      </c>
-      <c r="I55" s="70">
-        <v>9.9999999999999997E+98</v>
-      </c>
-      <c r="J55" s="70">
-        <f>(E55)*(B55*I55)/POWER(2,96)/(I55-B55)</f>
-        <v>180780271934442</v>
-      </c>
-      <c r="K55" s="70">
-        <f>(F55)*POWER(2,96)/(B55-0)</f>
-        <v>180764861105000.91</v>
-      </c>
-      <c r="L55" s="70">
-        <f>MIN(J55,K55)</f>
-        <v>180764861105000.91</v>
-      </c>
-      <c r="M55" s="70">
-        <f>L55*POWER(2,96)</f>
-        <v>1.4321667792495432E+43</v>
-      </c>
-      <c r="N55" s="73">
-        <f>M55-(0.1*E55)*B55</f>
-        <v>1.2889378916075946E+43</v>
-      </c>
-      <c r="O55" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="R55" s="65"/>
-      <c r="S55" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="T55" s="76"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="77"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="68"/>
-    </row>
-    <row r="56" spans="1:26" ht="32.85" customHeight="1">
-      <c r="A56" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="I56" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K56" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="L56" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="M56" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="N56" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="O56" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="P56" s="78">
-        <f>K53</f>
-        <v>2.93672969643952</v>
-      </c>
-      <c r="Q56" s="79">
-        <f>P56*O53</f>
-        <v>4594.0846801503567</v>
-      </c>
-      <c r="R56" s="80">
-        <f>P56+(S56/O53)</f>
-        <v>5.024380399238205</v>
-      </c>
-      <c r="S56" s="80">
-        <f>(P57-Q56)/2*(1-0.0003)</f>
-        <v>3265.8246085298442</v>
-      </c>
-      <c r="T56" s="76"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="77"/>
-      <c r="Y56" s="65"/>
-      <c r="Z56" s="68"/>
-    </row>
-    <row r="57" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A57" s="81"/>
-      <c r="B57" s="82">
-        <f>SQRT(V53*10^6/10^18)*2^96</f>
-        <v>3.1336255121447264E+24</v>
-      </c>
-      <c r="C57" s="83">
-        <f>B57-$B$3*F57*POWER(2,96)/L57</f>
-        <v>2.8201848154299569E+24</v>
-      </c>
-      <c r="D57" s="83">
-        <f>M57*B57/N57</f>
-        <v>3.481806124605251E+24</v>
-      </c>
-      <c r="E57" s="83">
-        <f>R53*10^18</f>
-        <v>5.0243803992382054E+18</v>
-      </c>
-      <c r="F57" s="83">
-        <f>S53*10^6</f>
-        <v>7861869371.4701557</v>
-      </c>
-      <c r="G57" s="84">
-        <f>(M57-(M57*B57)/(SQRT(1/(1.0001^X53)*2^96*2^96/10^6)*10^3))/B57/10^18</f>
-        <v>0.50712715832445066</v>
-      </c>
-      <c r="H57" s="84">
-        <f>(B57-(SQRT(1/(1.0001^W53)*2^96*2^96)))*L57/POWER(2,96)/10^6</f>
-        <v>794.69223234004392</v>
-      </c>
-      <c r="I57" s="83">
-        <v>9.9999999999999997E+98</v>
-      </c>
-      <c r="J57" s="83">
-        <f>(E57)*(B57*I57)/POWER(2,96)/(I57-B57)</f>
-        <v>198723864117612</v>
-      </c>
-      <c r="K57" s="83">
-        <f>(F57)*POWER(2,96)/(B57-0)</f>
-        <v>198773421334076.44</v>
-      </c>
-      <c r="L57" s="83">
-        <f>MIN(J57,K57)</f>
-        <v>198723864117612</v>
-      </c>
-      <c r="M57" s="83">
-        <f>L57*POWER(2,96)</f>
-        <v>1.5744526601772747E+43</v>
-      </c>
-      <c r="N57" s="85">
-        <f>M57-(0.1*E57)*B57</f>
-        <v>1.4170073941595473E+43</v>
-      </c>
-      <c r="O57" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="P57" s="87">
-        <f>L53</f>
-        <v>11127.69398</v>
-      </c>
-      <c r="Q57" s="88">
-        <f>P57/O53</f>
-        <v>7.1132840683484631</v>
-      </c>
-      <c r="R57" s="89">
-        <f>P57-S56</f>
-        <v>7861.8693714701558</v>
-      </c>
-      <c r="S57" s="90"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="92"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="92"/>
-      <c r="X57" s="93"/>
-      <c r="Y57" s="94"/>
-      <c r="Z57" s="95"/>
-    </row>
-    <row r="58" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A58" s="96"/>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="105"/>
-      <c r="O58" s="105"/>
-      <c r="P58" s="105"/>
-      <c r="Q58" s="105"/>
-      <c r="R58" s="105"/>
-      <c r="S58" s="105"/>
-      <c r="T58" s="105"/>
-      <c r="U58" s="105"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
-      <c r="X58" s="96"/>
-      <c r="Y58" s="97"/>
-      <c r="Z58" s="97"/>
-    </row>
-    <row r="59" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A59" s="20"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="109"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="109"/>
-      <c r="L59" s="109"/>
-      <c r="M59" s="109"/>
-      <c r="N59" s="109"/>
-      <c r="O59" s="109"/>
-      <c r="P59" s="109"/>
-      <c r="Q59" s="109"/>
-      <c r="R59" s="109"/>
-      <c r="S59" s="109"/>
-      <c r="T59" s="109"/>
-      <c r="U59" s="109"/>
-      <c r="V59" s="109"/>
-      <c r="W59" s="109"/>
-      <c r="X59" s="111"/>
-      <c r="Y59" s="112"/>
-      <c r="Z59" s="112"/>
-    </row>
-    <row r="60" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="99"/>
-      <c r="B60" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="63"/>
-      <c r="Z60" s="114"/>
-    </row>
-    <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="103"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="37"/>
-    </row>
-    <row r="62" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="40">
-        <f>0.81*B64</f>
-        <v>2478.8154599991904</v>
-      </c>
-      <c r="D62" s="41">
-        <f>B64/0.81</f>
-        <v>3778.1061728382715</v>
-      </c>
-      <c r="E62" s="42"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="40">
-        <f>0.81*V64</f>
-        <v>2478.88851471</v>
-      </c>
-      <c r="X62" s="41">
-        <f>V64/0.81</f>
-        <v>3778.217519753086</v>
-      </c>
-      <c r="Y62" s="44"/>
-      <c r="Z62" s="45"/>
-    </row>
-    <row r="63" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="38"/>
-      <c r="B63" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="L63" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="M63" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="O63" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="P63" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q63" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="S63" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="T63" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="U63" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="V63" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="W63" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="X63" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y63" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z63" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" ht="36" customHeight="1">
-      <c r="A64" s="51"/>
-      <c r="B64" s="116">
-        <f t="shared" ref="B64:D70" si="3">3060.265999999</f>
-        <v>3060.2659999990001</v>
-      </c>
-      <c r="C64" s="53">
-        <f>IF((LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>198180</v>
-      </c>
-      <c r="D64" s="53">
-        <f>IF((LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>193980</v>
-      </c>
-      <c r="E64" s="53">
-        <f>E66*$B$3*10^-18</f>
-        <v>0.32678720746753703</v>
-      </c>
-      <c r="F64" s="53">
-        <f>F66*$B$3*10^-6</f>
-        <v>1000</v>
-      </c>
-      <c r="G64" s="54">
-        <f>((G66/E66)-(E64/E66))*10^18</f>
-        <v>-1.3507467466323424E-3</v>
-      </c>
-      <c r="H64" s="54">
-        <f>((H66/F66)-(F64/F66))*10^6</f>
-        <v>6.8560086394584127E-4</v>
-      </c>
-      <c r="I64" s="53">
-        <f>E66*$C$3*10^-18</f>
-        <v>2.9410848672078331</v>
-      </c>
-      <c r="J64" s="53">
-        <f>F66*$C$3*10^-6</f>
-        <v>9000</v>
-      </c>
-      <c r="K64" s="53">
-        <f>E64+I64+M64</f>
-        <v>3.26787207467537</v>
-      </c>
-      <c r="L64" s="53">
-        <f>F64+J64+N64</f>
-        <v>10000</v>
-      </c>
-      <c r="M64" s="53">
-        <v>0</v>
-      </c>
-      <c r="N64" s="53">
-        <v>0</v>
-      </c>
-      <c r="O64" s="53">
-        <v>3060.3561909999999</v>
-      </c>
-      <c r="P64" s="53">
-        <f>IF(S67&lt;0,ABS(S67)/O64,0)</f>
-        <v>1.3924512622916202E-4</v>
-      </c>
-      <c r="Q64" s="53">
-        <f>IF(S67&gt;0,S67,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R64" s="53">
-        <f>R67</f>
-        <v>3.267732829549141</v>
-      </c>
-      <c r="S64" s="53">
-        <f>R68</f>
-        <v>10000.426139684121</v>
-      </c>
-      <c r="T64" s="117">
-        <f>R64*$B$3</f>
-        <v>0.32677328295491415</v>
-      </c>
-      <c r="U64" s="117">
-        <f>S64*$B$3</f>
-        <v>1000.0426139684122</v>
-      </c>
-      <c r="V64" s="117">
-        <v>3060.3561909999999</v>
-      </c>
-      <c r="W64" s="53">
-        <f>IF((LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C68*C68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>198180</v>
-      </c>
-      <c r="X64" s="53">
-        <f>IF((LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D68*D68*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>193920</v>
-      </c>
-      <c r="Y64" s="118">
-        <f>(G68/T64)-1</f>
-        <v>1.3413601142597598E-2</v>
-      </c>
-      <c r="Z64" s="119">
-        <f>(H68/U64)-1</f>
-        <v>6.9885269778668935E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="G65" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="J65" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K65" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="L65" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="M65" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="N65" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="O65" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="64"/>
-      <c r="S65" s="68"/>
-      <c r="T65" s="99"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="67"/>
-      <c r="Y65" s="120"/>
-      <c r="Z65" s="121"/>
-    </row>
-    <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="56"/>
-      <c r="B66" s="69">
-        <f>SQRT(B64*10^6/10^18)*2^96</f>
-        <v>4.382875884546422E+24</v>
-      </c>
-      <c r="C66" s="70">
-        <f>B66-$B$3*F66*POWER(2,96)/L66</f>
-        <v>3.94458829609178E+24</v>
-      </c>
-      <c r="D66" s="70">
-        <f>M66*B66/N66</f>
-        <v>4.8698922765845359E+24</v>
-      </c>
-      <c r="E66" s="71">
-        <f t="shared" si="0"/>
-        <v>3.26787207467537E+18</v>
-      </c>
-      <c r="F66" s="71">
-        <f t="shared" si="2"/>
-        <v>10000000000</v>
-      </c>
-      <c r="G66" s="72">
+      <c r="G66" s="42">
         <f>(M66-(M66*B66)/(SQRT(1/(1.0001^D64)*2^96*2^96/10^6)*10^3))/B66/10^18</f>
         <v>0.32237313989425859</v>
       </c>
-      <c r="H66" s="72">
+      <c r="H66" s="42">
         <f>(B66-(SQRT(1/(1.0001^C64)*2^96*2^96)))*L66/POWER(2,96)/10^6</f>
         <v>1006.8560086394583</v>
       </c>
-      <c r="I66" s="70">
+      <c r="I66" s="40">
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="J66" s="70">
+      <c r="J66" s="40">
         <f>(E66)*(B66*I66)/POWER(2,96)/(I66-B66)</f>
         <v>180777608054442.66</v>
       </c>
-      <c r="K66" s="70">
+      <c r="K66" s="40">
         <f>(F66)*POWER(2,96)/(B66-0)</f>
         <v>180767524797165.34</v>
       </c>
-      <c r="L66" s="70">
+      <c r="L66" s="40">
         <f>MIN(J66,K66)</f>
         <v>180767524797165.34</v>
       </c>
-      <c r="M66" s="70">
+      <c r="M66" s="40">
         <f>L66*POWER(2,96)</f>
         <v>1.4321878831931124E+43</v>
       </c>
-      <c r="N66" s="73">
+      <c r="N66" s="43">
         <f>M66-($B$3*E66)*B66</f>
         <v>1.2889611060943387E+43</v>
       </c>
-      <c r="O66" s="74" t="s">
+      <c r="O66" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P66" s="65"/>
-      <c r="Q66" s="74" t="s">
+      <c r="P66" s="108"/>
+      <c r="Q66" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R66" s="65"/>
-      <c r="S66" s="122" t="s">
+      <c r="R66" s="108"/>
+      <c r="S66" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="T66" s="103"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="77"/>
-      <c r="Y66" s="65"/>
-      <c r="Z66" s="68"/>
+      <c r="T66" s="99"/>
+      <c r="U66" s="111"/>
+      <c r="V66" s="111"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="112"/>
+      <c r="Y66" s="108"/>
+      <c r="Z66" s="109"/>
     </row>
     <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="58" t="s">
+      <c r="D67" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="58" t="s">
+      <c r="E67" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F67" s="58" t="s">
+      <c r="F67" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G67" s="60" t="s">
+      <c r="G67" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H67" s="60" t="s">
+      <c r="H67" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I67" s="58" t="s">
+      <c r="I67" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J67" s="58" t="s">
+      <c r="J67" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K67" s="58" t="s">
+      <c r="K67" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L67" s="58" t="s">
+      <c r="L67" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M67" s="58" t="s">
+      <c r="M67" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N67" s="61" t="s">
+      <c r="N67" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O67" s="57" t="s">
+      <c r="O67" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P67" s="78">
+      <c r="P67" s="45">
         <f>K64</f>
         <v>3.26787207467537</v>
       </c>
-      <c r="Q67" s="79">
+      <c r="Q67" s="46">
         <f>P67*O64</f>
         <v>10000.852535128783</v>
       </c>
-      <c r="R67" s="80">
+      <c r="R67" s="47">
         <f>P67+(S67/O64)</f>
         <v>3.267732829549141</v>
       </c>
-      <c r="S67" s="123">
+      <c r="S67" s="74">
         <f>(P68-Q67)/2*(1-0.0003)</f>
         <v>-0.42613968412199249</v>
       </c>
-      <c r="T67" s="103"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="77"/>
-      <c r="Y67" s="65"/>
-      <c r="Z67" s="68"/>
+      <c r="T67" s="99"/>
+      <c r="U67" s="111"/>
+      <c r="V67" s="111"/>
+      <c r="W67" s="111"/>
+      <c r="X67" s="112"/>
+      <c r="Y67" s="108"/>
+      <c r="Z67" s="109"/>
     </row>
     <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="81"/>
-      <c r="B68" s="82">
+      <c r="A68" s="97"/>
+      <c r="B68" s="48">
         <f>SQRT(V64*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
       </c>
-      <c r="C68" s="83">
+      <c r="C68" s="49">
         <f>B68-$B$3*F68*POWER(2,96)/L68</f>
         <v>3.9446464223699762E+24</v>
       </c>
-      <c r="D68" s="83">
+      <c r="D68" s="49">
         <f>M68*B68/N68</f>
         <v>4.8699338686164578E+24</v>
       </c>
-      <c r="E68" s="83">
+      <c r="E68" s="49">
         <f>R64*10^18</f>
         <v>3.267732829549141E+18</v>
       </c>
-      <c r="F68" s="83">
+      <c r="F68" s="49">
         <f>S64*10^6</f>
         <v>10000426139.684122</v>
       </c>
-      <c r="G68" s="84">
+      <c r="G68" s="50">
         <f>(M68-(M68*B68)/(SQRT(1/(1.0001^X64)*2^96*2^96/10^6)*10^3))/B68/10^18</f>
         <v>0.33115648943652853</v>
       </c>
-      <c r="H68" s="84">
+      <c r="H68" s="50">
         <f>(B68-(SQRT(1/(1.0001^W64)*2^96*2^96)))*L68/POWER(2,96)/10^6</f>
         <v>1007.031438755147</v>
       </c>
-      <c r="I68" s="83">
+      <c r="I68" s="49">
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="J68" s="83">
+      <c r="J68" s="49">
         <f>(E68)*(B68*I68)/POWER(2,96)/(I68-B68)</f>
         <v>180772568831347.59</v>
       </c>
-      <c r="K68" s="83">
+      <c r="K68" s="49">
         <f>(F68)*POWER(2,96)/(B68-0)</f>
         <v>180772564208095.75</v>
       </c>
-      <c r="L68" s="83">
+      <c r="L68" s="49">
         <f>MIN(J68,K68)</f>
         <v>180772564208095.75</v>
       </c>
-      <c r="M68" s="83">
+      <c r="M68" s="49">
         <f>L68*POWER(2,96)</f>
         <v>1.4322278095199295E+43</v>
       </c>
-      <c r="N68" s="85">
+      <c r="N68" s="51">
         <f>M68-(0.1*E68)*B68</f>
         <v>1.2890050249050191E+43</v>
       </c>
-      <c r="O68" s="86" t="s">
+      <c r="O68" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="P68" s="87">
+      <c r="P68" s="53">
         <f>L64</f>
         <v>10000</v>
       </c>
-      <c r="Q68" s="88">
+      <c r="Q68" s="54">
         <f>P68/O64</f>
         <v>3.2675935008507642</v>
       </c>
-      <c r="R68" s="89">
+      <c r="R68" s="55">
         <f>P68-S67</f>
         <v>10000.426139684121</v>
       </c>
-      <c r="S68" s="124"/>
-      <c r="T68" s="125"/>
-      <c r="U68" s="92"/>
-      <c r="V68" s="92"/>
-      <c r="W68" s="92"/>
-      <c r="X68" s="93"/>
-      <c r="Y68" s="94"/>
-      <c r="Z68" s="95"/>
+      <c r="S68" s="75"/>
+      <c r="T68" s="123"/>
+      <c r="U68" s="114"/>
+      <c r="V68" s="114"/>
+      <c r="W68" s="114"/>
+      <c r="X68" s="115"/>
+      <c r="Y68" s="116"/>
+      <c r="Z68" s="117"/>
     </row>
     <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="126"/>
-      <c r="B69" s="127"/>
-      <c r="C69" s="128"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="127"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="127"/>
-      <c r="J69" s="127"/>
-      <c r="K69" s="127"/>
-      <c r="L69" s="127"/>
-      <c r="M69" s="127"/>
-      <c r="N69" s="127"/>
-      <c r="O69" s="127"/>
-      <c r="P69" s="127"/>
-      <c r="Q69" s="127"/>
-      <c r="R69" s="127"/>
-      <c r="S69" s="127"/>
-      <c r="T69" s="127"/>
-      <c r="U69" s="127"/>
-      <c r="V69" s="127"/>
-      <c r="W69" s="127"/>
-      <c r="X69" s="126"/>
-      <c r="Y69" s="131"/>
-      <c r="Z69" s="131"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="77"/>
+      <c r="R69" s="77"/>
+      <c r="S69" s="77"/>
+      <c r="T69" s="77"/>
+      <c r="U69" s="77"/>
+      <c r="V69" s="77"/>
+      <c r="W69" s="77"/>
+      <c r="X69" s="76"/>
+      <c r="Y69" s="81"/>
+      <c r="Z69" s="81"/>
     </row>
     <row r="70" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="132"/>
-      <c r="B70" s="133" t="s">
+      <c r="A70" s="82"/>
+      <c r="B70" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="134">
+      <c r="C70" s="84">
         <f>3064.79</f>
         <v>3064.79</v>
       </c>
-      <c r="D70" s="134">
+      <c r="D70" s="84">
         <f t="shared" si="3"/>
         <v>3060.2659999990001</v>
       </c>
-      <c r="E70" s="134"/>
-      <c r="F70" s="134"/>
-      <c r="G70" s="135"/>
-      <c r="H70" s="135"/>
-      <c r="I70" s="134"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="134"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
-      <c r="N70" s="134"/>
-      <c r="O70" s="134"/>
-      <c r="P70" s="134"/>
-      <c r="Q70" s="134"/>
-      <c r="R70" s="134"/>
-      <c r="S70" s="134"/>
-      <c r="T70" s="134"/>
-      <c r="U70" s="134"/>
-      <c r="V70" s="134"/>
-      <c r="W70" s="134"/>
-      <c r="X70" s="132"/>
-      <c r="Y70" s="136"/>
-      <c r="Z70" s="136"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="S70" s="84"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="84"/>
+      <c r="V70" s="84"/>
+      <c r="W70" s="84"/>
+      <c r="X70" s="82"/>
+      <c r="Y70" s="86"/>
+      <c r="Z70" s="86"/>
     </row>
     <row r="71" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="137"/>
-      <c r="B71" s="138"/>
-      <c r="C71" s="139" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="139" t="s">
+      <c r="D71" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="140"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="141"/>
-      <c r="I71" s="140"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="140"/>
-      <c r="L71" s="140"/>
-      <c r="M71" s="140"/>
-      <c r="N71" s="140"/>
-      <c r="O71" s="140"/>
-      <c r="P71" s="140"/>
-      <c r="Q71" s="140"/>
-      <c r="R71" s="140"/>
-      <c r="S71" s="140"/>
-      <c r="T71" s="140"/>
-      <c r="U71" s="140"/>
-      <c r="V71" s="140"/>
-      <c r="W71" s="140"/>
-      <c r="X71" s="137"/>
-      <c r="Y71" s="142"/>
-      <c r="Z71" s="142"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="90"/>
+      <c r="M71" s="90"/>
+      <c r="N71" s="90"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="90"/>
+      <c r="Q71" s="90"/>
+      <c r="R71" s="90"/>
+      <c r="S71" s="90"/>
+      <c r="T71" s="90"/>
+      <c r="U71" s="90"/>
+      <c r="V71" s="90"/>
+      <c r="W71" s="90"/>
+      <c r="X71" s="87"/>
+      <c r="Y71" s="92"/>
+      <c r="Z71" s="92"/>
     </row>
     <row r="72" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="137"/>
-      <c r="B72" s="143" t="s">
+      <c r="A72" s="87"/>
+      <c r="B72" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="143">
+      <c r="C72" s="93">
         <f>LOG(1/(C66*C66*10^12/2^96/2^96)*10^12,1.0001)</f>
         <v>198164.75785713058</v>
       </c>
-      <c r="D72" s="143">
+      <c r="D72" s="93">
         <f>LOG(1/(D66*D66*10^12/2^96/2^96)*10^12,1.0001)</f>
         <v>193950.00255061011</v>
       </c>
-      <c r="E72" s="140"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="140"/>
-      <c r="O72" s="140"/>
-      <c r="P72" s="140"/>
-      <c r="Q72" s="140"/>
-      <c r="R72" s="140"/>
-      <c r="S72" s="140"/>
-      <c r="T72" s="140"/>
-      <c r="U72" s="140"/>
-      <c r="V72" s="140"/>
-      <c r="W72" s="140"/>
-      <c r="X72" s="137"/>
-      <c r="Y72" s="142"/>
-      <c r="Z72" s="142"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="90"/>
+      <c r="M72" s="90"/>
+      <c r="N72" s="90"/>
+      <c r="O72" s="90"/>
+      <c r="P72" s="90"/>
+      <c r="Q72" s="90"/>
+      <c r="R72" s="90"/>
+      <c r="S72" s="90"/>
+      <c r="T72" s="90"/>
+      <c r="U72" s="90"/>
+      <c r="V72" s="90"/>
+      <c r="W72" s="90"/>
+      <c r="X72" s="87"/>
+      <c r="Y72" s="92"/>
+      <c r="Z72" s="92"/>
     </row>
     <row r="73" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="137"/>
-      <c r="B73" s="143" t="s">
+      <c r="A73" s="87"/>
+      <c r="B73" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="140">
+      <c r="C73" s="90">
         <f>1/(1.0001^C72/10^12)</f>
         <v>2478.8154599991904</v>
       </c>
-      <c r="D73" s="140">
+      <c r="D73" s="90">
         <f>1/(1.0001^D72/10^12)</f>
         <v>3778.1530052064386</v>
       </c>
-      <c r="E73" s="140"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="140"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="140"/>
-      <c r="L73" s="140"/>
-      <c r="M73" s="140"/>
-      <c r="N73" s="140"/>
-      <c r="O73" s="140"/>
-      <c r="P73" s="140"/>
-      <c r="Q73" s="140"/>
-      <c r="R73" s="140"/>
-      <c r="S73" s="140"/>
-      <c r="T73" s="140"/>
-      <c r="U73" s="140"/>
-      <c r="V73" s="140"/>
-      <c r="W73" s="140"/>
-      <c r="X73" s="137"/>
-      <c r="Y73" s="142"/>
-      <c r="Z73" s="142"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="90"/>
+      <c r="W73" s="90"/>
+      <c r="X73" s="87"/>
+      <c r="Y73" s="92"/>
+      <c r="Z73" s="92"/>
     </row>
     <row r="74" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="137"/>
-      <c r="B74" s="143" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="140">
+      <c r="C74" s="90">
         <f>1/(1.0001^198180/10^12)</f>
         <v>2475.0402806484635</v>
       </c>
-      <c r="D74" s="140">
+      <c r="D74" s="90">
         <f>1/(1.0001^193980/10^12)</f>
         <v>3766.8370566185158</v>
       </c>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="140"/>
-      <c r="K74" s="140"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="140"/>
-      <c r="O74" s="140"/>
-      <c r="P74" s="140"/>
-      <c r="Q74" s="140"/>
-      <c r="R74" s="140"/>
-      <c r="S74" s="140"/>
-      <c r="T74" s="140"/>
-      <c r="U74" s="140"/>
-      <c r="V74" s="140"/>
-      <c r="W74" s="140"/>
-      <c r="X74" s="137"/>
-      <c r="Y74" s="142"/>
-      <c r="Z74" s="142"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="90"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="90"/>
+      <c r="R74" s="90"/>
+      <c r="S74" s="90"/>
+      <c r="T74" s="90"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="90"/>
+      <c r="W74" s="90"/>
+      <c r="X74" s="87"/>
+      <c r="Y74" s="92"/>
+      <c r="Z74" s="92"/>
     </row>
     <row r="75" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="137"/>
-      <c r="B75" s="143" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="140">
+      <c r="C75" s="90">
         <f>1/(1.0001^198120/10^12)</f>
         <v>2489.9344153620227</v>
       </c>
-      <c r="D75" s="140">
+      <c r="D75" s="90">
         <f>1/(1.0001^193920/10^12)</f>
         <v>3789.5048810591757</v>
       </c>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="141"/>
-      <c r="H75" s="141"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="140"/>
-      <c r="N75" s="140"/>
-      <c r="O75" s="140"/>
-      <c r="P75" s="140"/>
-      <c r="Q75" s="140"/>
-      <c r="R75" s="140"/>
-      <c r="S75" s="140"/>
-      <c r="T75" s="140"/>
-      <c r="U75" s="140"/>
-      <c r="V75" s="140"/>
-      <c r="W75" s="140"/>
-      <c r="X75" s="137"/>
-      <c r="Y75" s="142"/>
-      <c r="Z75" s="142"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="90"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="90"/>
+      <c r="X75" s="87"/>
+      <c r="Y75" s="92"/>
+      <c r="Z75" s="92"/>
     </row>
     <row r="76" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="137"/>
-      <c r="B76" s="143" t="s">
+      <c r="A76" s="87"/>
+      <c r="B76" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="140">
+      <c r="C76" s="90">
         <f>((C75-C74)/2)+C74</f>
         <v>2482.4873480052429</v>
       </c>
-      <c r="D76" s="140">
+      <c r="D76" s="90">
         <f>((D75-D74)/2)+D74</f>
         <v>3778.1709688388455</v>
       </c>
-      <c r="E76" s="140"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="141"/>
-      <c r="H76" s="141"/>
-      <c r="I76" s="140"/>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="140"/>
-      <c r="N76" s="140"/>
-      <c r="O76" s="140"/>
-      <c r="P76" s="140"/>
-      <c r="Q76" s="140"/>
-      <c r="R76" s="140"/>
-      <c r="S76" s="140"/>
-      <c r="T76" s="140"/>
-      <c r="U76" s="140"/>
-      <c r="V76" s="140"/>
-      <c r="W76" s="140"/>
-      <c r="X76" s="137"/>
-      <c r="Y76" s="142"/>
-      <c r="Z76" s="142"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="90"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="90"/>
+      <c r="L76" s="90"/>
+      <c r="M76" s="90"/>
+      <c r="N76" s="90"/>
+      <c r="O76" s="90"/>
+      <c r="P76" s="90"/>
+      <c r="Q76" s="90"/>
+      <c r="R76" s="90"/>
+      <c r="S76" s="90"/>
+      <c r="T76" s="90"/>
+      <c r="U76" s="90"/>
+      <c r="V76" s="90"/>
+      <c r="W76" s="90"/>
+      <c r="X76" s="87"/>
+      <c r="Y76" s="92"/>
+      <c r="Z76" s="92"/>
     </row>
     <row r="77" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="137"/>
-      <c r="B77" s="143" t="s">
+      <c r="A77" s="87"/>
+      <c r="B77" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="143">
+      <c r="C77" s="93">
         <f>LOG(1/C76*10^12,1.0001)</f>
         <v>198149.95500227585</v>
       </c>
-      <c r="D77" s="143">
+      <c r="D77" s="93">
         <f>LOG(1/D76*10^12,1.0001)</f>
         <v>193949.95500227675</v>
       </c>
-      <c r="E77" s="140"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="141"/>
-      <c r="I77" s="140"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="140"/>
-      <c r="L77" s="140"/>
-      <c r="M77" s="140"/>
-      <c r="N77" s="140"/>
-      <c r="O77" s="140"/>
-      <c r="P77" s="140"/>
-      <c r="Q77" s="140"/>
-      <c r="R77" s="140"/>
-      <c r="S77" s="140"/>
-      <c r="T77" s="140"/>
-      <c r="U77" s="140"/>
-      <c r="V77" s="140"/>
-      <c r="W77" s="140"/>
-      <c r="X77" s="137"/>
-      <c r="Y77" s="142"/>
-      <c r="Z77" s="142"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="90"/>
+      <c r="M77" s="90"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="90"/>
+      <c r="T77" s="90"/>
+      <c r="U77" s="90"/>
+      <c r="V77" s="90"/>
+      <c r="W77" s="90"/>
+      <c r="X77" s="87"/>
+      <c r="Y77" s="92"/>
+      <c r="Z77" s="92"/>
     </row>
     <row r="78" spans="1:26" ht="14.7" customHeight="1">
-      <c r="A78" s="137"/>
-      <c r="B78" s="144" t="s">
+      <c r="A78" s="87"/>
+      <c r="B78" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="140">
+      <c r="C78" s="90">
         <f>SQRT(C76*10^6/10^18)*2^96</f>
         <v>3.9475087891275415E+24</v>
       </c>
-      <c r="D78" s="140">
+      <c r="D78" s="90">
         <f>SQRT(D76*10^6/10^18)*2^96</f>
         <v>4.8699038537825261E+24</v>
       </c>
-      <c r="E78" s="140"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="141"/>
-      <c r="H78" s="141"/>
-      <c r="I78" s="140"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="140"/>
-      <c r="O78" s="140"/>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="140"/>
-      <c r="R78" s="140"/>
-      <c r="S78" s="140"/>
-      <c r="T78" s="140"/>
-      <c r="U78" s="140"/>
-      <c r="V78" s="140"/>
-      <c r="W78" s="140"/>
-      <c r="X78" s="137"/>
-      <c r="Y78" s="142"/>
-      <c r="Z78" s="142"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="90"/>
+      <c r="K78" s="90"/>
+      <c r="L78" s="90"/>
+      <c r="M78" s="90"/>
+      <c r="N78" s="90"/>
+      <c r="O78" s="90"/>
+      <c r="P78" s="90"/>
+      <c r="Q78" s="90"/>
+      <c r="R78" s="90"/>
+      <c r="S78" s="90"/>
+      <c r="T78" s="90"/>
+      <c r="U78" s="90"/>
+      <c r="V78" s="90"/>
+      <c r="W78" s="90"/>
+      <c r="X78" s="87"/>
+      <c r="Y78" s="92"/>
+      <c r="Z78" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E7:U7"/>
+    <mergeCell ref="B5:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E18:U18"/>
+    <mergeCell ref="E29:U29"/>
+    <mergeCell ref="E40:U40"/>
+    <mergeCell ref="E51:U51"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="B27:Z28"/>
+    <mergeCell ref="B38:Z39"/>
+    <mergeCell ref="B49:Z50"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="B60:Z61"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A60:A64"/>
@@ -7128,51 +7177,6 @@
     <mergeCell ref="T54:Z57"/>
     <mergeCell ref="T65:Z68"/>
     <mergeCell ref="B16:Z17"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="B60:Z61"/>
-    <mergeCell ref="E18:U18"/>
-    <mergeCell ref="E29:U29"/>
-    <mergeCell ref="E40:U40"/>
-    <mergeCell ref="E51:U51"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="B27:Z28"/>
-    <mergeCell ref="B38:Z39"/>
-    <mergeCell ref="B49:Z50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E7:U7"/>
-    <mergeCell ref="B5:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
@@ -7192,21 +7196,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="51.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="13" spans="3:3">
-      <c r="C13" s="7">
+      <c r="C13" s="2">
         <v>4.1029598277810499E+18</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="7">
+      <c r="C14" s="2">
         <v>4.5751844712808699E+18</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="7">
+      <c r="C15" s="2">
         <f>C14-C13</f>
         <v>4.7222464349982003E+17</v>
       </c>

--- a/test/scenarios/Rebalance_Test.xlsx
+++ b/test/scenarios/Rebalance_Test.xlsx
@@ -1679,88 +1679,97 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1775,16 +1784,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,40 +1793,40 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2991,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N31" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -3008,15 +3008,16 @@
     <col min="9" max="9" width="122.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="65" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="25.21875" style="95" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.33203125" style="2" customWidth="1"/>
@@ -3024,32 +3025,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.6" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="141"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="100"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
@@ -3147,65 +3148,65 @@
       <c r="Z4" s="21"/>
     </row>
     <row r="5" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A5" s="135"/>
-      <c r="B5" s="142" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="144"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="113"/>
     </row>
     <row r="6" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="134"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="117"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
@@ -3217,23 +3218,23 @@
         <f>B9/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="109"/>
       <c r="V7" s="22" t="s">
         <v>4</v>
       </c>
@@ -3249,7 +3250,7 @@
       <c r="Z7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A8" s="100"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
@@ -3327,7 +3328,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="39.9" customHeight="1">
-      <c r="A9" s="101"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="30">
         <f>3060.35619083117</f>
         <v>3060.3561908311699</v>
@@ -3426,7 +3427,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -3468,23 +3469,23 @@
       <c r="N10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="129" t="s">
+      <c r="O10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="109"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="131"/>
     </row>
     <row r="11" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A11" s="96"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="39">
         <f>SQRT(B9*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -3536,27 +3537,27 @@
         <f>M11-($B$3*E11)*B11</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O11" s="128" t="s">
+      <c r="O11" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="128" t="s">
+      <c r="P11" s="102"/>
+      <c r="Q11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="108"/>
+      <c r="R11" s="102"/>
       <c r="S11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="110"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="109"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="131"/>
     </row>
     <row r="12" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="34" t="s">
@@ -3617,16 +3618,16 @@
         <f>(P13-Q12)/2*(1-0.0003)</f>
         <v>-0.42613940834773056</v>
       </c>
-      <c r="T12" s="110"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="109"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="131"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1">
-      <c r="A13" s="97"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="48">
         <f>SQRT(V9*10^6/10^18)*2^96</f>
         <v>4.3972388145443278E+24</v>
@@ -3694,13 +3695,13 @@
         <v>10000.426139408348</v>
       </c>
       <c r="S13" s="56"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="117"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="142"/>
     </row>
     <row r="14" spans="1:26" ht="21.3" customHeight="1">
       <c r="A14" s="57"/>
@@ -3759,65 +3760,65 @@
       <c r="Z15" s="59"/>
     </row>
     <row r="16" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="124" t="s">
+      <c r="A16" s="125"/>
+      <c r="B16" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="126"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="129"/>
     </row>
     <row r="17" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="127"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="130"/>
     </row>
     <row r="18" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="22" t="s">
         <v>4</v>
       </c>
@@ -3829,23 +3830,23 @@
         <f>B20/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="104"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="109"/>
       <c r="V18" s="22" t="s">
         <v>4</v>
       </c>
@@ -3861,7 +3862,7 @@
       <c r="Z18" s="119"/>
     </row>
     <row r="19" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="25" t="s">
         <v>5</v>
       </c>
@@ -3939,7 +3940,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="40.5" customHeight="1">
-      <c r="A20" s="101"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="30">
         <f t="shared" ref="B20:B53" si="1">3060.35619083117</f>
         <v>3060.3561908311699</v>
@@ -3981,14 +3982,15 @@
         <v>3.26787207467537</v>
       </c>
       <c r="L20" s="31">
-        <f>F20+J20+N20</f>
-        <v>15112.241467</v>
+        <f>15112.232914</f>
+        <v>15112.232914</v>
       </c>
       <c r="M20" s="31">
         <v>0</v>
       </c>
       <c r="N20" s="31">
-        <v>5112.2414669999998</v>
+        <f>L20-F22/1000000</f>
+        <v>5112.2329140000002</v>
       </c>
       <c r="O20" s="31">
         <v>3060.3561909999999</v>
@@ -3999,23 +4001,23 @@
       </c>
       <c r="Q20" s="31">
         <f>IF(S23&gt;0,S23,0)</f>
-        <v>2554.9277575958281</v>
+        <v>2554.9234823787783</v>
       </c>
       <c r="R20" s="31">
         <f>R23</f>
-        <v>4.1027186082617044</v>
+        <v>4.1027172112945598</v>
       </c>
       <c r="S20" s="31">
         <f>R24</f>
-        <v>12557.313709404172</v>
+        <v>12557.309431621223</v>
       </c>
       <c r="T20" s="31">
         <f>R20*$B$3</f>
-        <v>0.41027186082617045</v>
+        <v>0.41027172112945598</v>
       </c>
       <c r="U20" s="31">
         <f>S20*$B$3</f>
-        <v>1255.7313709404173</v>
+        <v>1255.7309431621225</v>
       </c>
       <c r="V20" s="31">
         <v>3060.3561909999999</v>
@@ -4030,15 +4032,15 @@
       </c>
       <c r="Y20" s="32">
         <f>(G24/T20)-1</f>
-        <v>1.3413627060614663E-2</v>
+        <v>1.3413627060614886E-2</v>
       </c>
       <c r="Z20" s="33">
         <f>(H24/U20)-1</f>
-        <v>6.8655601523872622E-3</v>
+        <v>6.8655603162603995E-3</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -4080,23 +4082,23 @@
       <c r="N21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="129" t="s">
+      <c r="O21" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="109"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="131"/>
     </row>
     <row r="22" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A22" s="96"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="39">
         <f>SQRT(B20*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -4148,27 +4150,27 @@
         <f>M22-(0.1*E22)*B22</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O22" s="128" t="s">
+      <c r="O22" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="128" t="s">
+      <c r="P22" s="102"/>
+      <c r="Q22" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="108"/>
+      <c r="R22" s="102"/>
       <c r="S22" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="110"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="111"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="109"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="115"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="131"/>
     </row>
     <row r="23" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="34" t="s">
@@ -4223,29 +4225,29 @@
       </c>
       <c r="R23" s="47">
         <f>P23+(S23/O20)</f>
-        <v>4.1027186082617044</v>
+        <v>4.1027172112945598</v>
       </c>
       <c r="S23" s="47">
         <f>(P24-Q23)/2*(1-0.0003)</f>
-        <v>2554.9277575958281</v>
-      </c>
-      <c r="T23" s="110"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="109"/>
+        <v>2554.9234823787783</v>
+      </c>
+      <c r="T23" s="136"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="115"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="131"/>
     </row>
     <row r="24" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A24" s="97"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="48">
         <f>SQRT(V20*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
       </c>
       <c r="C24" s="49">
         <f>B24-$B$3*F24*POWER(2,96)/L24</f>
-        <v>3.9445928942429745E+24</v>
+        <v>3.9445928943143177E+24</v>
       </c>
       <c r="D24" s="49">
         <f>M24*B24/N24</f>
@@ -4253,66 +4255,66 @@
       </c>
       <c r="E24" s="49">
         <f>R20*10^18</f>
-        <v>4.1027186082617042E+18</v>
+        <v>4.1027172112945597E+18</v>
       </c>
       <c r="F24" s="49">
         <f>S20*10^6</f>
-        <v>12557313709.404173</v>
+        <v>12557309431.621223</v>
       </c>
       <c r="G24" s="50">
         <f>(M24-(M24*B24)/(SQRT(1/(1.0001^X20)*2^96*2^96/10^6)*10^3))/B24/10^18</f>
-        <v>0.41577509456075712</v>
+        <v>0.41577495299020312</v>
       </c>
       <c r="H24" s="50">
         <f>(B24-(SQRT(1/(1.0001^W20)*2^96*2^96)))*L24/POWER(2,96)/10^6</f>
-        <v>1264.3526702028485</v>
+        <v>1264.3522396933965</v>
       </c>
       <c r="I24" s="49">
         <v>9.9999999999999997E+98</v>
       </c>
       <c r="J24" s="49">
         <f>(E24)*(B24*I24)/POWER(2,96)/(I24-B24)</f>
-        <v>226964388061666.72</v>
+        <v>226964310780765.09</v>
       </c>
       <c r="K24" s="49">
         <f>(F24)*POWER(2,96)/(B24-0)</f>
-        <v>226992106846975.69</v>
+        <v>226992029519691.62</v>
       </c>
       <c r="L24" s="49">
         <f>MIN(J24,K24)</f>
-        <v>226964388061666.72</v>
+        <v>226964310780765.09</v>
       </c>
       <c r="M24" s="49">
         <f>L24*POWER(2,96)</f>
-        <v>1.7981971422300287E+43</v>
+        <v>1.7981965299476454E+43</v>
       </c>
       <c r="N24" s="51">
         <f>M24-(0.1*E24)*B24</f>
-        <v>1.618377428007026E+43</v>
+        <v>1.618376876952881E+43</v>
       </c>
       <c r="O24" s="52" t="s">
         <v>49</v>
       </c>
       <c r="P24" s="53">
         <f>L20</f>
-        <v>15112.241467</v>
+        <v>15112.232914</v>
       </c>
       <c r="Q24" s="54">
         <f>P24/O20</f>
-        <v>4.9380662000856619</v>
+        <v>4.9380634053129411</v>
       </c>
       <c r="R24" s="55">
         <f>P24-S23</f>
-        <v>12557.313709404172</v>
+        <v>12557.309431621223</v>
       </c>
       <c r="S24" s="56"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="114"/>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="117"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="141"/>
+      <c r="Z24" s="142"/>
     </row>
     <row r="25" spans="1:26" ht="21.3" customHeight="1">
       <c r="A25" s="57"/>
@@ -4371,65 +4373,65 @@
       <c r="Z26" s="59"/>
     </row>
     <row r="27" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="124" t="s">
+      <c r="A27" s="125"/>
+      <c r="B27" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="125"/>
-      <c r="Z27" s="126"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="129"/>
     </row>
     <row r="28" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="127"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="130"/>
     </row>
     <row r="29" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="22" t="s">
         <v>4</v>
       </c>
@@ -4441,23 +4443,23 @@
         <f>B31/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="104"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="109"/>
       <c r="V29" s="22" t="s">
         <v>4</v>
       </c>
@@ -4473,7 +4475,7 @@
       <c r="Z29" s="119"/>
     </row>
     <row r="30" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="25" t="s">
         <v>5</v>
       </c>
@@ -4551,7 +4553,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="40.35" customHeight="1">
-      <c r="A31" s="101"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -4651,7 +4653,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="34" t="s">
@@ -4693,23 +4695,23 @@
       <c r="N32" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="129" t="s">
+      <c r="O32" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="109"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="131"/>
     </row>
     <row r="33" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A33" s="96"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="39">
         <f>SQRT(B31*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -4761,27 +4763,27 @@
         <f>M33-(0.1*E33)*B33</f>
         <v>1.5966769901727963E+43</v>
       </c>
-      <c r="O33" s="128" t="s">
+      <c r="O33" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="128" t="s">
+      <c r="P33" s="102"/>
+      <c r="Q33" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="108"/>
+      <c r="R33" s="102"/>
       <c r="S33" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="110"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="108"/>
-      <c r="Z33" s="109"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="131"/>
     </row>
     <row r="34" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="34" t="s">
@@ -4842,16 +4844,16 @@
         <f>(P35-Q34)/2*(1-0.0003)</f>
         <v>-726.20415820028688</v>
       </c>
-      <c r="T34" s="110"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
-      <c r="W34" s="111"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="108"/>
-      <c r="Z34" s="109"/>
+      <c r="T34" s="136"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="137"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="131"/>
     </row>
     <row r="35" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A35" s="97"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="48">
         <f>SQRT(V31*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -4919,13 +4921,13 @@
         <v>13275.054110200288</v>
       </c>
       <c r="S35" s="56"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="117"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="139"/>
+      <c r="V35" s="139"/>
+      <c r="W35" s="139"/>
+      <c r="X35" s="140"/>
+      <c r="Y35" s="141"/>
+      <c r="Z35" s="142"/>
     </row>
     <row r="36" spans="1:26" ht="21.3" customHeight="1">
       <c r="A36" s="57"/>
@@ -4984,65 +4986,65 @@
       <c r="Z37" s="59"/>
     </row>
     <row r="38" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="124" t="s">
+      <c r="A38" s="125"/>
+      <c r="B38" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="120"/>
-      <c r="X38" s="120"/>
-      <c r="Y38" s="125"/>
-      <c r="Z38" s="126"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="128"/>
+      <c r="Z38" s="129"/>
     </row>
     <row r="39" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A39" s="99"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="120"/>
-      <c r="Z39" s="127"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
+      <c r="R39" s="115"/>
+      <c r="S39" s="115"/>
+      <c r="T39" s="115"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="130"/>
     </row>
     <row r="40" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A40" s="100"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
@@ -5054,23 +5056,23 @@
         <f>B42/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E40" s="102"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="103"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="103"/>
-      <c r="T40" s="103"/>
-      <c r="U40" s="104"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="109"/>
       <c r="V40" s="22" t="s">
         <v>4</v>
       </c>
@@ -5086,7 +5088,7 @@
       <c r="Z40" s="119"/>
     </row>
     <row r="41" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A41" s="100"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="25" t="s">
         <v>5</v>
       </c>
@@ -5164,7 +5166,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="40.799999999999997" customHeight="1">
-      <c r="A42" s="101"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -5264,7 +5266,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -5306,23 +5308,23 @@
       <c r="N43" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O43" s="129" t="s">
+      <c r="O43" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="130"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="131"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="105"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="107"/>
-      <c r="Y43" s="108"/>
-      <c r="Z43" s="109"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="116"/>
+      <c r="W43" s="116"/>
+      <c r="X43" s="135"/>
+      <c r="Y43" s="102"/>
+      <c r="Z43" s="131"/>
     </row>
     <row r="44" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A44" s="96"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="39">
         <f>SQRT(B42*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -5374,27 +5376,27 @@
         <f>M44-(0.1*E44)*B44</f>
         <v>1.7108169422649108E+43</v>
       </c>
-      <c r="O44" s="128" t="s">
+      <c r="O44" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="128" t="s">
+      <c r="P44" s="102"/>
+      <c r="Q44" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R44" s="108"/>
+      <c r="R44" s="102"/>
       <c r="S44" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="T44" s="110"/>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="112"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="109"/>
+      <c r="T44" s="136"/>
+      <c r="U44" s="115"/>
+      <c r="V44" s="115"/>
+      <c r="W44" s="115"/>
+      <c r="X44" s="137"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="131"/>
     </row>
     <row r="45" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="34" t="s">
@@ -5455,16 +5457,16 @@
         <f>(P46-Q45)/2*(1-0.0003)</f>
         <v>-9.6591083419882153</v>
       </c>
-      <c r="T45" s="110"/>
-      <c r="U45" s="111"/>
-      <c r="V45" s="111"/>
-      <c r="W45" s="111"/>
-      <c r="X45" s="112"/>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="109"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="115"/>
+      <c r="V45" s="115"/>
+      <c r="W45" s="115"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="102"/>
+      <c r="Z45" s="131"/>
     </row>
     <row r="46" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A46" s="97"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="48">
         <f>SQRT(V42*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -5532,13 +5534,13 @@
         <v>13263.284455341987</v>
       </c>
       <c r="S46" s="56"/>
-      <c r="T46" s="113"/>
-      <c r="U46" s="114"/>
-      <c r="V46" s="114"/>
-      <c r="W46" s="114"/>
-      <c r="X46" s="115"/>
-      <c r="Y46" s="116"/>
-      <c r="Z46" s="117"/>
+      <c r="T46" s="138"/>
+      <c r="U46" s="139"/>
+      <c r="V46" s="139"/>
+      <c r="W46" s="139"/>
+      <c r="X46" s="140"/>
+      <c r="Y46" s="141"/>
+      <c r="Z46" s="142"/>
     </row>
     <row r="47" spans="1:26" ht="21.3" customHeight="1">
       <c r="A47" s="57"/>
@@ -5597,65 +5599,65 @@
       <c r="Z48" s="59"/>
     </row>
     <row r="49" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="124" t="s">
+      <c r="A49" s="125"/>
+      <c r="B49" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="120"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="120"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="120"/>
-      <c r="T49" s="120"/>
-      <c r="U49" s="120"/>
-      <c r="V49" s="120"/>
-      <c r="W49" s="120"/>
-      <c r="X49" s="120"/>
-      <c r="Y49" s="125"/>
-      <c r="Z49" s="126"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="128"/>
+      <c r="Z49" s="129"/>
     </row>
     <row r="50" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A50" s="99"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="103"/>
-      <c r="W50" s="103"/>
-      <c r="X50" s="103"/>
-      <c r="Y50" s="120"/>
-      <c r="Z50" s="127"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="115"/>
+      <c r="M50" s="115"/>
+      <c r="N50" s="115"/>
+      <c r="O50" s="115"/>
+      <c r="P50" s="115"/>
+      <c r="Q50" s="115"/>
+      <c r="R50" s="115"/>
+      <c r="S50" s="115"/>
+      <c r="T50" s="115"/>
+      <c r="U50" s="115"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="108"/>
+      <c r="X50" s="108"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="130"/>
     </row>
     <row r="51" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A51" s="100"/>
+      <c r="A51" s="123"/>
       <c r="B51" s="22" t="s">
         <v>4</v>
       </c>
@@ -5667,23 +5669,23 @@
         <f>B53/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E51" s="102"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="103"/>
-      <c r="R51" s="103"/>
-      <c r="S51" s="103"/>
-      <c r="T51" s="103"/>
-      <c r="U51" s="104"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="108"/>
+      <c r="T51" s="108"/>
+      <c r="U51" s="109"/>
       <c r="V51" s="22" t="s">
         <v>4</v>
       </c>
@@ -5699,7 +5701,7 @@
       <c r="Z51" s="119"/>
     </row>
     <row r="52" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A52" s="100"/>
+      <c r="A52" s="123"/>
       <c r="B52" s="25" t="s">
         <v>5</v>
       </c>
@@ -5777,7 +5779,7 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="40.65" customHeight="1">
-      <c r="A53" s="101"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -5878,7 +5880,7 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A54" s="96" t="s">
+      <c r="A54" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="34" t="s">
@@ -5920,23 +5922,23 @@
       <c r="N54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O54" s="129" t="s">
+      <c r="O54" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P54" s="130"/>
-      <c r="Q54" s="130"/>
-      <c r="R54" s="131"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="105"/>
-      <c r="U54" s="106"/>
-      <c r="V54" s="106"/>
-      <c r="W54" s="106"/>
-      <c r="X54" s="107"/>
-      <c r="Y54" s="108"/>
-      <c r="Z54" s="109"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="105"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="134"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="116"/>
+      <c r="W54" s="116"/>
+      <c r="X54" s="135"/>
+      <c r="Y54" s="102"/>
+      <c r="Z54" s="131"/>
     </row>
     <row r="55" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A55" s="96"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="39">
         <f>SQRT(B53*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -5988,27 +5990,27 @@
         <f>M55-(0.1*E55)*B55</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O55" s="128" t="s">
+      <c r="O55" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P55" s="108"/>
-      <c r="Q55" s="128" t="s">
+      <c r="P55" s="102"/>
+      <c r="Q55" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R55" s="108"/>
+      <c r="R55" s="102"/>
       <c r="S55" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T55" s="110"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="111"/>
-      <c r="X55" s="112"/>
-      <c r="Y55" s="108"/>
-      <c r="Z55" s="109"/>
+      <c r="T55" s="136"/>
+      <c r="U55" s="115"/>
+      <c r="V55" s="115"/>
+      <c r="W55" s="115"/>
+      <c r="X55" s="137"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="131"/>
     </row>
     <row r="56" spans="1:26" ht="32.85" customHeight="1">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B56" s="34" t="s">
@@ -6069,16 +6071,16 @@
         <f>(P57-Q56)/2*(1-0.0003)</f>
         <v>3265.8246085298442</v>
       </c>
-      <c r="T56" s="110"/>
-      <c r="U56" s="111"/>
-      <c r="V56" s="111"/>
-      <c r="W56" s="111"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="108"/>
-      <c r="Z56" s="109"/>
+      <c r="T56" s="136"/>
+      <c r="U56" s="115"/>
+      <c r="V56" s="115"/>
+      <c r="W56" s="115"/>
+      <c r="X56" s="137"/>
+      <c r="Y56" s="102"/>
+      <c r="Z56" s="131"/>
     </row>
     <row r="57" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A57" s="97"/>
+      <c r="A57" s="120"/>
       <c r="B57" s="48">
         <f>SQRT(V53*10^6/10^18)*2^96</f>
         <v>3.1336255121447264E+24</v>
@@ -6146,13 +6148,13 @@
         <v>7861.8693714701558</v>
       </c>
       <c r="S57" s="56"/>
-      <c r="T57" s="113"/>
-      <c r="U57" s="114"/>
-      <c r="V57" s="114"/>
-      <c r="W57" s="114"/>
-      <c r="X57" s="115"/>
-      <c r="Y57" s="116"/>
-      <c r="Z57" s="117"/>
+      <c r="T57" s="138"/>
+      <c r="U57" s="139"/>
+      <c r="V57" s="139"/>
+      <c r="W57" s="139"/>
+      <c r="X57" s="140"/>
+      <c r="Y57" s="141"/>
+      <c r="Z57" s="142"/>
     </row>
     <row r="58" spans="1:26" ht="21.3" customHeight="1">
       <c r="A58" s="57"/>
@@ -6211,65 +6213,65 @@
       <c r="Z59" s="67"/>
     </row>
     <row r="60" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="98"/>
+      <c r="A60" s="125"/>
       <c r="B60" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="106"/>
-      <c r="O60" s="106"/>
-      <c r="P60" s="106"/>
-      <c r="Q60" s="106"/>
-      <c r="R60" s="106"/>
-      <c r="S60" s="106"/>
-      <c r="T60" s="106"/>
-      <c r="U60" s="106"/>
-      <c r="V60" s="106"/>
-      <c r="W60" s="106"/>
-      <c r="X60" s="106"/>
-      <c r="Y60" s="130"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
+      <c r="M60" s="116"/>
+      <c r="N60" s="116"/>
+      <c r="O60" s="116"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="116"/>
+      <c r="R60" s="116"/>
+      <c r="S60" s="116"/>
+      <c r="T60" s="116"/>
+      <c r="U60" s="116"/>
+      <c r="V60" s="116"/>
+      <c r="W60" s="116"/>
+      <c r="X60" s="116"/>
+      <c r="Y60" s="104"/>
       <c r="Z60" s="133"/>
     </row>
     <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="99"/>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="111"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
-      <c r="S61" s="111"/>
-      <c r="T61" s="111"/>
-      <c r="U61" s="111"/>
-      <c r="V61" s="103"/>
-      <c r="W61" s="103"/>
-      <c r="X61" s="103"/>
-      <c r="Y61" s="106"/>
-      <c r="Z61" s="134"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
+      <c r="L61" s="115"/>
+      <c r="M61" s="115"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="115"/>
+      <c r="T61" s="115"/>
+      <c r="U61" s="115"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
+      <c r="Y61" s="116"/>
+      <c r="Z61" s="117"/>
     </row>
     <row r="62" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="100"/>
+      <c r="A62" s="123"/>
       <c r="B62" s="22" t="s">
         <v>4</v>
       </c>
@@ -6281,23 +6283,23 @@
         <f>B64/0.81</f>
         <v>3778.1061728382715</v>
       </c>
-      <c r="E62" s="102"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
-      <c r="L62" s="103"/>
-      <c r="M62" s="103"/>
-      <c r="N62" s="103"/>
-      <c r="O62" s="103"/>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="103"/>
-      <c r="R62" s="103"/>
-      <c r="S62" s="103"/>
-      <c r="T62" s="103"/>
-      <c r="U62" s="104"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="108"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="108"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="108"/>
+      <c r="S62" s="108"/>
+      <c r="T62" s="108"/>
+      <c r="U62" s="109"/>
       <c r="V62" s="22" t="s">
         <v>4</v>
       </c>
@@ -6313,7 +6315,7 @@
       <c r="Z62" s="119"/>
     </row>
     <row r="63" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="100"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="68" t="s">
         <v>5</v>
       </c>
@@ -6391,7 +6393,7 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="36" customHeight="1">
-      <c r="A64" s="101"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="69">
         <f t="shared" ref="B64:D70" si="3">3060.265999999</f>
         <v>3060.2659999990001</v>
@@ -6490,7 +6492,7 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="34" t="s">
@@ -6532,23 +6534,23 @@
       <c r="N65" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O65" s="129" t="s">
+      <c r="O65" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P65" s="130"/>
-      <c r="Q65" s="130"/>
-      <c r="R65" s="131"/>
-      <c r="S65" s="109"/>
-      <c r="T65" s="98"/>
-      <c r="U65" s="120"/>
-      <c r="V65" s="120"/>
-      <c r="W65" s="106"/>
-      <c r="X65" s="107"/>
-      <c r="Y65" s="121"/>
-      <c r="Z65" s="122"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="105"/>
+      <c r="S65" s="131"/>
+      <c r="T65" s="125"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="111"/>
+      <c r="W65" s="116"/>
+      <c r="X65" s="135"/>
+      <c r="Y65" s="143"/>
+      <c r="Z65" s="144"/>
     </row>
     <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="96"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="39">
         <f>SQRT(B64*10^6/10^18)*2^96</f>
         <v>4.382875884546422E+24</v>
@@ -6600,27 +6602,27 @@
         <f>M66-($B$3*E66)*B66</f>
         <v>1.2889611060943387E+43</v>
       </c>
-      <c r="O66" s="128" t="s">
+      <c r="O66" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="128" t="s">
+      <c r="P66" s="102"/>
+      <c r="Q66" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R66" s="108"/>
+      <c r="R66" s="102"/>
       <c r="S66" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="T66" s="99"/>
-      <c r="U66" s="111"/>
-      <c r="V66" s="111"/>
-      <c r="W66" s="111"/>
-      <c r="X66" s="112"/>
-      <c r="Y66" s="108"/>
-      <c r="Z66" s="109"/>
+      <c r="T66" s="126"/>
+      <c r="U66" s="115"/>
+      <c r="V66" s="115"/>
+      <c r="W66" s="115"/>
+      <c r="X66" s="137"/>
+      <c r="Y66" s="102"/>
+      <c r="Z66" s="131"/>
     </row>
     <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="96" t="s">
+      <c r="A67" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="34" t="s">
@@ -6681,16 +6683,16 @@
         <f>(P68-Q67)/2*(1-0.0003)</f>
         <v>-0.42613968412199249</v>
       </c>
-      <c r="T67" s="99"/>
-      <c r="U67" s="111"/>
-      <c r="V67" s="111"/>
-      <c r="W67" s="111"/>
-      <c r="X67" s="112"/>
-      <c r="Y67" s="108"/>
-      <c r="Z67" s="109"/>
+      <c r="T67" s="126"/>
+      <c r="U67" s="115"/>
+      <c r="V67" s="115"/>
+      <c r="W67" s="115"/>
+      <c r="X67" s="137"/>
+      <c r="Y67" s="102"/>
+      <c r="Z67" s="131"/>
     </row>
     <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="97"/>
+      <c r="A68" s="120"/>
       <c r="B68" s="48">
         <f>SQRT(V64*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -6758,13 +6760,13 @@
         <v>10000.426139684121</v>
       </c>
       <c r="S68" s="75"/>
-      <c r="T68" s="123"/>
-      <c r="U68" s="114"/>
-      <c r="V68" s="114"/>
-      <c r="W68" s="114"/>
-      <c r="X68" s="115"/>
-      <c r="Y68" s="116"/>
-      <c r="Z68" s="117"/>
+      <c r="T68" s="145"/>
+      <c r="U68" s="139"/>
+      <c r="V68" s="139"/>
+      <c r="W68" s="139"/>
+      <c r="X68" s="140"/>
+      <c r="Y68" s="141"/>
+      <c r="Z68" s="142"/>
     </row>
     <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="76"/>
@@ -7116,28 +7118,29 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E7:U7"/>
-    <mergeCell ref="B5:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="E62:U62"/>
+    <mergeCell ref="T10:Z13"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="T21:Z24"/>
+    <mergeCell ref="T32:Z35"/>
+    <mergeCell ref="T43:Z46"/>
+    <mergeCell ref="T54:Z57"/>
+    <mergeCell ref="T65:Z68"/>
+    <mergeCell ref="B16:Z17"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="B60:Z61"/>
     <mergeCell ref="E18:U18"/>
     <mergeCell ref="E29:U29"/>
     <mergeCell ref="E40:U40"/>
@@ -7154,29 +7157,28 @@
     <mergeCell ref="B27:Z28"/>
     <mergeCell ref="B38:Z39"/>
     <mergeCell ref="B49:Z50"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="B60:Z61"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="E62:U62"/>
-    <mergeCell ref="T10:Z13"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="Y62:Z62"/>
-    <mergeCell ref="T21:Z24"/>
-    <mergeCell ref="T32:Z35"/>
-    <mergeCell ref="T43:Z46"/>
-    <mergeCell ref="T54:Z57"/>
-    <mergeCell ref="T65:Z68"/>
-    <mergeCell ref="B16:Z17"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E7:U7"/>
+    <mergeCell ref="B5:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait" r:id="rId1"/>

--- a/test/scenarios/Rebalance_Test.xlsx
+++ b/test/scenarios/Rebalance_Test.xlsx
@@ -1679,6 +1679,129 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,39 +1817,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1734,99 +1827,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2991,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -3019,38 +3019,39 @@
     <col min="21" max="21" width="35.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="25.21875" style="95" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.21875" style="95" customWidth="1"/>
+    <col min="26" max="26" width="25.21875" style="95" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.33203125" style="2" customWidth="1"/>
     <col min="28" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.6" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="100"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="141"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
@@ -3148,65 +3149,65 @@
       <c r="Z4" s="21"/>
     </row>
     <row r="5" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="110" t="s">
+      <c r="A5" s="135"/>
+      <c r="B5" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="113"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="144"/>
     </row>
     <row r="6" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="117"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="134"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A7" s="123"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
@@ -3218,23 +3219,23 @@
         <f>B9/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="109"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="104"/>
       <c r="V7" s="22" t="s">
         <v>4</v>
       </c>
@@ -3250,7 +3251,7 @@
       <c r="Z7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A8" s="123"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3329,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="39.9" customHeight="1">
-      <c r="A9" s="124"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="30">
         <f>3060.35619083117</f>
         <v>3060.3561908311699</v>
@@ -3427,7 +3428,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -3469,23 +3470,23 @@
       <c r="N10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="103" t="s">
+      <c r="O10" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="131"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="109"/>
     </row>
     <row r="11" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A11" s="106"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="39">
         <f>SQRT(B9*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -3537,27 +3538,27 @@
         <f>M11-($B$3*E11)*B11</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O11" s="101" t="s">
+      <c r="O11" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="101" t="s">
+      <c r="P11" s="108"/>
+      <c r="Q11" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="102"/>
+      <c r="R11" s="108"/>
       <c r="S11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="136"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="115"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="131"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="34" t="s">
@@ -3618,16 +3619,16 @@
         <f>(P13-Q12)/2*(1-0.0003)</f>
         <v>-0.42613940834773056</v>
       </c>
-      <c r="T12" s="136"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="131"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="109"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1">
-      <c r="A13" s="120"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="48">
         <f>SQRT(V9*10^6/10^18)*2^96</f>
         <v>4.3972388145443278E+24</v>
@@ -3695,13 +3696,13 @@
         <v>10000.426139408348</v>
       </c>
       <c r="S13" s="56"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="142"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="117"/>
     </row>
     <row r="14" spans="1:26" ht="21.3" customHeight="1">
       <c r="A14" s="57"/>
@@ -3760,65 +3761,65 @@
       <c r="Z15" s="59"/>
     </row>
     <row r="16" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A16" s="125"/>
-      <c r="B16" s="127" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="129"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="126"/>
     </row>
     <row r="17" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A17" s="126"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="130"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="127"/>
     </row>
     <row r="18" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A18" s="123"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="22" t="s">
         <v>4</v>
       </c>
@@ -3830,23 +3831,23 @@
         <f>B20/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="109"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="104"/>
       <c r="V18" s="22" t="s">
         <v>4</v>
       </c>
@@ -3862,7 +3863,7 @@
       <c r="Z18" s="119"/>
     </row>
     <row r="19" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A19" s="123"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="25" t="s">
         <v>5</v>
       </c>
@@ -3940,7 +3941,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="40.5" customHeight="1">
-      <c r="A20" s="124"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="30">
         <f t="shared" ref="B20:B53" si="1">3060.35619083117</f>
         <v>3060.3561908311699</v>
@@ -4040,7 +4041,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -4082,23 +4083,23 @@
       <c r="N21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="103" t="s">
+      <c r="O21" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="131"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="109"/>
     </row>
     <row r="22" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A22" s="106"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="39">
         <f>SQRT(B20*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -4112,7 +4113,7 @@
         <v>4.8699799860470599E+24</v>
       </c>
       <c r="E22" s="41">
-        <f t="shared" si="0"/>
+        <f>3267872074675370000</f>
         <v>3.26787207467537E+18</v>
       </c>
       <c r="F22" s="41">
@@ -4150,27 +4151,27 @@
         <f>M22-(0.1*E22)*B22</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O22" s="101" t="s">
+      <c r="O22" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="101" t="s">
+      <c r="P22" s="108"/>
+      <c r="Q22" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="102"/>
+      <c r="R22" s="108"/>
       <c r="S22" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="136"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="115"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="131"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="109"/>
     </row>
     <row r="23" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="34" t="s">
@@ -4231,16 +4232,16 @@
         <f>(P24-Q23)/2*(1-0.0003)</f>
         <v>2554.9234823787783</v>
       </c>
-      <c r="T23" s="136"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="115"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="131"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="109"/>
     </row>
     <row r="24" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A24" s="120"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="48">
         <f>SQRT(V20*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -4308,13 +4309,13 @@
         <v>12557.309431621223</v>
       </c>
       <c r="S24" s="56"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="140"/>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="142"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="117"/>
     </row>
     <row r="25" spans="1:26" ht="21.3" customHeight="1">
       <c r="A25" s="57"/>
@@ -4373,65 +4374,65 @@
       <c r="Z26" s="59"/>
     </row>
     <row r="27" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="127" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="129"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="126"/>
     </row>
     <row r="28" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="108"/>
-      <c r="W28" s="108"/>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="130"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="127"/>
     </row>
     <row r="29" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A29" s="123"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="22" t="s">
         <v>4</v>
       </c>
@@ -4443,23 +4444,23 @@
         <f>B31/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="109"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="104"/>
       <c r="V29" s="22" t="s">
         <v>4</v>
       </c>
@@ -4475,7 +4476,7 @@
       <c r="Z29" s="119"/>
     </row>
     <row r="30" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A30" s="123"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="25" t="s">
         <v>5</v>
       </c>
@@ -4553,7 +4554,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="40.35" customHeight="1">
-      <c r="A31" s="124"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -4653,7 +4654,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="34" t="s">
@@ -4695,23 +4696,23 @@
       <c r="N32" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="103" t="s">
+      <c r="O32" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="131"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="109"/>
     </row>
     <row r="33" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A33" s="106"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="39">
         <f>SQRT(B31*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -4763,27 +4764,27 @@
         <f>M33-(0.1*E33)*B33</f>
         <v>1.5966769901727963E+43</v>
       </c>
-      <c r="O33" s="101" t="s">
+      <c r="O33" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="101" t="s">
+      <c r="P33" s="108"/>
+      <c r="Q33" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="102"/>
+      <c r="R33" s="108"/>
       <c r="S33" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="136"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="131"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="109"/>
     </row>
     <row r="34" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="34" t="s">
@@ -4844,16 +4845,16 @@
         <f>(P35-Q34)/2*(1-0.0003)</f>
         <v>-726.20415820028688</v>
       </c>
-      <c r="T34" s="136"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="115"/>
-      <c r="W34" s="115"/>
-      <c r="X34" s="137"/>
-      <c r="Y34" s="102"/>
-      <c r="Z34" s="131"/>
+      <c r="T34" s="110"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="109"/>
     </row>
     <row r="35" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A35" s="120"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="48">
         <f>SQRT(V31*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -4921,13 +4922,13 @@
         <v>13275.054110200288</v>
       </c>
       <c r="S35" s="56"/>
-      <c r="T35" s="138"/>
-      <c r="U35" s="139"/>
-      <c r="V35" s="139"/>
-      <c r="W35" s="139"/>
-      <c r="X35" s="140"/>
-      <c r="Y35" s="141"/>
-      <c r="Z35" s="142"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="117"/>
     </row>
     <row r="36" spans="1:26" ht="21.3" customHeight="1">
       <c r="A36" s="57"/>
@@ -4986,65 +4987,65 @@
       <c r="Z37" s="59"/>
     </row>
     <row r="38" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A38" s="125"/>
-      <c r="B38" s="127" t="s">
+      <c r="A38" s="98"/>
+      <c r="B38" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="111"/>
-      <c r="W38" s="111"/>
-      <c r="X38" s="111"/>
-      <c r="Y38" s="128"/>
-      <c r="Z38" s="129"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="120"/>
+      <c r="X38" s="120"/>
+      <c r="Y38" s="125"/>
+      <c r="Z38" s="126"/>
     </row>
     <row r="39" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A39" s="126"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="115"/>
-      <c r="R39" s="115"/>
-      <c r="S39" s="115"/>
-      <c r="T39" s="115"/>
-      <c r="U39" s="115"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="130"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="103"/>
+      <c r="X39" s="103"/>
+      <c r="Y39" s="120"/>
+      <c r="Z39" s="127"/>
     </row>
     <row r="40" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A40" s="123"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
@@ -5056,23 +5057,23 @@
         <f>B42/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E40" s="107"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="109"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="104"/>
       <c r="V40" s="22" t="s">
         <v>4</v>
       </c>
@@ -5088,7 +5089,7 @@
       <c r="Z40" s="119"/>
     </row>
     <row r="41" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A41" s="123"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="25" t="s">
         <v>5</v>
       </c>
@@ -5166,7 +5167,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="40.799999999999997" customHeight="1">
-      <c r="A42" s="124"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -5266,7 +5267,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -5308,23 +5309,23 @@
       <c r="N43" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O43" s="103" t="s">
+      <c r="O43" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="134"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="135"/>
-      <c r="Y43" s="102"/>
-      <c r="Z43" s="131"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="131"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="109"/>
     </row>
     <row r="44" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A44" s="106"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="39">
         <f>SQRT(B42*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -5376,27 +5377,27 @@
         <f>M44-(0.1*E44)*B44</f>
         <v>1.7108169422649108E+43</v>
       </c>
-      <c r="O44" s="101" t="s">
+      <c r="O44" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="101" t="s">
+      <c r="P44" s="108"/>
+      <c r="Q44" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R44" s="102"/>
+      <c r="R44" s="108"/>
       <c r="S44" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="T44" s="136"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="115"/>
-      <c r="W44" s="115"/>
-      <c r="X44" s="137"/>
-      <c r="Y44" s="102"/>
-      <c r="Z44" s="131"/>
+      <c r="T44" s="110"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="112"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="109"/>
     </row>
     <row r="45" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="34" t="s">
@@ -5457,16 +5458,16 @@
         <f>(P46-Q45)/2*(1-0.0003)</f>
         <v>-9.6591083419882153</v>
       </c>
-      <c r="T45" s="136"/>
-      <c r="U45" s="115"/>
-      <c r="V45" s="115"/>
-      <c r="W45" s="115"/>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="102"/>
-      <c r="Z45" s="131"/>
+      <c r="T45" s="110"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="109"/>
     </row>
     <row r="46" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A46" s="120"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="48">
         <f>SQRT(V42*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -5534,13 +5535,13 @@
         <v>13263.284455341987</v>
       </c>
       <c r="S46" s="56"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="139"/>
-      <c r="V46" s="139"/>
-      <c r="W46" s="139"/>
-      <c r="X46" s="140"/>
-      <c r="Y46" s="141"/>
-      <c r="Z46" s="142"/>
+      <c r="T46" s="113"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="115"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="117"/>
     </row>
     <row r="47" spans="1:26" ht="21.3" customHeight="1">
       <c r="A47" s="57"/>
@@ -5599,65 +5600,65 @@
       <c r="Z48" s="59"/>
     </row>
     <row r="49" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A49" s="125"/>
-      <c r="B49" s="127" t="s">
+      <c r="A49" s="98"/>
+      <c r="B49" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="111"/>
-      <c r="U49" s="111"/>
-      <c r="V49" s="111"/>
-      <c r="W49" s="111"/>
-      <c r="X49" s="111"/>
-      <c r="Y49" s="128"/>
-      <c r="Z49" s="129"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="120"/>
+      <c r="T49" s="120"/>
+      <c r="U49" s="120"/>
+      <c r="V49" s="120"/>
+      <c r="W49" s="120"/>
+      <c r="X49" s="120"/>
+      <c r="Y49" s="125"/>
+      <c r="Z49" s="126"/>
     </row>
     <row r="50" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A50" s="126"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
-      <c r="L50" s="115"/>
-      <c r="M50" s="115"/>
-      <c r="N50" s="115"/>
-      <c r="O50" s="115"/>
-      <c r="P50" s="115"/>
-      <c r="Q50" s="115"/>
-      <c r="R50" s="115"/>
-      <c r="S50" s="115"/>
-      <c r="T50" s="115"/>
-      <c r="U50" s="115"/>
-      <c r="V50" s="108"/>
-      <c r="W50" s="108"/>
-      <c r="X50" s="108"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="130"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="120"/>
+      <c r="Z50" s="127"/>
     </row>
     <row r="51" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A51" s="123"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="22" t="s">
         <v>4</v>
       </c>
@@ -5669,39 +5670,39 @@
         <f>B53/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E51" s="107"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="108"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="108"/>
-      <c r="S51" s="108"/>
-      <c r="T51" s="108"/>
-      <c r="U51" s="109"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="103"/>
+      <c r="N51" s="103"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="103"/>
+      <c r="T51" s="103"/>
+      <c r="U51" s="104"/>
       <c r="V51" s="22" t="s">
         <v>4</v>
       </c>
       <c r="W51" s="23">
         <f>0.81*V53</f>
-        <v>1267.1266938300002</v>
+        <v>3593.4549453</v>
       </c>
       <c r="X51" s="24">
         <f>V53/0.81</f>
-        <v>1931.3011641975309</v>
+        <v>5476.9927530864197</v>
       </c>
       <c r="Y51" s="118"/>
       <c r="Z51" s="119"/>
     </row>
     <row r="52" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A52" s="123"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="25" t="s">
         <v>5</v>
       </c>
@@ -5778,8 +5779,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="40.65" customHeight="1">
-      <c r="A53" s="124"/>
+    <row r="53" spans="1:26" ht="40.65" customHeight="1" thickBot="1">
+      <c r="A53" s="101"/>
       <c r="B53" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -5833,54 +5834,54 @@
         <v>1127.69398</v>
       </c>
       <c r="O53" s="31">
-        <v>1564.3539430000001</v>
+        <v>4436.3641299999999</v>
       </c>
       <c r="P53" s="31">
         <f>IF(S56&lt;0,ABS(S56)/O53,0)</f>
-        <v>0</v>
+        <v>0.21415488411437469</v>
       </c>
       <c r="Q53" s="31">
         <f>IF(S56&gt;0,S56,0)</f>
-        <v>3265.8246085298442</v>
+        <v>0</v>
       </c>
       <c r="R53" s="31">
         <f>R56</f>
-        <v>5.024380399238205</v>
+        <v>2.7225748123251452</v>
       </c>
       <c r="S53" s="31">
         <f>R57</f>
-        <v>7861.8693714701558</v>
+        <v>12077.763026149318</v>
       </c>
       <c r="T53" s="31">
         <f>R53*$B$3</f>
-        <v>0.50243803992382052</v>
+        <v>0.27225748123251453</v>
       </c>
       <c r="U53" s="31">
         <f>S53*$B$3</f>
-        <v>786.18693714701567</v>
+        <v>1207.7763026149319</v>
       </c>
       <c r="V53" s="31">
-        <v>1564.3539430000001</v>
+        <v>4436.3641299999999</v>
       </c>
       <c r="W53" s="31">
         <f>IF((LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(C57*C57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>204900</v>
+        <v>194460</v>
       </c>
       <c r="X53" s="31">
         <f>IF((LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)-FLOOR(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)&gt;(CEILING(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)-(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)),CEILING(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60,FLOOR(LOG(1/(D57*D57*10^12/2^96/2^96)*10^12,1.0001)/60,1)*60)</f>
-        <v>200640</v>
+        <v>190260</v>
       </c>
       <c r="Y53" s="32">
         <f>(G57/T53)-1</f>
-        <v>9.3327296662113479E-3</v>
+        <v>-1.0578861070834944E-2</v>
       </c>
       <c r="Z53" s="33">
         <f>(H57/U53)-1</f>
-        <v>1.0818413269359395E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A54" s="106" t="s">
+        <v>3.9413521850302224E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A54" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="34" t="s">
@@ -5922,23 +5923,23 @@
       <c r="N54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O54" s="103" t="s">
+      <c r="O54" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="105"/>
-      <c r="S54" s="102"/>
-      <c r="T54" s="134"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="116"/>
-      <c r="W54" s="116"/>
-      <c r="X54" s="135"/>
-      <c r="Y54" s="102"/>
-      <c r="Z54" s="131"/>
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="131"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="105"/>
+      <c r="U54" s="106"/>
+      <c r="V54" s="106"/>
+      <c r="W54" s="106"/>
+      <c r="X54" s="107"/>
+      <c r="Y54" s="108"/>
+      <c r="Z54" s="109"/>
     </row>
     <row r="55" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A55" s="106"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="39">
         <f>SQRT(B53*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -5990,27 +5991,27 @@
         <f>M55-(0.1*E55)*B55</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O55" s="101" t="s">
+      <c r="O55" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P55" s="102"/>
-      <c r="Q55" s="101" t="s">
+      <c r="P55" s="108"/>
+      <c r="Q55" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R55" s="102"/>
+      <c r="R55" s="108"/>
       <c r="S55" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T55" s="136"/>
-      <c r="U55" s="115"/>
-      <c r="V55" s="115"/>
-      <c r="W55" s="115"/>
-      <c r="X55" s="137"/>
-      <c r="Y55" s="102"/>
-      <c r="Z55" s="131"/>
+      <c r="T55" s="110"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="112"/>
+      <c r="Y55" s="108"/>
+      <c r="Z55" s="109"/>
     </row>
     <row r="56" spans="1:26" ht="32.85" customHeight="1">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B56" s="34" t="s">
@@ -6061,76 +6062,76 @@
       </c>
       <c r="Q56" s="46">
         <f>P56*O53</f>
-        <v>4594.0846801503567</v>
+        <v>13028.402284790074</v>
       </c>
       <c r="R56" s="47">
         <f>P56+(S56/O53)</f>
-        <v>5.024380399238205</v>
+        <v>2.7225748123251452</v>
       </c>
       <c r="S56" s="47">
         <f>(P57-Q56)/2*(1-0.0003)</f>
-        <v>3265.8246085298442</v>
-      </c>
-      <c r="T56" s="136"/>
-      <c r="U56" s="115"/>
-      <c r="V56" s="115"/>
-      <c r="W56" s="115"/>
-      <c r="X56" s="137"/>
-      <c r="Y56" s="102"/>
-      <c r="Z56" s="131"/>
+        <v>-950.06904614931864</v>
+      </c>
+      <c r="T56" s="110"/>
+      <c r="U56" s="111"/>
+      <c r="V56" s="111"/>
+      <c r="W56" s="111"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="108"/>
+      <c r="Z56" s="109"/>
     </row>
     <row r="57" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A57" s="120"/>
+      <c r="A57" s="97"/>
       <c r="B57" s="48">
         <f>SQRT(V53*10^6/10^18)*2^96</f>
-        <v>3.1336255121447264E+24</v>
+        <v>5.2770739031427465E+24</v>
       </c>
       <c r="C57" s="49">
         <f>B57-$B$3*F57*POWER(2,96)/L57</f>
-        <v>2.8201848154299569E+24</v>
+        <v>4.7493665128284719E+24</v>
       </c>
       <c r="D57" s="49">
         <f>M57*B57/N57</f>
-        <v>3.481806124605251E+24</v>
+        <v>5.8634462061181069E+24</v>
       </c>
       <c r="E57" s="49">
         <f>R53*10^18</f>
-        <v>5.0243803992382054E+18</v>
+        <v>2.7225748123251451E+18</v>
       </c>
       <c r="F57" s="49">
         <f>S53*10^6</f>
-        <v>7861869371.4701557</v>
+        <v>12077763026.149317</v>
       </c>
       <c r="G57" s="50">
         <f>(M57-(M57*B57)/(SQRT(1/(1.0001^X53)*2^96*2^96/10^6)*10^3))/B57/10^18</f>
-        <v>0.50712715832445066</v>
+        <v>0.2693773071630603</v>
       </c>
       <c r="H57" s="50">
         <f>(B57-(SQRT(1/(1.0001^W53)*2^96*2^96)))*L57/POWER(2,96)/10^6</f>
-        <v>794.69223234004392</v>
+        <v>1212.536574384271</v>
       </c>
       <c r="I57" s="49">
         <v>9.9999999999999997E+98</v>
       </c>
       <c r="J57" s="49">
         <f>(E57)*(B57*I57)/POWER(2,96)/(I57-B57)</f>
-        <v>198723864117612</v>
+        <v>181339917972830.53</v>
       </c>
       <c r="K57" s="49">
         <f>(F57)*POWER(2,96)/(B57-0)</f>
-        <v>198773421334076.44</v>
+        <v>181331356999691.19</v>
       </c>
       <c r="L57" s="49">
         <f>MIN(J57,K57)</f>
-        <v>198723864117612</v>
+        <v>181331356999691.19</v>
       </c>
       <c r="M57" s="49">
         <f>L57*POWER(2,96)</f>
-        <v>1.5744526601772747E+43</v>
+        <v>1.4366550221303618E+43</v>
       </c>
       <c r="N57" s="51">
         <f>M57-(0.1*E57)*B57</f>
-        <v>1.4170073941595473E+43</v>
+        <v>1.2929827372156139E+43</v>
       </c>
       <c r="O57" s="52" t="s">
         <v>49</v>
@@ -6141,20 +6142,20 @@
       </c>
       <c r="Q57" s="54">
         <f>P57/O53</f>
-        <v>7.1132840683484631</v>
+        <v>2.5082913967208547</v>
       </c>
       <c r="R57" s="55">
         <f>P57-S56</f>
-        <v>7861.8693714701558</v>
+        <v>12077.763026149318</v>
       </c>
       <c r="S57" s="56"/>
-      <c r="T57" s="138"/>
-      <c r="U57" s="139"/>
-      <c r="V57" s="139"/>
-      <c r="W57" s="139"/>
-      <c r="X57" s="140"/>
-      <c r="Y57" s="141"/>
-      <c r="Z57" s="142"/>
+      <c r="T57" s="113"/>
+      <c r="U57" s="114"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
+      <c r="X57" s="115"/>
+      <c r="Y57" s="116"/>
+      <c r="Z57" s="117"/>
     </row>
     <row r="58" spans="1:26" ht="21.3" customHeight="1">
       <c r="A58" s="57"/>
@@ -6213,65 +6214,65 @@
       <c r="Z59" s="67"/>
     </row>
     <row r="60" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="125"/>
+      <c r="A60" s="98"/>
       <c r="B60" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="116"/>
-      <c r="R60" s="116"/>
-      <c r="S60" s="116"/>
-      <c r="T60" s="116"/>
-      <c r="U60" s="116"/>
-      <c r="V60" s="116"/>
-      <c r="W60" s="116"/>
-      <c r="X60" s="116"/>
-      <c r="Y60" s="104"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
+      <c r="N60" s="106"/>
+      <c r="O60" s="106"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="106"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
+      <c r="V60" s="106"/>
+      <c r="W60" s="106"/>
+      <c r="X60" s="106"/>
+      <c r="Y60" s="130"/>
       <c r="Z60" s="133"/>
     </row>
     <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="126"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="115"/>
-      <c r="L61" s="115"/>
-      <c r="M61" s="115"/>
-      <c r="N61" s="115"/>
-      <c r="O61" s="115"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="115"/>
-      <c r="S61" s="115"/>
-      <c r="T61" s="115"/>
-      <c r="U61" s="115"/>
-      <c r="V61" s="108"/>
-      <c r="W61" s="108"/>
-      <c r="X61" s="108"/>
-      <c r="Y61" s="116"/>
-      <c r="Z61" s="117"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
+      <c r="S61" s="111"/>
+      <c r="T61" s="111"/>
+      <c r="U61" s="111"/>
+      <c r="V61" s="103"/>
+      <c r="W61" s="103"/>
+      <c r="X61" s="103"/>
+      <c r="Y61" s="106"/>
+      <c r="Z61" s="134"/>
     </row>
     <row r="62" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="123"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="22" t="s">
         <v>4</v>
       </c>
@@ -6283,23 +6284,23 @@
         <f>B64/0.81</f>
         <v>3778.1061728382715</v>
       </c>
-      <c r="E62" s="107"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="108"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="108"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="108"/>
-      <c r="P62" s="108"/>
-      <c r="Q62" s="108"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="108"/>
-      <c r="T62" s="108"/>
-      <c r="U62" s="109"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="103"/>
+      <c r="K62" s="103"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="103"/>
+      <c r="N62" s="103"/>
+      <c r="O62" s="103"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="103"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="103"/>
+      <c r="T62" s="103"/>
+      <c r="U62" s="104"/>
       <c r="V62" s="22" t="s">
         <v>4</v>
       </c>
@@ -6315,7 +6316,7 @@
       <c r="Z62" s="119"/>
     </row>
     <row r="63" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="123"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="68" t="s">
         <v>5</v>
       </c>
@@ -6393,7 +6394,7 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="36" customHeight="1">
-      <c r="A64" s="124"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="69">
         <f t="shared" ref="B64:D70" si="3">3060.265999999</f>
         <v>3060.2659999990001</v>
@@ -6492,7 +6493,7 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="34" t="s">
@@ -6534,23 +6535,23 @@
       <c r="N65" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O65" s="103" t="s">
+      <c r="O65" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P65" s="104"/>
-      <c r="Q65" s="104"/>
-      <c r="R65" s="105"/>
-      <c r="S65" s="131"/>
-      <c r="T65" s="125"/>
-      <c r="U65" s="111"/>
-      <c r="V65" s="111"/>
-      <c r="W65" s="116"/>
-      <c r="X65" s="135"/>
-      <c r="Y65" s="143"/>
-      <c r="Z65" s="144"/>
+      <c r="P65" s="130"/>
+      <c r="Q65" s="130"/>
+      <c r="R65" s="131"/>
+      <c r="S65" s="109"/>
+      <c r="T65" s="98"/>
+      <c r="U65" s="120"/>
+      <c r="V65" s="120"/>
+      <c r="W65" s="106"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="121"/>
+      <c r="Z65" s="122"/>
     </row>
     <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="106"/>
+      <c r="A66" s="96"/>
       <c r="B66" s="39">
         <f>SQRT(B64*10^6/10^18)*2^96</f>
         <v>4.382875884546422E+24</v>
@@ -6602,27 +6603,27 @@
         <f>M66-($B$3*E66)*B66</f>
         <v>1.2889611060943387E+43</v>
       </c>
-      <c r="O66" s="101" t="s">
+      <c r="O66" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P66" s="102"/>
-      <c r="Q66" s="101" t="s">
+      <c r="P66" s="108"/>
+      <c r="Q66" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R66" s="102"/>
+      <c r="R66" s="108"/>
       <c r="S66" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="T66" s="126"/>
-      <c r="U66" s="115"/>
-      <c r="V66" s="115"/>
-      <c r="W66" s="115"/>
-      <c r="X66" s="137"/>
-      <c r="Y66" s="102"/>
-      <c r="Z66" s="131"/>
+      <c r="T66" s="99"/>
+      <c r="U66" s="111"/>
+      <c r="V66" s="111"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="112"/>
+      <c r="Y66" s="108"/>
+      <c r="Z66" s="109"/>
     </row>
     <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="34" t="s">
@@ -6683,16 +6684,16 @@
         <f>(P68-Q67)/2*(1-0.0003)</f>
         <v>-0.42613968412199249</v>
       </c>
-      <c r="T67" s="126"/>
-      <c r="U67" s="115"/>
-      <c r="V67" s="115"/>
-      <c r="W67" s="115"/>
-      <c r="X67" s="137"/>
-      <c r="Y67" s="102"/>
-      <c r="Z67" s="131"/>
+      <c r="T67" s="99"/>
+      <c r="U67" s="111"/>
+      <c r="V67" s="111"/>
+      <c r="W67" s="111"/>
+      <c r="X67" s="112"/>
+      <c r="Y67" s="108"/>
+      <c r="Z67" s="109"/>
     </row>
     <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="120"/>
+      <c r="A68" s="97"/>
       <c r="B68" s="48">
         <f>SQRT(V64*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -6760,13 +6761,13 @@
         <v>10000.426139684121</v>
       </c>
       <c r="S68" s="75"/>
-      <c r="T68" s="145"/>
-      <c r="U68" s="139"/>
-      <c r="V68" s="139"/>
-      <c r="W68" s="139"/>
-      <c r="X68" s="140"/>
-      <c r="Y68" s="141"/>
-      <c r="Z68" s="142"/>
+      <c r="T68" s="123"/>
+      <c r="U68" s="114"/>
+      <c r="V68" s="114"/>
+      <c r="W68" s="114"/>
+      <c r="X68" s="115"/>
+      <c r="Y68" s="116"/>
+      <c r="Z68" s="117"/>
     </row>
     <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="76"/>
@@ -7118,6 +7119,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E7:U7"/>
+    <mergeCell ref="B5:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E18:U18"/>
+    <mergeCell ref="E29:U29"/>
+    <mergeCell ref="E40:U40"/>
+    <mergeCell ref="E51:U51"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="B27:Z28"/>
+    <mergeCell ref="B38:Z39"/>
+    <mergeCell ref="B49:Z50"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="B60:Z61"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A60:A64"/>
@@ -7134,51 +7180,6 @@
     <mergeCell ref="T54:Z57"/>
     <mergeCell ref="T65:Z68"/>
     <mergeCell ref="B16:Z17"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="B60:Z61"/>
-    <mergeCell ref="E18:U18"/>
-    <mergeCell ref="E29:U29"/>
-    <mergeCell ref="E40:U40"/>
-    <mergeCell ref="E51:U51"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="B27:Z28"/>
-    <mergeCell ref="B38:Z39"/>
-    <mergeCell ref="B49:Z50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E7:U7"/>
-    <mergeCell ref="B5:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait" r:id="rId1"/>

--- a/test/scenarios/Rebalance_Test.xlsx
+++ b/test/scenarios/Rebalance_Test.xlsx
@@ -1679,88 +1679,97 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1775,16 +1784,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,40 +1793,40 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2991,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q22" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -3026,32 +3026,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.6" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="141"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="100"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
@@ -3149,65 +3149,65 @@
       <c r="Z4" s="21"/>
     </row>
     <row r="5" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A5" s="135"/>
-      <c r="B5" s="142" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="144"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="113"/>
     </row>
     <row r="6" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="134"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="117"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
@@ -3219,23 +3219,23 @@
         <f>B9/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="109"/>
       <c r="V7" s="22" t="s">
         <v>4</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="Z7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A8" s="100"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="39.9" customHeight="1">
-      <c r="A9" s="101"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="30">
         <f>3060.35619083117</f>
         <v>3060.3561908311699</v>
@@ -3428,7 +3428,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -3470,23 +3470,23 @@
       <c r="N10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="129" t="s">
+      <c r="O10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="109"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="131"/>
     </row>
     <row r="11" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A11" s="96"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="39">
         <f>SQRT(B9*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -3538,27 +3538,27 @@
         <f>M11-($B$3*E11)*B11</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O11" s="128" t="s">
+      <c r="O11" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="128" t="s">
+      <c r="P11" s="102"/>
+      <c r="Q11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="108"/>
+      <c r="R11" s="102"/>
       <c r="S11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="110"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="109"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="131"/>
     </row>
     <row r="12" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="34" t="s">
@@ -3619,16 +3619,16 @@
         <f>(P13-Q12)/2*(1-0.0003)</f>
         <v>-0.42613940834773056</v>
       </c>
-      <c r="T12" s="110"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="109"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="131"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1">
-      <c r="A13" s="97"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="48">
         <f>SQRT(V9*10^6/10^18)*2^96</f>
         <v>4.3972388145443278E+24</v>
@@ -3696,13 +3696,13 @@
         <v>10000.426139408348</v>
       </c>
       <c r="S13" s="56"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="117"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="142"/>
     </row>
     <row r="14" spans="1:26" ht="21.3" customHeight="1">
       <c r="A14" s="57"/>
@@ -3761,65 +3761,65 @@
       <c r="Z15" s="59"/>
     </row>
     <row r="16" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="124" t="s">
+      <c r="A16" s="125"/>
+      <c r="B16" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="126"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="129"/>
     </row>
     <row r="17" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="127"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="130"/>
     </row>
     <row r="18" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="22" t="s">
         <v>4</v>
       </c>
@@ -3831,23 +3831,23 @@
         <f>B20/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="104"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="109"/>
       <c r="V18" s="22" t="s">
         <v>4</v>
       </c>
@@ -3863,7 +3863,7 @@
       <c r="Z18" s="119"/>
     </row>
     <row r="19" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="25" t="s">
         <v>5</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="40.5" customHeight="1">
-      <c r="A20" s="101"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="30">
         <f t="shared" ref="B20:B53" si="1">3060.35619083117</f>
         <v>3060.3561908311699</v>
@@ -3983,15 +3983,15 @@
         <v>3.26787207467537</v>
       </c>
       <c r="L20" s="31">
-        <f>15112.232914</f>
-        <v>15112.232914</v>
+        <f>15096.928674</f>
+        <v>15096.928674000001</v>
       </c>
       <c r="M20" s="31">
         <v>0</v>
       </c>
       <c r="N20" s="31">
         <f>L20-F22/1000000</f>
-        <v>5112.2329140000002</v>
+        <v>5096.9286740000007</v>
       </c>
       <c r="O20" s="31">
         <v>3060.3561909999999</v>
@@ -4002,23 +4002,23 @@
       </c>
       <c r="Q20" s="31">
         <f>IF(S23&gt;0,S23,0)</f>
-        <v>2554.9234823787783</v>
+        <v>2547.2736580147784</v>
       </c>
       <c r="R20" s="31">
         <f>R23</f>
-        <v>4.1027172112945598</v>
+        <v>4.1002175596571142</v>
       </c>
       <c r="S20" s="31">
         <f>R24</f>
-        <v>12557.309431621223</v>
+        <v>12549.655015985223</v>
       </c>
       <c r="T20" s="31">
         <f>R20*$B$3</f>
-        <v>0.41027172112945598</v>
+        <v>0.41002175596571144</v>
       </c>
       <c r="U20" s="31">
         <f>S20*$B$3</f>
-        <v>1255.7309431621225</v>
+        <v>1254.9655015985225</v>
       </c>
       <c r="V20" s="31">
         <v>3060.3561909999999</v>
@@ -4033,15 +4033,15 @@
       </c>
       <c r="Y20" s="32">
         <f>(G24/T20)-1</f>
-        <v>1.3413627060614886E-2</v>
+        <v>1.3413627060614441E-2</v>
       </c>
       <c r="Z20" s="33">
         <f>(H24/U20)-1</f>
-        <v>6.8655603162603995E-3</v>
+        <v>6.8658537203649672E-3</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -4083,23 +4083,23 @@
       <c r="N21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="129" t="s">
+      <c r="O21" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="109"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="131"/>
     </row>
     <row r="22" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A22" s="96"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="39">
         <f>SQRT(B20*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -4151,27 +4151,27 @@
         <f>M22-(0.1*E22)*B22</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O22" s="128" t="s">
+      <c r="O22" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="128" t="s">
+      <c r="P22" s="102"/>
+      <c r="Q22" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="108"/>
+      <c r="R22" s="102"/>
       <c r="S22" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="110"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="111"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="109"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="115"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="131"/>
     </row>
     <row r="23" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="34" t="s">
@@ -4226,29 +4226,29 @@
       </c>
       <c r="R23" s="47">
         <f>P23+(S23/O20)</f>
-        <v>4.1027172112945598</v>
+        <v>4.1002175596571142</v>
       </c>
       <c r="S23" s="47">
         <f>(P24-Q23)/2*(1-0.0003)</f>
-        <v>2554.9234823787783</v>
-      </c>
-      <c r="T23" s="110"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="109"/>
+        <v>2547.2736580147784</v>
+      </c>
+      <c r="T23" s="136"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="115"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="131"/>
     </row>
     <row r="24" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A24" s="97"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="48">
         <f>SQRT(V20*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
       </c>
       <c r="C24" s="49">
         <f>B24-$B$3*F24*POWER(2,96)/L24</f>
-        <v>3.9445928943143177E+24</v>
+        <v>3.9445930220502792E+24</v>
       </c>
       <c r="D24" s="49">
         <f>M24*B24/N24</f>
@@ -4256,66 +4256,66 @@
       </c>
       <c r="E24" s="49">
         <f>R20*10^18</f>
-        <v>4.1027172112945597E+18</v>
+        <v>4.1002175596571141E+18</v>
       </c>
       <c r="F24" s="49">
         <f>S20*10^6</f>
-        <v>12557309431.621223</v>
+        <v>12549655015.985224</v>
       </c>
       <c r="G24" s="50">
         <f>(M24-(M24*B24)/(SQRT(1/(1.0001^X20)*2^96*2^96/10^6)*10^3))/B24/10^18</f>
-        <v>0.41577495299020312</v>
+        <v>0.41552163488697375</v>
       </c>
       <c r="H24" s="50">
         <f>(B24-(SQRT(1/(1.0001^W20)*2^96*2^96)))*L24/POWER(2,96)/10^6</f>
-        <v>1264.3522396933965</v>
+        <v>1263.5819111566025</v>
       </c>
       <c r="I24" s="49">
         <v>9.9999999999999997E+98</v>
       </c>
       <c r="J24" s="49">
         <f>(E24)*(B24*I24)/POWER(2,96)/(I24-B24)</f>
-        <v>226964310780765.09</v>
+        <v>226826028836905.31</v>
       </c>
       <c r="K24" s="49">
         <f>(F24)*POWER(2,96)/(B24-0)</f>
-        <v>226992029519691.62</v>
+        <v>226853664581767.28</v>
       </c>
       <c r="L24" s="49">
         <f>MIN(J24,K24)</f>
-        <v>226964310780765.09</v>
+        <v>226826028836905.31</v>
       </c>
       <c r="M24" s="49">
         <f>L24*POWER(2,96)</f>
-        <v>1.7981965299476454E+43</v>
+        <v>1.7971009475155543E+43</v>
       </c>
       <c r="N24" s="51">
         <f>M24-(0.1*E24)*B24</f>
-        <v>1.618376876952881E+43</v>
+        <v>1.6173908527639989E+43</v>
       </c>
       <c r="O24" s="52" t="s">
         <v>49</v>
       </c>
       <c r="P24" s="53">
         <f>L20</f>
-        <v>15112.232914</v>
+        <v>15096.928674000001</v>
       </c>
       <c r="Q24" s="54">
         <f>P24/O20</f>
-        <v>4.9380634053129411</v>
+        <v>4.933062601796995</v>
       </c>
       <c r="R24" s="55">
         <f>P24-S23</f>
-        <v>12557.309431621223</v>
+        <v>12549.655015985223</v>
       </c>
       <c r="S24" s="56"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="114"/>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="117"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="141"/>
+      <c r="Z24" s="142"/>
     </row>
     <row r="25" spans="1:26" ht="21.3" customHeight="1">
       <c r="A25" s="57"/>
@@ -4374,65 +4374,65 @@
       <c r="Z26" s="59"/>
     </row>
     <row r="27" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="124" t="s">
+      <c r="A27" s="125"/>
+      <c r="B27" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="125"/>
-      <c r="Z27" s="126"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="129"/>
     </row>
     <row r="28" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="127"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="130"/>
     </row>
     <row r="29" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A29" s="100"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="22" t="s">
         <v>4</v>
       </c>
@@ -4444,23 +4444,23 @@
         <f>B31/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="104"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="109"/>
       <c r="V29" s="22" t="s">
         <v>4</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="Z29" s="119"/>
     </row>
     <row r="30" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A30" s="100"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="25" t="s">
         <v>5</v>
       </c>
@@ -4554,7 +4554,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="40.35" customHeight="1">
-      <c r="A31" s="101"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -4569,35 +4569,35 @@
       </c>
       <c r="E31" s="31">
         <f>E33*$B$3*10^-18</f>
-        <v>0.45751844712808709</v>
+        <v>0.45723948201616404</v>
       </c>
       <c r="F31" s="31">
         <f>F33*$B$3*10^-6</f>
-        <v>1254.8849952</v>
+        <v>1254.1223302999999</v>
       </c>
       <c r="G31" s="32">
         <f>((G33/E33)-(E31/E33))*10^18</f>
-        <v>4.3268556662353643E-4</v>
+        <v>4.3288438520733247E-4</v>
       </c>
       <c r="H31" s="32">
         <f>((H33/F33)-(F31/F33))*10^6</f>
-        <v>6.9885267298090247E-4</v>
+        <v>6.9885267298094226E-4</v>
       </c>
       <c r="I31" s="31">
         <f>E33*$C$3*10^-18</f>
-        <v>4.1176660241527827</v>
+        <v>4.1151553381454766</v>
       </c>
       <c r="J31" s="31">
         <f>F33*$C$3*10^-6</f>
-        <v>11293.9649568</v>
+        <v>11287.1009727</v>
       </c>
       <c r="K31" s="31">
         <f>E33/1000000000000000000</f>
-        <v>4.5751844712808696</v>
+        <v>4.57239482016164</v>
       </c>
       <c r="L31" s="31">
         <f>F31+J31+N31</f>
-        <v>12548.849952</v>
+        <v>12541.223303000001</v>
       </c>
       <c r="M31" s="31">
         <f>472224643499820000/1000000000000000000</f>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="P31" s="31">
         <f>IF(S34&lt;0,ABS(S34)/O31,0)</f>
-        <v>0.23729399876260576</v>
+        <v>0.23853966438605864</v>
       </c>
       <c r="Q31" s="31">
         <f>IF(S34&gt;0,S34,0)</f>
@@ -4619,19 +4619,19 @@
       </c>
       <c r="R31" s="31">
         <f>R34</f>
-        <v>4.3378904725182634</v>
+        <v>4.3366448068948111</v>
       </c>
       <c r="S31" s="31">
         <f>R35</f>
-        <v>13275.054110200288</v>
+        <v>13271.239641702938</v>
       </c>
       <c r="T31" s="31">
         <f>R31*$B$3</f>
-        <v>0.43378904725182638</v>
+        <v>0.43366448068948116</v>
       </c>
       <c r="U31" s="31">
         <f>S31*$B$3</f>
-        <v>1327.505411020029</v>
+        <v>1327.1239641702939</v>
       </c>
       <c r="V31" s="31">
         <v>3060.3561909999999</v>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="Y31" s="32">
         <f>(G35/T31)-1</f>
-        <v>1.3380355247289977E-2</v>
+        <v>1.3380170980974881E-2</v>
       </c>
       <c r="Z31" s="33">
         <f>(H35/U31)-1</f>
@@ -4654,7 +4654,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="34" t="s">
@@ -4696,23 +4696,23 @@
       <c r="N32" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="129" t="s">
+      <c r="O32" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="109"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="131"/>
     </row>
     <row r="33" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A33" s="96"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="39">
         <f>SQRT(B31*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -4723,68 +4723,67 @@
       </c>
       <c r="D33" s="40">
         <f>M33*B33/N33</f>
-        <v>4.9333965664703124E+24</v>
+        <v>4.9333953399236527E+24</v>
       </c>
       <c r="E33" s="41">
-        <f>4575184471280870000</f>
-        <v>4.5751844712808699E+18</v>
+        <v>4.5723948201616399E+18</v>
       </c>
       <c r="F33" s="41">
-        <f>12548849952</f>
-        <v>12548849952</v>
+        <f>12541223303</f>
+        <v>12541223303</v>
       </c>
       <c r="G33" s="42">
         <f>(M33-(M33*B33)/(SQRT(1/(1.0001^D31)*2^96*2^96/10^6)*10^3))/B33/10^18</f>
-        <v>0.45949806341345045</v>
+        <v>0.45921880033681489</v>
       </c>
       <c r="H33" s="42">
         <f>(B33-(SQRT(1/(1.0001^C31)*2^96*2^96)))*L33/POWER(2,96)/10^6</f>
-        <v>1263.6547925317916</v>
+        <v>1262.8867977277523</v>
       </c>
       <c r="I33" s="40">
         <v>9.9999999999999997E+98</v>
       </c>
       <c r="J33" s="40">
         <f>(E33)*(B33*I33)/POWER(2,96)/(I33-B33)</f>
-        <v>253101429299540.81</v>
+        <v>252947104443361.53</v>
       </c>
       <c r="K33" s="40">
         <f>(F33)*POWER(2,96)/(B33-0)</f>
-        <v>226839111860077.72</v>
+        <v>226701248845359.56</v>
       </c>
       <c r="L33" s="40">
         <f>MIN(J33,K33)</f>
-        <v>226839111860077.72</v>
+        <v>226701248845359.56</v>
       </c>
       <c r="M33" s="40">
         <f>L33*POWER(2,96)</f>
-        <v>1.7972046019041624E+43</v>
+        <v>1.7961123385706828E+43</v>
       </c>
       <c r="N33" s="43">
         <f>M33-(0.1*E33)*B33</f>
-        <v>1.5966769901727963E+43</v>
-      </c>
-      <c r="O33" s="128" t="s">
+        <v>1.5957069955871703E+43</v>
+      </c>
+      <c r="O33" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="128" t="s">
+      <c r="P33" s="102"/>
+      <c r="Q33" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="108"/>
+      <c r="R33" s="102"/>
       <c r="S33" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="110"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="108"/>
-      <c r="Z33" s="109"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="131"/>
     </row>
     <row r="34" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="34" t="s">
@@ -4839,22 +4838,22 @@
       </c>
       <c r="R34" s="47">
         <f>P34+(S34/O31)</f>
-        <v>4.3378904725182634</v>
+        <v>4.3366448068948111</v>
       </c>
       <c r="S34" s="47">
         <f>(P35-Q34)/2*(1-0.0003)</f>
-        <v>-726.20415820028688</v>
-      </c>
-      <c r="T34" s="110"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
-      <c r="W34" s="111"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="108"/>
-      <c r="Z34" s="109"/>
+        <v>-730.01633870293676</v>
+      </c>
+      <c r="T34" s="136"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="137"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="131"/>
     </row>
     <row r="35" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A35" s="97"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="48">
         <f>SQRT(V31*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -4865,70 +4864,70 @@
       </c>
       <c r="D35" s="49">
         <f>M35*B35/N35</f>
-        <v>4.8699516206333139E+24</v>
+        <v>4.869951719027976E+24</v>
       </c>
       <c r="E35" s="49">
         <f>R31*10^18</f>
-        <v>4.3378904725182633E+18</v>
+        <v>4.3366448068948111E+18</v>
       </c>
       <c r="F35" s="49">
         <f>S31*10^6</f>
-        <v>13275054110.200289</v>
+        <v>13271239641.702938</v>
       </c>
       <c r="G35" s="50">
         <f>(M35-(M35*B35)/(SQRT(1/(1.0001^X31)*2^96*2^96/10^6)*10^3))/B35/10^18</f>
-        <v>0.43959329880643927</v>
+        <v>0.43946698558948211</v>
       </c>
       <c r="H35" s="50">
         <f>(B35-(SQRT(1/(1.0001^W31)*2^96*2^96)))*L35/POWER(2,96)/10^6</f>
-        <v>1336.7827183982067</v>
+        <v>1336.3986057968716</v>
       </c>
       <c r="I35" s="49">
         <v>9.9999999999999997E+98</v>
       </c>
       <c r="J35" s="49">
         <f>(E35)*(B35*I35)/POWER(2,96)/(I35-B35)</f>
-        <v>239974209927789.34</v>
+        <v>239905299099884.41</v>
       </c>
       <c r="K35" s="49">
         <f>(F35)*POWER(2,96)/(B35-0)</f>
-        <v>239966331232553.56</v>
+        <v>239897379045744.19</v>
       </c>
       <c r="L35" s="49">
         <f>MIN(J35,K35)</f>
-        <v>239966331232553.56</v>
+        <v>239897379045744.19</v>
       </c>
       <c r="M35" s="49">
         <f>L35*POWER(2,96)</f>
-        <v>1.901209148884454E+43</v>
+        <v>1.9006628533782293E+43</v>
       </c>
       <c r="N35" s="51">
         <f>M35-(0.1*E35)*B35</f>
-        <v>1.7110819918505431E+43</v>
+        <v>1.7105902931270409E+43</v>
       </c>
       <c r="O35" s="52" t="s">
         <v>49</v>
       </c>
       <c r="P35" s="53">
         <f>L31</f>
-        <v>12548.849952</v>
+        <v>12541.223303000001</v>
       </c>
       <c r="Q35" s="54">
         <f>P35/O31</f>
-        <v>4.1004540546306627</v>
+        <v>4.0979619757600956</v>
       </c>
       <c r="R35" s="55">
         <f>P35-S34</f>
-        <v>13275.054110200288</v>
+        <v>13271.239641702938</v>
       </c>
       <c r="S35" s="56"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="117"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="139"/>
+      <c r="V35" s="139"/>
+      <c r="W35" s="139"/>
+      <c r="X35" s="140"/>
+      <c r="Y35" s="141"/>
+      <c r="Z35" s="142"/>
     </row>
     <row r="36" spans="1:26" ht="21.3" customHeight="1">
       <c r="A36" s="57"/>
@@ -4987,65 +4986,65 @@
       <c r="Z37" s="59"/>
     </row>
     <row r="38" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="124" t="s">
+      <c r="A38" s="125"/>
+      <c r="B38" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="120"/>
-      <c r="X38" s="120"/>
-      <c r="Y38" s="125"/>
-      <c r="Z38" s="126"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="128"/>
+      <c r="Z38" s="129"/>
     </row>
     <row r="39" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A39" s="99"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="120"/>
-      <c r="Z39" s="127"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
+      <c r="R39" s="115"/>
+      <c r="S39" s="115"/>
+      <c r="T39" s="115"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="130"/>
     </row>
     <row r="40" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A40" s="100"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
@@ -5057,23 +5056,23 @@
         <f>B42/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E40" s="102"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="103"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="103"/>
-      <c r="T40" s="103"/>
-      <c r="U40" s="104"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="109"/>
       <c r="V40" s="22" t="s">
         <v>4</v>
       </c>
@@ -5089,7 +5088,7 @@
       <c r="Z40" s="119"/>
     </row>
     <row r="41" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A41" s="100"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="25" t="s">
         <v>5</v>
       </c>
@@ -5167,7 +5166,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="40.799999999999997" customHeight="1">
-      <c r="A42" s="101"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -5182,49 +5181,49 @@
       </c>
       <c r="E42" s="31">
         <f>E44*$B$3*10^-18</f>
-        <v>0.433706030687594</v>
+        <v>0.43344190044723707</v>
       </c>
       <c r="F42" s="31">
         <f>F44*$B$3*10^-6</f>
-        <v>1327.5421971999999</v>
+        <v>1324.5617463999999</v>
       </c>
       <c r="G42" s="32">
         <f>((G44/E44)-(E42/E44))*10^18</f>
-        <v>1.3413627308494411E-3</v>
+        <v>1.194306868487868E-3</v>
       </c>
       <c r="H42" s="32">
         <f>((H44/F44)-(F42/F44))*10^6</f>
-        <v>6.800970224012401E-4</v>
+        <v>6.9885267298092904E-4</v>
       </c>
       <c r="I42" s="31">
         <f>E44*$C$3*10^-18</f>
-        <v>3.9033542761883462</v>
+        <v>3.9009771040251335</v>
       </c>
       <c r="J42" s="31">
         <f>F44*$C$3*10^-6</f>
-        <v>11947.8797748</v>
+        <v>11921.0557176</v>
       </c>
       <c r="K42" s="31">
         <f>4.33706030687594</f>
         <v>4.3370603068759399</v>
       </c>
       <c r="L42" s="31">
-        <f>13253.625347</f>
-        <v>13253.625346999999</v>
+        <f>13245.617464</f>
+        <v>13245.617464000001</v>
       </c>
       <c r="M42" s="31">
         <v>0</v>
       </c>
       <c r="N42" s="31">
         <f>L42-F44/1000000</f>
-        <v>-21.796625000000859</v>
+        <v>0</v>
       </c>
       <c r="O42" s="31">
         <v>3060.3561909999999</v>
       </c>
       <c r="P42" s="31">
         <f>IF(S45&lt;0,ABS(S45)/O42,0)</f>
-        <v>3.1562039642294096E-3</v>
+        <v>4.4641367889511185E-3</v>
       </c>
       <c r="Q42" s="31">
         <f>IF(S45&gt;0,S45,0)</f>
@@ -5236,7 +5235,7 @@
       </c>
       <c r="S42" s="31">
         <f>P46</f>
-        <v>13253.625346999999</v>
+        <v>13245.617464000001</v>
       </c>
       <c r="T42" s="31">
         <f>R42*$B$3</f>
@@ -5244,7 +5243,7 @@
       </c>
       <c r="U42" s="31">
         <f>S42*$B$3</f>
-        <v>1325.3625347</v>
+        <v>1324.5617464000002</v>
       </c>
       <c r="V42" s="31">
         <v>3060.3561909999999</v>
@@ -5259,15 +5258,15 @@
       </c>
       <c r="Y42" s="32">
         <f>(G46/T42)-1</f>
-        <v>1.1938203741252984E-2</v>
+        <v>1.1326787428612706E-2</v>
       </c>
       <c r="Z42" s="33">
         <f>(H46/U42)-1</f>
-        <v>6.9885269778668935E-3</v>
+        <v>6.9885269778666714E-3</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -5309,95 +5308,95 @@
       <c r="N43" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O43" s="129" t="s">
+      <c r="O43" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="130"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="131"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="105"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="107"/>
-      <c r="Y43" s="108"/>
-      <c r="Z43" s="109"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="116"/>
+      <c r="W43" s="116"/>
+      <c r="X43" s="135"/>
+      <c r="Y43" s="102"/>
+      <c r="Z43" s="131"/>
     </row>
     <row r="44" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A44" s="96"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="39">
         <f>SQRT(B42*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
       </c>
       <c r="C44" s="40">
         <f>B44-$B$3*F44*POWER(2,96)/L44</f>
-        <v>3.9445647726577399E+24</v>
+        <v>3.9446464222611696E+24</v>
       </c>
       <c r="D44" s="40">
         <f>M44*B44/N44</f>
-        <v>4.8699338546434195E+24</v>
+        <v>4.8707203151979695E+24</v>
       </c>
       <c r="E44" s="41">
-        <f>4337060306875940000</f>
-        <v>4.3370603068759398E+18</v>
+        <f>4334419004472370000</f>
+        <v>4.3344190044723702E+18</v>
       </c>
       <c r="F44" s="41">
-        <f>13275421972</f>
-        <v>13275421972</v>
+        <f>13245617464</f>
+        <v>13245617464</v>
       </c>
       <c r="G44" s="42">
         <f>(M44-(M44*B44)/(SQRT(1/(1.0001^D42)*2^96*2^96/10^6)*10^3))/B44/10^18</f>
-        <v>0.43952360174468386</v>
+        <v>0.43861852683518276</v>
       </c>
       <c r="H44" s="42">
         <f>(B44-(SQRT(1/(1.0001^C42)*2^96*2^96)))*L44/POWER(2,96)/10^6</f>
-        <v>1336.5707721542772</v>
+        <v>1333.8184815699992</v>
       </c>
       <c r="I44" s="40">
         <v>9.9999999999999997E+98</v>
       </c>
       <c r="J44" s="40">
         <f>(E44)*(B44*I44)/POWER(2,96)/(I44-B44)</f>
-        <v>239928284754229.5</v>
+        <v>239782166621124.22</v>
       </c>
       <c r="K44" s="40">
         <f>(F44)*POWER(2,96)/(B44-0)</f>
-        <v>239972980887885.72</v>
+        <v>239434220112993.44</v>
       </c>
       <c r="L44" s="40">
         <f>MIN(J44,K44)</f>
-        <v>239928284754229.5</v>
+        <v>239434220112993.44</v>
       </c>
       <c r="M44" s="40">
         <f>L44*POWER(2,96)</f>
-        <v>1.9009077136276785E+43</v>
+        <v>1.8969933302588383E+43</v>
       </c>
       <c r="N44" s="43">
         <f>M44-(0.1*E44)*B44</f>
-        <v>1.7108169422649108E+43</v>
-      </c>
-      <c r="O44" s="128" t="s">
+        <v>1.7070183256080298E+43</v>
+      </c>
+      <c r="O44" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="128" t="s">
+      <c r="P44" s="102"/>
+      <c r="Q44" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R44" s="108"/>
+      <c r="R44" s="102"/>
       <c r="S44" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="T44" s="110"/>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="112"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="109"/>
+      <c r="T44" s="136"/>
+      <c r="U44" s="115"/>
+      <c r="V44" s="115"/>
+      <c r="W44" s="115"/>
+      <c r="X44" s="137"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="131"/>
     </row>
     <row r="45" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="34" t="s">
@@ -5452,22 +5451,22 @@
       </c>
       <c r="R45" s="47">
         <f>P45+(S45/O42)</f>
-        <v>4.3339041029117107</v>
+        <v>4.3325961700869886</v>
       </c>
       <c r="S45" s="47">
         <f>(P46-Q45)/2*(1-0.0003)</f>
-        <v>-9.6591083419882153</v>
-      </c>
-      <c r="T45" s="110"/>
-      <c r="U45" s="111"/>
-      <c r="V45" s="111"/>
-      <c r="W45" s="111"/>
-      <c r="X45" s="112"/>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="109"/>
+        <v>-13.661848659537416</v>
+      </c>
+      <c r="T45" s="136"/>
+      <c r="U45" s="115"/>
+      <c r="V45" s="115"/>
+      <c r="W45" s="115"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="102"/>
+      <c r="Z45" s="131"/>
     </row>
     <row r="46" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A46" s="97"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="48">
         <f>SQRT(V42*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -5478,7 +5477,7 @@
       </c>
       <c r="D46" s="49">
         <f>M46*B46/N46</f>
-        <v>4.8707229212064129E+24</v>
+        <v>4.8710506606844451E+24</v>
       </c>
       <c r="E46" s="49">
         <f>R42*10^18</f>
@@ -5486,15 +5485,15 @@
       </c>
       <c r="F46" s="49">
         <f>S42*10^6</f>
-        <v>13253625347</v>
+        <v>13245617464</v>
       </c>
       <c r="G46" s="50">
         <f>(M46-(M46*B46)/(SQRT(1/(1.0001^X42)*2^96*2^96/10^6)*10^3))/B46/10^18</f>
-        <v>0.43888370164575258</v>
+        <v>0.43861852670369977</v>
       </c>
       <c r="H46" s="50">
         <f>(B46-(SQRT(1/(1.0001^W42)*2^96*2^96)))*L46/POWER(2,96)/10^6</f>
-        <v>1334.6248665292051</v>
+        <v>1333.8184818985669</v>
       </c>
       <c r="I46" s="49">
         <v>9.9999999999999997E+98</v>
@@ -5505,43 +5504,43 @@
       </c>
       <c r="K46" s="49">
         <f>(F46)*POWER(2,96)/(B46-0)</f>
-        <v>239578974492209.03</v>
+        <v>239434220106389.03</v>
       </c>
       <c r="L46" s="49">
         <f>MIN(J46,K46)</f>
-        <v>239578974492209.03</v>
+        <v>239434220106389.03</v>
       </c>
       <c r="M46" s="49">
         <f>L46*POWER(2,96)</f>
-        <v>1.8981401926069527E+43</v>
+        <v>1.8969933302065128E+43</v>
       </c>
       <c r="N46" s="51">
         <f>M46-(0.1*E46)*B46</f>
-        <v>1.7080494212389416E+43</v>
+        <v>1.7069025588385016E+43</v>
       </c>
       <c r="O46" s="52" t="s">
         <v>49</v>
       </c>
       <c r="P46" s="53">
         <f>L42</f>
-        <v>13253.625346999999</v>
+        <v>13245.617464000001</v>
       </c>
       <c r="Q46" s="54">
         <f>P46/O42</f>
-        <v>4.3307460046568158</v>
+        <v>4.3281293540121784</v>
       </c>
       <c r="R46" s="55">
         <f>P46-S45</f>
-        <v>13263.284455341987</v>
+        <v>13259.279312659539</v>
       </c>
       <c r="S46" s="56"/>
-      <c r="T46" s="113"/>
-      <c r="U46" s="114"/>
-      <c r="V46" s="114"/>
-      <c r="W46" s="114"/>
-      <c r="X46" s="115"/>
-      <c r="Y46" s="116"/>
-      <c r="Z46" s="117"/>
+      <c r="T46" s="138"/>
+      <c r="U46" s="139"/>
+      <c r="V46" s="139"/>
+      <c r="W46" s="139"/>
+      <c r="X46" s="140"/>
+      <c r="Y46" s="141"/>
+      <c r="Z46" s="142"/>
     </row>
     <row r="47" spans="1:26" ht="21.3" customHeight="1">
       <c r="A47" s="57"/>
@@ -5600,65 +5599,65 @@
       <c r="Z48" s="59"/>
     </row>
     <row r="49" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="124" t="s">
+      <c r="A49" s="125"/>
+      <c r="B49" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="120"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="120"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="120"/>
-      <c r="T49" s="120"/>
-      <c r="U49" s="120"/>
-      <c r="V49" s="120"/>
-      <c r="W49" s="120"/>
-      <c r="X49" s="120"/>
-      <c r="Y49" s="125"/>
-      <c r="Z49" s="126"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="128"/>
+      <c r="Z49" s="129"/>
     </row>
     <row r="50" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A50" s="99"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="103"/>
-      <c r="W50" s="103"/>
-      <c r="X50" s="103"/>
-      <c r="Y50" s="120"/>
-      <c r="Z50" s="127"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="115"/>
+      <c r="M50" s="115"/>
+      <c r="N50" s="115"/>
+      <c r="O50" s="115"/>
+      <c r="P50" s="115"/>
+      <c r="Q50" s="115"/>
+      <c r="R50" s="115"/>
+      <c r="S50" s="115"/>
+      <c r="T50" s="115"/>
+      <c r="U50" s="115"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="108"/>
+      <c r="X50" s="108"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="130"/>
     </row>
     <row r="51" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A51" s="100"/>
+      <c r="A51" s="123"/>
       <c r="B51" s="22" t="s">
         <v>4</v>
       </c>
@@ -5670,23 +5669,23 @@
         <f>B53/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E51" s="102"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="103"/>
-      <c r="R51" s="103"/>
-      <c r="S51" s="103"/>
-      <c r="T51" s="103"/>
-      <c r="U51" s="104"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="108"/>
+      <c r="T51" s="108"/>
+      <c r="U51" s="109"/>
       <c r="V51" s="22" t="s">
         <v>4</v>
       </c>
@@ -5702,7 +5701,7 @@
       <c r="Z51" s="119"/>
     </row>
     <row r="52" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A52" s="100"/>
+      <c r="A52" s="123"/>
       <c r="B52" s="25" t="s">
         <v>5</v>
       </c>
@@ -5780,7 +5779,7 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="40.65" customHeight="1" thickBot="1">
-      <c r="A53" s="101"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -5881,7 +5880,7 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A54" s="96" t="s">
+      <c r="A54" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="34" t="s">
@@ -5923,23 +5922,23 @@
       <c r="N54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O54" s="129" t="s">
+      <c r="O54" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P54" s="130"/>
-      <c r="Q54" s="130"/>
-      <c r="R54" s="131"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="105"/>
-      <c r="U54" s="106"/>
-      <c r="V54" s="106"/>
-      <c r="W54" s="106"/>
-      <c r="X54" s="107"/>
-      <c r="Y54" s="108"/>
-      <c r="Z54" s="109"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="105"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="134"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="116"/>
+      <c r="W54" s="116"/>
+      <c r="X54" s="135"/>
+      <c r="Y54" s="102"/>
+      <c r="Z54" s="131"/>
     </row>
     <row r="55" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A55" s="96"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="39">
         <f>SQRT(B53*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -5991,27 +5990,27 @@
         <f>M55-(0.1*E55)*B55</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O55" s="128" t="s">
+      <c r="O55" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P55" s="108"/>
-      <c r="Q55" s="128" t="s">
+      <c r="P55" s="102"/>
+      <c r="Q55" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R55" s="108"/>
+      <c r="R55" s="102"/>
       <c r="S55" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T55" s="110"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="111"/>
-      <c r="X55" s="112"/>
-      <c r="Y55" s="108"/>
-      <c r="Z55" s="109"/>
+      <c r="T55" s="136"/>
+      <c r="U55" s="115"/>
+      <c r="V55" s="115"/>
+      <c r="W55" s="115"/>
+      <c r="X55" s="137"/>
+      <c r="Y55" s="102"/>
+      <c r="Z55" s="131"/>
     </row>
     <row r="56" spans="1:26" ht="32.85" customHeight="1">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B56" s="34" t="s">
@@ -6072,16 +6071,16 @@
         <f>(P57-Q56)/2*(1-0.0003)</f>
         <v>-950.06904614931864</v>
       </c>
-      <c r="T56" s="110"/>
-      <c r="U56" s="111"/>
-      <c r="V56" s="111"/>
-      <c r="W56" s="111"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="108"/>
-      <c r="Z56" s="109"/>
+      <c r="T56" s="136"/>
+      <c r="U56" s="115"/>
+      <c r="V56" s="115"/>
+      <c r="W56" s="115"/>
+      <c r="X56" s="137"/>
+      <c r="Y56" s="102"/>
+      <c r="Z56" s="131"/>
     </row>
     <row r="57" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A57" s="97"/>
+      <c r="A57" s="120"/>
       <c r="B57" s="48">
         <f>SQRT(V53*10^6/10^18)*2^96</f>
         <v>5.2770739031427465E+24</v>
@@ -6149,13 +6148,13 @@
         <v>12077.763026149318</v>
       </c>
       <c r="S57" s="56"/>
-      <c r="T57" s="113"/>
-      <c r="U57" s="114"/>
-      <c r="V57" s="114"/>
-      <c r="W57" s="114"/>
-      <c r="X57" s="115"/>
-      <c r="Y57" s="116"/>
-      <c r="Z57" s="117"/>
+      <c r="T57" s="138"/>
+      <c r="U57" s="139"/>
+      <c r="V57" s="139"/>
+      <c r="W57" s="139"/>
+      <c r="X57" s="140"/>
+      <c r="Y57" s="141"/>
+      <c r="Z57" s="142"/>
     </row>
     <row r="58" spans="1:26" ht="21.3" customHeight="1">
       <c r="A58" s="57"/>
@@ -6214,65 +6213,65 @@
       <c r="Z59" s="67"/>
     </row>
     <row r="60" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="98"/>
+      <c r="A60" s="125"/>
       <c r="B60" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="106"/>
-      <c r="O60" s="106"/>
-      <c r="P60" s="106"/>
-      <c r="Q60" s="106"/>
-      <c r="R60" s="106"/>
-      <c r="S60" s="106"/>
-      <c r="T60" s="106"/>
-      <c r="U60" s="106"/>
-      <c r="V60" s="106"/>
-      <c r="W60" s="106"/>
-      <c r="X60" s="106"/>
-      <c r="Y60" s="130"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
+      <c r="M60" s="116"/>
+      <c r="N60" s="116"/>
+      <c r="O60" s="116"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="116"/>
+      <c r="R60" s="116"/>
+      <c r="S60" s="116"/>
+      <c r="T60" s="116"/>
+      <c r="U60" s="116"/>
+      <c r="V60" s="116"/>
+      <c r="W60" s="116"/>
+      <c r="X60" s="116"/>
+      <c r="Y60" s="104"/>
       <c r="Z60" s="133"/>
     </row>
     <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="99"/>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="111"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
-      <c r="S61" s="111"/>
-      <c r="T61" s="111"/>
-      <c r="U61" s="111"/>
-      <c r="V61" s="103"/>
-      <c r="W61" s="103"/>
-      <c r="X61" s="103"/>
-      <c r="Y61" s="106"/>
-      <c r="Z61" s="134"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
+      <c r="L61" s="115"/>
+      <c r="M61" s="115"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="115"/>
+      <c r="T61" s="115"/>
+      <c r="U61" s="115"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
+      <c r="Y61" s="116"/>
+      <c r="Z61" s="117"/>
     </row>
     <row r="62" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="100"/>
+      <c r="A62" s="123"/>
       <c r="B62" s="22" t="s">
         <v>4</v>
       </c>
@@ -6284,23 +6283,23 @@
         <f>B64/0.81</f>
         <v>3778.1061728382715</v>
       </c>
-      <c r="E62" s="102"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
-      <c r="L62" s="103"/>
-      <c r="M62" s="103"/>
-      <c r="N62" s="103"/>
-      <c r="O62" s="103"/>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="103"/>
-      <c r="R62" s="103"/>
-      <c r="S62" s="103"/>
-      <c r="T62" s="103"/>
-      <c r="U62" s="104"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="108"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="108"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="108"/>
+      <c r="S62" s="108"/>
+      <c r="T62" s="108"/>
+      <c r="U62" s="109"/>
       <c r="V62" s="22" t="s">
         <v>4</v>
       </c>
@@ -6316,7 +6315,7 @@
       <c r="Z62" s="119"/>
     </row>
     <row r="63" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="100"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="68" t="s">
         <v>5</v>
       </c>
@@ -6394,7 +6393,7 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="36" customHeight="1">
-      <c r="A64" s="101"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="69">
         <f t="shared" ref="B64:D70" si="3">3060.265999999</f>
         <v>3060.2659999990001</v>
@@ -6493,7 +6492,7 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="34" t="s">
@@ -6535,23 +6534,23 @@
       <c r="N65" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O65" s="129" t="s">
+      <c r="O65" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P65" s="130"/>
-      <c r="Q65" s="130"/>
-      <c r="R65" s="131"/>
-      <c r="S65" s="109"/>
-      <c r="T65" s="98"/>
-      <c r="U65" s="120"/>
-      <c r="V65" s="120"/>
-      <c r="W65" s="106"/>
-      <c r="X65" s="107"/>
-      <c r="Y65" s="121"/>
-      <c r="Z65" s="122"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="105"/>
+      <c r="S65" s="131"/>
+      <c r="T65" s="125"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="111"/>
+      <c r="W65" s="116"/>
+      <c r="X65" s="135"/>
+      <c r="Y65" s="143"/>
+      <c r="Z65" s="144"/>
     </row>
     <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="96"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="39">
         <f>SQRT(B64*10^6/10^18)*2^96</f>
         <v>4.382875884546422E+24</v>
@@ -6603,27 +6602,27 @@
         <f>M66-($B$3*E66)*B66</f>
         <v>1.2889611060943387E+43</v>
       </c>
-      <c r="O66" s="128" t="s">
+      <c r="O66" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="128" t="s">
+      <c r="P66" s="102"/>
+      <c r="Q66" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="R66" s="108"/>
+      <c r="R66" s="102"/>
       <c r="S66" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="T66" s="99"/>
-      <c r="U66" s="111"/>
-      <c r="V66" s="111"/>
-      <c r="W66" s="111"/>
-      <c r="X66" s="112"/>
-      <c r="Y66" s="108"/>
-      <c r="Z66" s="109"/>
+      <c r="T66" s="126"/>
+      <c r="U66" s="115"/>
+      <c r="V66" s="115"/>
+      <c r="W66" s="115"/>
+      <c r="X66" s="137"/>
+      <c r="Y66" s="102"/>
+      <c r="Z66" s="131"/>
     </row>
     <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="96" t="s">
+      <c r="A67" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="34" t="s">
@@ -6684,16 +6683,16 @@
         <f>(P68-Q67)/2*(1-0.0003)</f>
         <v>-0.42613968412199249</v>
       </c>
-      <c r="T67" s="99"/>
-      <c r="U67" s="111"/>
-      <c r="V67" s="111"/>
-      <c r="W67" s="111"/>
-      <c r="X67" s="112"/>
-      <c r="Y67" s="108"/>
-      <c r="Z67" s="109"/>
+      <c r="T67" s="126"/>
+      <c r="U67" s="115"/>
+      <c r="V67" s="115"/>
+      <c r="W67" s="115"/>
+      <c r="X67" s="137"/>
+      <c r="Y67" s="102"/>
+      <c r="Z67" s="131"/>
     </row>
     <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="97"/>
+      <c r="A68" s="120"/>
       <c r="B68" s="48">
         <f>SQRT(V64*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -6761,13 +6760,13 @@
         <v>10000.426139684121</v>
       </c>
       <c r="S68" s="75"/>
-      <c r="T68" s="123"/>
-      <c r="U68" s="114"/>
-      <c r="V68" s="114"/>
-      <c r="W68" s="114"/>
-      <c r="X68" s="115"/>
-      <c r="Y68" s="116"/>
-      <c r="Z68" s="117"/>
+      <c r="T68" s="145"/>
+      <c r="U68" s="139"/>
+      <c r="V68" s="139"/>
+      <c r="W68" s="139"/>
+      <c r="X68" s="140"/>
+      <c r="Y68" s="141"/>
+      <c r="Z68" s="142"/>
     </row>
     <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="76"/>
@@ -7119,28 +7118,29 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E7:U7"/>
-    <mergeCell ref="B5:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="E62:U62"/>
+    <mergeCell ref="T10:Z13"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="T21:Z24"/>
+    <mergeCell ref="T32:Z35"/>
+    <mergeCell ref="T43:Z46"/>
+    <mergeCell ref="T54:Z57"/>
+    <mergeCell ref="T65:Z68"/>
+    <mergeCell ref="B16:Z17"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="B60:Z61"/>
     <mergeCell ref="E18:U18"/>
     <mergeCell ref="E29:U29"/>
     <mergeCell ref="E40:U40"/>
@@ -7157,29 +7157,28 @@
     <mergeCell ref="B27:Z28"/>
     <mergeCell ref="B38:Z39"/>
     <mergeCell ref="B49:Z50"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="B60:Z61"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="E62:U62"/>
-    <mergeCell ref="T10:Z13"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="Y62:Z62"/>
-    <mergeCell ref="T21:Z24"/>
-    <mergeCell ref="T32:Z35"/>
-    <mergeCell ref="T43:Z46"/>
-    <mergeCell ref="T54:Z57"/>
-    <mergeCell ref="T65:Z68"/>
-    <mergeCell ref="B16:Z17"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E7:U7"/>
+    <mergeCell ref="B5:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait" r:id="rId1"/>

--- a/test/scenarios/Rebalance_Test.xlsx
+++ b/test/scenarios/Rebalance_Test.xlsx
@@ -1679,6 +1679,129 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,39 +1817,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1734,99 +1827,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2991,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q22" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N21" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -3026,32 +3026,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.6" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="100"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="141"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
@@ -3149,65 +3149,65 @@
       <c r="Z4" s="21"/>
     </row>
     <row r="5" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="110" t="s">
+      <c r="A5" s="135"/>
+      <c r="B5" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="113"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="144"/>
     </row>
     <row r="6" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="117"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="134"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A7" s="123"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
@@ -3219,23 +3219,23 @@
         <f>B9/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="109"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="104"/>
       <c r="V7" s="22" t="s">
         <v>4</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="Z7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A8" s="123"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="39.9" customHeight="1">
-      <c r="A9" s="124"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="30">
         <f>3060.35619083117</f>
         <v>3060.3561908311699</v>
@@ -3428,7 +3428,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -3470,23 +3470,23 @@
       <c r="N10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="103" t="s">
+      <c r="O10" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="131"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="109"/>
     </row>
     <row r="11" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A11" s="106"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="39">
         <f>SQRT(B9*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -3538,27 +3538,27 @@
         <f>M11-($B$3*E11)*B11</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O11" s="101" t="s">
+      <c r="O11" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="101" t="s">
+      <c r="P11" s="108"/>
+      <c r="Q11" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="102"/>
+      <c r="R11" s="108"/>
       <c r="S11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="136"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="115"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="131"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="109"/>
     </row>
     <row r="12" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="34" t="s">
@@ -3619,16 +3619,16 @@
         <f>(P13-Q12)/2*(1-0.0003)</f>
         <v>-0.42613940834773056</v>
       </c>
-      <c r="T12" s="136"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="131"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="109"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1">
-      <c r="A13" s="120"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="48">
         <f>SQRT(V9*10^6/10^18)*2^96</f>
         <v>4.3972388145443278E+24</v>
@@ -3696,13 +3696,13 @@
         <v>10000.426139408348</v>
       </c>
       <c r="S13" s="56"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="142"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="117"/>
     </row>
     <row r="14" spans="1:26" ht="21.3" customHeight="1">
       <c r="A14" s="57"/>
@@ -3761,65 +3761,65 @@
       <c r="Z15" s="59"/>
     </row>
     <row r="16" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A16" s="125"/>
-      <c r="B16" s="127" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="129"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="126"/>
     </row>
     <row r="17" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A17" s="126"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="130"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="127"/>
     </row>
     <row r="18" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A18" s="123"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="22" t="s">
         <v>4</v>
       </c>
@@ -3831,23 +3831,23 @@
         <f>B20/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="109"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="104"/>
       <c r="V18" s="22" t="s">
         <v>4</v>
       </c>
@@ -3863,7 +3863,7 @@
       <c r="Z18" s="119"/>
     </row>
     <row r="19" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A19" s="123"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="25" t="s">
         <v>5</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="40.5" customHeight="1">
-      <c r="A20" s="124"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="30">
         <f t="shared" ref="B20:B53" si="1">3060.35619083117</f>
         <v>3060.3561908311699</v>
@@ -4041,7 +4041,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -4083,23 +4083,23 @@
       <c r="N21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="103" t="s">
+      <c r="O21" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="131"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="109"/>
     </row>
     <row r="22" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A22" s="106"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="39">
         <f>SQRT(B20*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -4151,27 +4151,27 @@
         <f>M22-(0.1*E22)*B22</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O22" s="101" t="s">
+      <c r="O22" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="101" t="s">
+      <c r="P22" s="108"/>
+      <c r="Q22" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="102"/>
+      <c r="R22" s="108"/>
       <c r="S22" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="136"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="115"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="131"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="109"/>
     </row>
     <row r="23" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="34" t="s">
@@ -4232,16 +4232,16 @@
         <f>(P24-Q23)/2*(1-0.0003)</f>
         <v>2547.2736580147784</v>
       </c>
-      <c r="T23" s="136"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="115"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="131"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="109"/>
     </row>
     <row r="24" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A24" s="120"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="48">
         <f>SQRT(V20*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -4309,13 +4309,13 @@
         <v>12549.655015985223</v>
       </c>
       <c r="S24" s="56"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="140"/>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="142"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="117"/>
     </row>
     <row r="25" spans="1:26" ht="21.3" customHeight="1">
       <c r="A25" s="57"/>
@@ -4374,65 +4374,65 @@
       <c r="Z26" s="59"/>
     </row>
     <row r="27" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="127" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="129"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="126"/>
     </row>
     <row r="28" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="108"/>
-      <c r="W28" s="108"/>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="130"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="127"/>
     </row>
     <row r="29" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A29" s="123"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="22" t="s">
         <v>4</v>
       </c>
@@ -4444,23 +4444,23 @@
         <f>B31/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="109"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="104"/>
       <c r="V29" s="22" t="s">
         <v>4</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="Z29" s="119"/>
     </row>
     <row r="30" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A30" s="123"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="25" t="s">
         <v>5</v>
       </c>
@@ -4554,7 +4554,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="40.35" customHeight="1">
-      <c r="A31" s="124"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -4654,7 +4654,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="34" t="s">
@@ -4696,23 +4696,23 @@
       <c r="N32" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="103" t="s">
+      <c r="O32" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="131"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="109"/>
     </row>
     <row r="33" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A33" s="106"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="39">
         <f>SQRT(B31*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -4763,27 +4763,27 @@
         <f>M33-(0.1*E33)*B33</f>
         <v>1.5957069955871703E+43</v>
       </c>
-      <c r="O33" s="101" t="s">
+      <c r="O33" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="101" t="s">
+      <c r="P33" s="108"/>
+      <c r="Q33" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="102"/>
+      <c r="R33" s="108"/>
       <c r="S33" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="136"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="131"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="109"/>
     </row>
     <row r="34" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="34" t="s">
@@ -4844,16 +4844,16 @@
         <f>(P35-Q34)/2*(1-0.0003)</f>
         <v>-730.01633870293676</v>
       </c>
-      <c r="T34" s="136"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="115"/>
-      <c r="W34" s="115"/>
-      <c r="X34" s="137"/>
-      <c r="Y34" s="102"/>
-      <c r="Z34" s="131"/>
+      <c r="T34" s="110"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="112"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="109"/>
     </row>
     <row r="35" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A35" s="120"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="48">
         <f>SQRT(V31*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -4921,13 +4921,13 @@
         <v>13271.239641702938</v>
       </c>
       <c r="S35" s="56"/>
-      <c r="T35" s="138"/>
-      <c r="U35" s="139"/>
-      <c r="V35" s="139"/>
-      <c r="W35" s="139"/>
-      <c r="X35" s="140"/>
-      <c r="Y35" s="141"/>
-      <c r="Z35" s="142"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="117"/>
     </row>
     <row r="36" spans="1:26" ht="21.3" customHeight="1">
       <c r="A36" s="57"/>
@@ -4986,65 +4986,65 @@
       <c r="Z37" s="59"/>
     </row>
     <row r="38" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A38" s="125"/>
-      <c r="B38" s="127" t="s">
+      <c r="A38" s="98"/>
+      <c r="B38" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="111"/>
-      <c r="W38" s="111"/>
-      <c r="X38" s="111"/>
-      <c r="Y38" s="128"/>
-      <c r="Z38" s="129"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="120"/>
+      <c r="X38" s="120"/>
+      <c r="Y38" s="125"/>
+      <c r="Z38" s="126"/>
     </row>
     <row r="39" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A39" s="126"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="115"/>
-      <c r="R39" s="115"/>
-      <c r="S39" s="115"/>
-      <c r="T39" s="115"/>
-      <c r="U39" s="115"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="130"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="103"/>
+      <c r="X39" s="103"/>
+      <c r="Y39" s="120"/>
+      <c r="Z39" s="127"/>
     </row>
     <row r="40" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A40" s="123"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
@@ -5056,23 +5056,23 @@
         <f>B42/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E40" s="107"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="109"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="104"/>
       <c r="V40" s="22" t="s">
         <v>4</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="Z40" s="119"/>
     </row>
     <row r="41" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A41" s="123"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="25" t="s">
         <v>5</v>
       </c>
@@ -5166,7 +5166,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="40.799999999999997" customHeight="1">
-      <c r="A42" s="124"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -5266,7 +5266,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -5308,23 +5308,23 @@
       <c r="N43" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O43" s="103" t="s">
+      <c r="O43" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="134"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="135"/>
-      <c r="Y43" s="102"/>
-      <c r="Z43" s="131"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="131"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="109"/>
     </row>
     <row r="44" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A44" s="106"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="39">
         <f>SQRT(B42*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -5376,27 +5376,27 @@
         <f>M44-(0.1*E44)*B44</f>
         <v>1.7070183256080298E+43</v>
       </c>
-      <c r="O44" s="101" t="s">
+      <c r="O44" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="101" t="s">
+      <c r="P44" s="108"/>
+      <c r="Q44" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R44" s="102"/>
+      <c r="R44" s="108"/>
       <c r="S44" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="T44" s="136"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="115"/>
-      <c r="W44" s="115"/>
-      <c r="X44" s="137"/>
-      <c r="Y44" s="102"/>
-      <c r="Z44" s="131"/>
+      <c r="T44" s="110"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="112"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="109"/>
     </row>
     <row r="45" spans="1:26" ht="20.85" customHeight="1">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="34" t="s">
@@ -5457,16 +5457,16 @@
         <f>(P46-Q45)/2*(1-0.0003)</f>
         <v>-13.661848659537416</v>
       </c>
-      <c r="T45" s="136"/>
-      <c r="U45" s="115"/>
-      <c r="V45" s="115"/>
-      <c r="W45" s="115"/>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="102"/>
-      <c r="Z45" s="131"/>
+      <c r="T45" s="110"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="109"/>
     </row>
     <row r="46" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A46" s="120"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="48">
         <f>SQRT(V42*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -5534,13 +5534,13 @@
         <v>13259.279312659539</v>
       </c>
       <c r="S46" s="56"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="139"/>
-      <c r="V46" s="139"/>
-      <c r="W46" s="139"/>
-      <c r="X46" s="140"/>
-      <c r="Y46" s="141"/>
-      <c r="Z46" s="142"/>
+      <c r="T46" s="113"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="115"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="117"/>
     </row>
     <row r="47" spans="1:26" ht="21.3" customHeight="1">
       <c r="A47" s="57"/>
@@ -5599,65 +5599,65 @@
       <c r="Z48" s="59"/>
     </row>
     <row r="49" spans="1:26" ht="9.4499999999999993" customHeight="1">
-      <c r="A49" s="125"/>
-      <c r="B49" s="127" t="s">
+      <c r="A49" s="98"/>
+      <c r="B49" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="111"/>
-      <c r="U49" s="111"/>
-      <c r="V49" s="111"/>
-      <c r="W49" s="111"/>
-      <c r="X49" s="111"/>
-      <c r="Y49" s="128"/>
-      <c r="Z49" s="129"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="120"/>
+      <c r="T49" s="120"/>
+      <c r="U49" s="120"/>
+      <c r="V49" s="120"/>
+      <c r="W49" s="120"/>
+      <c r="X49" s="120"/>
+      <c r="Y49" s="125"/>
+      <c r="Z49" s="126"/>
     </row>
     <row r="50" spans="1:26" ht="21.9" customHeight="1">
-      <c r="A50" s="126"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
-      <c r="L50" s="115"/>
-      <c r="M50" s="115"/>
-      <c r="N50" s="115"/>
-      <c r="O50" s="115"/>
-      <c r="P50" s="115"/>
-      <c r="Q50" s="115"/>
-      <c r="R50" s="115"/>
-      <c r="S50" s="115"/>
-      <c r="T50" s="115"/>
-      <c r="U50" s="115"/>
-      <c r="V50" s="108"/>
-      <c r="W50" s="108"/>
-      <c r="X50" s="108"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="130"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="120"/>
+      <c r="Z50" s="127"/>
     </row>
     <row r="51" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A51" s="123"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="22" t="s">
         <v>4</v>
       </c>
@@ -5669,23 +5669,23 @@
         <f>B53/0.81</f>
         <v>3778.2175195446539</v>
       </c>
-      <c r="E51" s="107"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="108"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="108"/>
-      <c r="S51" s="108"/>
-      <c r="T51" s="108"/>
-      <c r="U51" s="109"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="103"/>
+      <c r="N51" s="103"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="103"/>
+      <c r="T51" s="103"/>
+      <c r="U51" s="104"/>
       <c r="V51" s="22" t="s">
         <v>4</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="Z51" s="119"/>
     </row>
     <row r="52" spans="1:26" ht="23.85" customHeight="1">
-      <c r="A52" s="123"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="25" t="s">
         <v>5</v>
       </c>
@@ -5779,7 +5779,7 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="40.65" customHeight="1" thickBot="1">
-      <c r="A53" s="124"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="30">
         <f t="shared" si="1"/>
         <v>3060.3561908311699</v>
@@ -5880,7 +5880,7 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="34" t="s">
@@ -5922,23 +5922,23 @@
       <c r="N54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O54" s="103" t="s">
+      <c r="O54" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="105"/>
-      <c r="S54" s="102"/>
-      <c r="T54" s="134"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="116"/>
-      <c r="W54" s="116"/>
-      <c r="X54" s="135"/>
-      <c r="Y54" s="102"/>
-      <c r="Z54" s="131"/>
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="131"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="105"/>
+      <c r="U54" s="106"/>
+      <c r="V54" s="106"/>
+      <c r="W54" s="106"/>
+      <c r="X54" s="107"/>
+      <c r="Y54" s="108"/>
+      <c r="Z54" s="109"/>
     </row>
     <row r="55" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A55" s="106"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="39">
         <f>SQRT(B53*10^6/10^18)*2^96</f>
         <v>4.3829404691790772E+24</v>
@@ -5990,27 +5990,27 @@
         <f>M55-(0.1*E55)*B55</f>
         <v>1.2889378916075946E+43</v>
       </c>
-      <c r="O55" s="101" t="s">
+      <c r="O55" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P55" s="102"/>
-      <c r="Q55" s="101" t="s">
+      <c r="P55" s="108"/>
+      <c r="Q55" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R55" s="102"/>
+      <c r="R55" s="108"/>
       <c r="S55" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T55" s="136"/>
-      <c r="U55" s="115"/>
-      <c r="V55" s="115"/>
-      <c r="W55" s="115"/>
-      <c r="X55" s="137"/>
-      <c r="Y55" s="102"/>
-      <c r="Z55" s="131"/>
+      <c r="T55" s="110"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="112"/>
+      <c r="Y55" s="108"/>
+      <c r="Z55" s="109"/>
     </row>
     <row r="56" spans="1:26" ht="32.85" customHeight="1">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B56" s="34" t="s">
@@ -6071,16 +6071,16 @@
         <f>(P57-Q56)/2*(1-0.0003)</f>
         <v>-950.06904614931864</v>
       </c>
-      <c r="T56" s="136"/>
-      <c r="U56" s="115"/>
-      <c r="V56" s="115"/>
-      <c r="W56" s="115"/>
-      <c r="X56" s="137"/>
-      <c r="Y56" s="102"/>
-      <c r="Z56" s="131"/>
+      <c r="T56" s="110"/>
+      <c r="U56" s="111"/>
+      <c r="V56" s="111"/>
+      <c r="W56" s="111"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="108"/>
+      <c r="Z56" s="109"/>
     </row>
     <row r="57" spans="1:26" ht="21.3" customHeight="1">
-      <c r="A57" s="120"/>
+      <c r="A57" s="97"/>
       <c r="B57" s="48">
         <f>SQRT(V53*10^6/10^18)*2^96</f>
         <v>5.2770739031427465E+24</v>
@@ -6148,13 +6148,13 @@
         <v>12077.763026149318</v>
       </c>
       <c r="S57" s="56"/>
-      <c r="T57" s="138"/>
-      <c r="U57" s="139"/>
-      <c r="V57" s="139"/>
-      <c r="W57" s="139"/>
-      <c r="X57" s="140"/>
-      <c r="Y57" s="141"/>
-      <c r="Z57" s="142"/>
+      <c r="T57" s="113"/>
+      <c r="U57" s="114"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
+      <c r="X57" s="115"/>
+      <c r="Y57" s="116"/>
+      <c r="Z57" s="117"/>
     </row>
     <row r="58" spans="1:26" ht="21.3" customHeight="1">
       <c r="A58" s="57"/>
@@ -6213,65 +6213,65 @@
       <c r="Z59" s="67"/>
     </row>
     <row r="60" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="125"/>
+      <c r="A60" s="98"/>
       <c r="B60" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="116"/>
-      <c r="R60" s="116"/>
-      <c r="S60" s="116"/>
-      <c r="T60" s="116"/>
-      <c r="U60" s="116"/>
-      <c r="V60" s="116"/>
-      <c r="W60" s="116"/>
-      <c r="X60" s="116"/>
-      <c r="Y60" s="104"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
+      <c r="N60" s="106"/>
+      <c r="O60" s="106"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="106"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
+      <c r="V60" s="106"/>
+      <c r="W60" s="106"/>
+      <c r="X60" s="106"/>
+      <c r="Y60" s="130"/>
       <c r="Z60" s="133"/>
     </row>
     <row r="61" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="126"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="115"/>
-      <c r="L61" s="115"/>
-      <c r="M61" s="115"/>
-      <c r="N61" s="115"/>
-      <c r="O61" s="115"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="115"/>
-      <c r="S61" s="115"/>
-      <c r="T61" s="115"/>
-      <c r="U61" s="115"/>
-      <c r="V61" s="108"/>
-      <c r="W61" s="108"/>
-      <c r="X61" s="108"/>
-      <c r="Y61" s="116"/>
-      <c r="Z61" s="117"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
+      <c r="S61" s="111"/>
+      <c r="T61" s="111"/>
+      <c r="U61" s="111"/>
+      <c r="V61" s="103"/>
+      <c r="W61" s="103"/>
+      <c r="X61" s="103"/>
+      <c r="Y61" s="106"/>
+      <c r="Z61" s="134"/>
     </row>
     <row r="62" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="123"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="22" t="s">
         <v>4</v>
       </c>
@@ -6283,23 +6283,23 @@
         <f>B64/0.81</f>
         <v>3778.1061728382715</v>
       </c>
-      <c r="E62" s="107"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="108"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="108"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="108"/>
-      <c r="P62" s="108"/>
-      <c r="Q62" s="108"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="108"/>
-      <c r="T62" s="108"/>
-      <c r="U62" s="109"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="103"/>
+      <c r="K62" s="103"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="103"/>
+      <c r="N62" s="103"/>
+      <c r="O62" s="103"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="103"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="103"/>
+      <c r="T62" s="103"/>
+      <c r="U62" s="104"/>
       <c r="V62" s="22" t="s">
         <v>4</v>
       </c>
@@ -6315,7 +6315,7 @@
       <c r="Z62" s="119"/>
     </row>
     <row r="63" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="123"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="68" t="s">
         <v>5</v>
       </c>
@@ -6393,7 +6393,7 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="36" customHeight="1">
-      <c r="A64" s="124"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="69">
         <f t="shared" ref="B64:D70" si="3">3060.265999999</f>
         <v>3060.2659999990001</v>
@@ -6492,7 +6492,7 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="34" t="s">
@@ -6534,23 +6534,23 @@
       <c r="N65" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O65" s="103" t="s">
+      <c r="O65" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="P65" s="104"/>
-      <c r="Q65" s="104"/>
-      <c r="R65" s="105"/>
-      <c r="S65" s="131"/>
-      <c r="T65" s="125"/>
-      <c r="U65" s="111"/>
-      <c r="V65" s="111"/>
-      <c r="W65" s="116"/>
-      <c r="X65" s="135"/>
-      <c r="Y65" s="143"/>
-      <c r="Z65" s="144"/>
+      <c r="P65" s="130"/>
+      <c r="Q65" s="130"/>
+      <c r="R65" s="131"/>
+      <c r="S65" s="109"/>
+      <c r="T65" s="98"/>
+      <c r="U65" s="120"/>
+      <c r="V65" s="120"/>
+      <c r="W65" s="106"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="121"/>
+      <c r="Z65" s="122"/>
     </row>
     <row r="66" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="106"/>
+      <c r="A66" s="96"/>
       <c r="B66" s="39">
         <f>SQRT(B64*10^6/10^18)*2^96</f>
         <v>4.382875884546422E+24</v>
@@ -6602,27 +6602,27 @@
         <f>M66-($B$3*E66)*B66</f>
         <v>1.2889611060943387E+43</v>
       </c>
-      <c r="O66" s="101" t="s">
+      <c r="O66" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="P66" s="102"/>
-      <c r="Q66" s="101" t="s">
+      <c r="P66" s="108"/>
+      <c r="Q66" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="R66" s="102"/>
+      <c r="R66" s="108"/>
       <c r="S66" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="T66" s="126"/>
-      <c r="U66" s="115"/>
-      <c r="V66" s="115"/>
-      <c r="W66" s="115"/>
-      <c r="X66" s="137"/>
-      <c r="Y66" s="102"/>
-      <c r="Z66" s="131"/>
+      <c r="T66" s="99"/>
+      <c r="U66" s="111"/>
+      <c r="V66" s="111"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="112"/>
+      <c r="Y66" s="108"/>
+      <c r="Z66" s="109"/>
     </row>
     <row r="67" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B67" s="34" t="s">
@@ -6683,16 +6683,16 @@
         <f>(P68-Q67)/2*(1-0.0003)</f>
         <v>-0.42613968412199249</v>
       </c>
-      <c r="T67" s="126"/>
-      <c r="U67" s="115"/>
-      <c r="V67" s="115"/>
-      <c r="W67" s="115"/>
-      <c r="X67" s="137"/>
-      <c r="Y67" s="102"/>
-      <c r="Z67" s="131"/>
+      <c r="T67" s="99"/>
+      <c r="U67" s="111"/>
+      <c r="V67" s="111"/>
+      <c r="W67" s="111"/>
+      <c r="X67" s="112"/>
+      <c r="Y67" s="108"/>
+      <c r="Z67" s="109"/>
     </row>
     <row r="68" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="120"/>
+      <c r="A68" s="97"/>
       <c r="B68" s="48">
         <f>SQRT(V64*10^6/10^18)*2^96</f>
         <v>4.3829404692999735E+24</v>
@@ -6760,13 +6760,13 @@
         <v>10000.426139684121</v>
       </c>
       <c r="S68" s="75"/>
-      <c r="T68" s="145"/>
-      <c r="U68" s="139"/>
-      <c r="V68" s="139"/>
-      <c r="W68" s="139"/>
-      <c r="X68" s="140"/>
-      <c r="Y68" s="141"/>
-      <c r="Z68" s="142"/>
+      <c r="T68" s="123"/>
+      <c r="U68" s="114"/>
+      <c r="V68" s="114"/>
+      <c r="W68" s="114"/>
+      <c r="X68" s="115"/>
+      <c r="Y68" s="116"/>
+      <c r="Z68" s="117"/>
     </row>
     <row r="69" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="76"/>
@@ -7118,6 +7118,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E7:U7"/>
+    <mergeCell ref="B5:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E18:U18"/>
+    <mergeCell ref="E29:U29"/>
+    <mergeCell ref="E40:U40"/>
+    <mergeCell ref="E51:U51"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="B27:Z28"/>
+    <mergeCell ref="B38:Z39"/>
+    <mergeCell ref="B49:Z50"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="B60:Z61"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A60:A64"/>
@@ -7134,51 +7179,6 @@
     <mergeCell ref="T54:Z57"/>
     <mergeCell ref="T65:Z68"/>
     <mergeCell ref="B16:Z17"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="B60:Z61"/>
-    <mergeCell ref="E18:U18"/>
-    <mergeCell ref="E29:U29"/>
-    <mergeCell ref="E40:U40"/>
-    <mergeCell ref="E51:U51"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="B27:Z28"/>
-    <mergeCell ref="B38:Z39"/>
-    <mergeCell ref="B49:Z50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E7:U7"/>
-    <mergeCell ref="B5:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
@@ -7190,10 +7190,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C13:C15"/>
+  <dimension ref="C10:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7201,20 +7201,47 @@
     <col min="3" max="3" width="51.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="10" spans="3:3">
+      <c r="C10" s="2">
+        <v>14089940148</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="2">
+        <v>1574381331</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="2">
+        <v>1251555880</v>
+      </c>
+    </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2">
-        <v>4.1029598277810499E+18</v>
+        <f xml:space="preserve"> C10-C11-C12</f>
+        <v>11264002937</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="2">
-        <v>4.5751844712808699E+18</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="2">
-        <f>C14-C13</f>
-        <v>4.7222464349982003E+17</v>
+        <f>C10-C12</f>
+        <v>12838384268</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2">
+        <v>2.94555183530033E+18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2">
+        <v>7.3966335052503194E+17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="2">
+        <f>C19+C20</f>
+        <v>3.6852151858253619E+18</v>
       </c>
     </row>
   </sheetData>
